--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FDC3960-9A03-409A-9203-E1DD106A16EA}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC2C606-1872-41F6-9111-2306D9D10C61}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo NER" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Baseline</t>
   </si>
@@ -169,6 +170,30 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>google/bert_uncased_L-2_H-128_A-2'</t>
+  </si>
+  <si>
+    <t>Arquitetura base_model</t>
+  </si>
+  <si>
+    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.1); dense(activation=None)</t>
+  </si>
+  <si>
+    <t>Arquitetura siames_model</t>
+  </si>
+  <si>
+    <t>input(input_anchor_ids, input_anchor_mask, input_positive_ids, input_positive_mask, input_negative_ids, input_negative_mask, input_URIvec);  base_model([input_anchor_ids, input_anchor_mask]); base_model([input_positive_ids, input_positive_mask]); base_model([input_negative_ids, input_negative_mask]); output = tf.keras.layers.concatenate([embedding_anchor, embedding_positive, embedding_negative, input_URIvec], axis=1)</t>
+  </si>
+  <si>
+    <t>triplet_loss</t>
+  </si>
+  <si>
+    <t>25 com patience= 5 (melhor val_loss na epoch = 25)</t>
+  </si>
+  <si>
+    <t>standard (0.001)</t>
   </si>
 </sst>
 </file>
@@ -177,8 +202,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -228,9 +253,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +272,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1042,4 +1071,300 @@
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.87683284457477995</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.862863217576187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC2C606-1872-41F6-9111-2306D9D10C61}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FDD492-B90B-4322-886B-7215D4FED01C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo NER" sheetId="1" r:id="rId1"/>
     <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId2"/>
+    <sheet name="Modelo RE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Baseline</t>
   </si>
@@ -194,6 +195,39 @@
   </si>
   <si>
     <t>standard (0.001)</t>
+  </si>
+  <si>
+    <t>"neuralmind/bert-base-portuguese-cased"</t>
+  </si>
+  <si>
+    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.1); dense(64, 'relu'); dense(softmax)</t>
+  </si>
+  <si>
+    <t>CategoricalCrossentropy</t>
+  </si>
+  <si>
+    <t>50 com patience= 5 (melhor val_loss na epoch = 5)</t>
+  </si>
+  <si>
+    <t>Exponential decay(innitial: 0.00002; decay rate:0.01)</t>
+  </si>
+  <si>
+    <t>atravessa</t>
+  </si>
+  <si>
+    <t>constituted_by</t>
+  </si>
+  <si>
+    <t>has_age</t>
+  </si>
+  <si>
+    <t>located_in</t>
+  </si>
+  <si>
+    <t>no_relation</t>
+  </si>
+  <si>
+    <t>temporal_relation</t>
   </si>
 </sst>
 </file>
@@ -544,7 +578,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,4 +1401,339 @@
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.62345354808590103</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.58360037371153595</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.57206200089383197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.90285714285714203</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.92941176470588205</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87777777777777699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.105263157894736</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.77941176470588203</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.75714285714285701</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.80303030303030298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.868369351669941</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.87007874015747999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.891891891891891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FDD492-B90B-4322-886B-7215D4FED01C}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D7446A-8A63-4A2A-BAAD-54984E49707C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelo NER" sheetId="1" r:id="rId1"/>
-    <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId2"/>
-    <sheet name="Modelo RE" sheetId="3" r:id="rId3"/>
+    <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
+    <sheet name="PetroOntoVec" sheetId="5" r:id="rId2"/>
+    <sheet name="Modelo NER" sheetId="1" r:id="rId3"/>
+    <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId4"/>
+    <sheet name="Modelo RE" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="133">
   <si>
     <t>Baseline</t>
   </si>
@@ -228,16 +230,215 @@
   </si>
   <si>
     <t>temporal_relation</t>
+  </si>
+  <si>
+    <t>PetroVec</t>
+  </si>
+  <si>
+    <t>Petrovec-OeG-100</t>
+  </si>
+  <si>
+    <t>Petrovec-híbrido-100</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Model trained on the domain-specific O&amp;G corpus (Gome, 2021)</t>
+  </si>
+  <si>
+    <t>Model trained on both domain-specific and generic corpora (Gomes, 2021)</t>
+  </si>
+  <si>
+    <t>Same parameters than Petrovec-OeG-100, but train with Petrolês, NP1 and NP2 corpora.</t>
+  </si>
+  <si>
+    <t>Same parameters than Petrovec-OeG-100, but train with NILC, Petrolês, NP1 and NP2 corpora.</t>
+  </si>
+  <si>
+    <t>Algoritimo</t>
+  </si>
+  <si>
+    <t>window size</t>
+  </si>
+  <si>
+    <t>Word2Vec/skip-gram method from the Gensim Python library</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Vocabulary size</t>
+  </si>
+  <si>
+    <t>Corpora-size</t>
+  </si>
+  <si>
+    <t>Petrovec-OeG_NP2-100</t>
+  </si>
+  <si>
+    <t>Petrovec-híbrido_NP2-100</t>
+  </si>
+  <si>
+    <t>ontology_file = ../../KnowledgeGraph/OntoGeoLogicaInstanciasRelacoes.owl</t>
+  </si>
+  <si>
+    <t>ontology_projection = yes</t>
+  </si>
+  <si>
+    <t>projection_only_taxonomy = no</t>
+  </si>
+  <si>
+    <t>multiple_labels = yes</t>
+  </si>
+  <si>
+    <t>avoid_owl_constructs = no</t>
+  </si>
+  <si>
+    <t>save_document = no</t>
+  </si>
+  <si>
+    <t>axiom_reasoner = hermit</t>
+  </si>
+  <si>
+    <t>pre_annotation_file = ./cache/annotations.txt</t>
+  </si>
+  <si>
+    <t>pre_axiom_file = ./cache/axioms.txt</t>
+  </si>
+  <si>
+    <t>walker = wl</t>
+  </si>
+  <si>
+    <t>walk_depth = 3</t>
+  </si>
+  <si>
+    <t>URI_Doc = yes</t>
+  </si>
+  <si>
+    <t>Lit_Doc = yes</t>
+  </si>
+  <si>
+    <t>Mix_Doc = yes</t>
+  </si>
+  <si>
+    <t>Mix_Type = random</t>
+  </si>
+  <si>
+    <t>pre_train_model = None</t>
+  </si>
+  <si>
+    <t>embed_size = 100</t>
+  </si>
+  <si>
+    <t>iteration = 10</t>
+  </si>
+  <si>
+    <t>window = 5</t>
+  </si>
+  <si>
+    <t>min_count = 1</t>
+  </si>
+  <si>
+    <t>negative = 25</t>
+  </si>
+  <si>
+    <t>seed = 42</t>
+  </si>
+  <si>
+    <t>epoch = 100</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Petrovec-OeG)</t>
+  </si>
+  <si>
+    <t>pre_train_model = Petrovec-híbrido</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Petrovec-híbrido)</t>
+  </si>
+  <si>
+    <t>pre_train_model = Petrovec-OeG</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Petrovec-OeG_NP2)</t>
+  </si>
+  <si>
+    <t>pre_train_model = Petrovec-OeG_NP2</t>
+  </si>
+  <si>
+    <t>pre_train_model = Petrovec-híbrido_NP2</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Base)</t>
+  </si>
+  <si>
+    <t>walker = random</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Random Walker)</t>
+  </si>
+  <si>
+    <t>walk_depth = 2</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Depth 2)</t>
+  </si>
+  <si>
+    <t>walk_depth = 4</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Depth 4)</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Depth 5)</t>
+  </si>
+  <si>
+    <t>walk_depth = 5</t>
+  </si>
+  <si>
+    <t>ontology_projection = no</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (no_onto_projection)</t>
+  </si>
+  <si>
+    <t>petroner-uri-treino.conllu</t>
+  </si>
+  <si>
+    <t>Corpora treino</t>
+  </si>
+  <si>
+    <t>petroner-uri-validação.conllu</t>
+  </si>
+  <si>
+    <t>petroner-uri-teste.conllu</t>
+  </si>
+  <si>
+    <t>Corpora validação</t>
+  </si>
+  <si>
+    <t>Corpora teste</t>
+  </si>
+  <si>
+    <t>Parâmetros</t>
+  </si>
+  <si>
+    <t>NP1</t>
+  </si>
+  <si>
+    <t>petroner-uri-treino.conllu + np1-ner-golden-2023-07-11.conllu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -284,12 +485,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,10 +509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,11 +773,1519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3868F80-0CB9-4F7C-8838-88F10C1DAC14}">
+  <dimension ref="A2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6">
+        <v>161842</v>
+      </c>
+      <c r="F3" s="5">
+        <v>85725834</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>440692</v>
+      </c>
+      <c r="F4" s="5">
+        <v>365295169</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="5" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="10" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.80598433998331098</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.88835645129893404</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.83972528395231905</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.94001318391562205</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.91293213828425102</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.96875</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.88412017167381896</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.91964285714285698</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.85123966942148699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.90825688073394395</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.85344827586206895</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.97058823529411697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.85779816513761398</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.98421052631578898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.92941176470588205</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.86813186813186805</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.92532467532467499</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.901898734177215</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.90666666666666595</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.87179487179487103</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.94444444444444398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.98293515358361705</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.99310344827586206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.67128027681660896</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.53005464480874298</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.91509433962264097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.91046658259772995</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.84941176470588198</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.98097826086956497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.92068683565004095</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.88383045525902604</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.96075085324232001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.93645484949832702</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.93959731543624103</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.93270280101855196</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.88781163434902999</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.98237547892720301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.86800894854586097</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.85462555066079204</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.88181818181818095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.92356687898089096</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.88957055214723901</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.96026490066225101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.83911671924290199</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.77325581395348797</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.917241379310344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.93728222996515598</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.96415770609318996</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.91186440677966096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.78260869565217295</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.927152317880794</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.59505208333333304</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.42590866728797699</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.987041036717062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.866464339908953</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.77581521739130399</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.98109965635738805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.91542044618779095</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.85407136322049404</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.98626518753301595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.94110032362459495</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.93564993564993504</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.94661458333333304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.99127374244266697</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.99793954859734102</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.98469639484832505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I40"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,496 +2314,258 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.80598433998331098</v>
+        <v>0.87683284457477995</v>
       </c>
       <c r="C2" s="4">
-        <v>0.88835645129893404</v>
+        <v>0.86260367832672102</v>
       </c>
       <c r="D2" s="4">
-        <v>0.83972528395231905</v>
+        <v>0.862863217576187</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.94001318391562205</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.91293213828425102</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.96875</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.88412017167381896</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.91964285714285698</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.85123966942148699</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.90825688073394395</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.85344827586206895</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.97058823529411697</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.85779816513761398</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.98421052631578898</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.92941176470588205</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.86813186813186805</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.92532467532467499</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.901898734177215</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.95</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.90666666666666595</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.87179487179487103</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.94444444444444398</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.98293515358361705</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.97297297297297303</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.99310344827586206</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.67128027681660896</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.53005464480874298</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.91509433962264097</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.91046658259772995</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.84941176470588198</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.98097826086956497</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.92068683565004095</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.88383045525902604</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.96075085324232001</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.93645484949832702</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.93959731543624103</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.93333333333333302</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.93270280101855196</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.88781163434902999</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.98237547892720301</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.86800894854586097</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.85462555066079204</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.88181818181818095</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.92356687898089096</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.88957055214723901</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.96026490066225101</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.83911671924290199</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.77325581395348797</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.917241379310344</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.93728222996515598</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.96415770609318996</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.91186440677966096</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.78260869565217295</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.81818181818181801</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.927152317880794</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.90322580645161199</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.952380952380952</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.59505208333333304</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.42590866728797699</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.987041036717062</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.866464339908953</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.77581521739130399</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.98109965635738805</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.91542044618779095</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.85407136322049404</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.98626518753301595</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.94110032362459495</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.93564993564993504</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.94661458333333304</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.99127374244266697</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.99793954859734102</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.98469639484832505</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,307 +2576,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.87683284457477995</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.86260367832672102</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.862863217576187</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D7446A-8A63-4A2A-BAAD-54984E49707C}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7026F17B-FA79-408D-9DA7-DB00EACE7CC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
     <sheet name="PetroOntoVec" sheetId="5" r:id="rId2"/>
-    <sheet name="Modelo NER" sheetId="1" r:id="rId3"/>
-    <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId4"/>
-    <sheet name="Modelo RE" sheetId="3" r:id="rId5"/>
+    <sheet name="Triplet Dataset" sheetId="6" r:id="rId3"/>
+    <sheet name="Modelo NER" sheetId="1" r:id="rId4"/>
+    <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId5"/>
+    <sheet name="Modelo RE" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="140">
   <si>
     <t>Baseline</t>
   </si>
@@ -428,6 +429,27 @@
   </si>
   <si>
     <t>petroner-uri-treino.conllu + np1-ner-golden-2023-07-11.conllu</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (Petrovec-híbrido_NP2)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Triplet Dataset</t>
+  </si>
+  <si>
+    <t>x_easy</t>
+  </si>
+  <si>
+    <t>x_hard</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>treinando</t>
   </si>
 </sst>
 </file>
@@ -438,7 +460,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -492,7 +514,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,6 +531,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +954,7 @@
         <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>115</v>
@@ -1680,6 +1706,20 @@
       </c>
       <c r="J25" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1688,6 +1728,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -2280,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -2576,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:I40"/>
   <sheetViews>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7026F17B-FA79-408D-9DA7-DB00EACE7CC4}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F8F447-08B1-4308-B652-E453C8F14658}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Modelo NER" sheetId="1" r:id="rId4"/>
     <sheet name="Modelo Instances clustering" sheetId="2" r:id="rId5"/>
     <sheet name="Modelo RE" sheetId="3" r:id="rId6"/>
+    <sheet name="Pipeline" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="181">
   <si>
     <t>Baseline</t>
   </si>
@@ -47,15 +48,9 @@
     <t>Modelo BERT pretreinado</t>
   </si>
   <si>
-    <t>"neuralmind/bert-large-portuguese-cased"</t>
-  </si>
-  <si>
     <t>Arquitetura</t>
   </si>
   <si>
-    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.3); dense(softmax)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss function </t>
   </si>
   <si>
@@ -203,9 +198,6 @@
     <t>"neuralmind/bert-base-portuguese-cased"</t>
   </si>
   <si>
-    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.1); dense(64, 'relu'); dense(softmax)</t>
-  </si>
-  <si>
     <t>CategoricalCrossentropy</t>
   </si>
   <si>
@@ -236,12 +228,6 @@
     <t>PetroVec</t>
   </si>
   <si>
-    <t>Petrovec-OeG-100</t>
-  </si>
-  <si>
-    <t>Petrovec-híbrido-100</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -275,12 +261,6 @@
     <t>Corpora-size</t>
   </si>
   <si>
-    <t>Petrovec-OeG_NP2-100</t>
-  </si>
-  <si>
-    <t>Petrovec-híbrido_NP2-100</t>
-  </si>
-  <si>
     <t>ontology_file = ../../KnowledgeGraph/OntoGeoLogicaInstanciasRelacoes.owl</t>
   </si>
   <si>
@@ -450,6 +430,150 @@
   </si>
   <si>
     <t>treinando</t>
+  </si>
+  <si>
+    <t>Petrovec-OeG-pub</t>
+  </si>
+  <si>
+    <t>Petrovec-híbrido_pub-NP2</t>
+  </si>
+  <si>
+    <t>Petrovec-híbrido-pub</t>
+  </si>
+  <si>
+    <t>Petrovec-OeG_pub-NP2</t>
+  </si>
+  <si>
+    <t>Bertimbau Large</t>
+  </si>
+  <si>
+    <t>Baseline-0</t>
+  </si>
+  <si>
+    <t>DEPS (UPOS) como input</t>
+  </si>
+  <si>
+    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.1); dense(softmax)</t>
+  </si>
+  <si>
+    <t>Dropout_03</t>
+  </si>
+  <si>
+    <t>TinyBert</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Alpha 01</t>
+  </si>
+  <si>
+    <t>Alpha 001</t>
+  </si>
+  <si>
+    <t>Augmented F1-Score</t>
+  </si>
+  <si>
+    <t>Augmented Precision</t>
+  </si>
+  <si>
+    <t>Augmented Recall</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>PetroOntoVec</t>
+  </si>
+  <si>
+    <t>Modelo NER</t>
+  </si>
+  <si>
+    <t>Modelo Intances Clustering</t>
+  </si>
+  <si>
+    <t>Modelo RE</t>
+  </si>
+  <si>
+    <t>Jaccard Geral</t>
+  </si>
+  <si>
+    <t>bacia</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>estrutura</t>
+  </si>
+  <si>
+    <t>poco</t>
+  </si>
+  <si>
+    <t>textura</t>
+  </si>
+  <si>
+    <t>lito</t>
+  </si>
+  <si>
+    <t>tempo_geo</t>
+  </si>
+  <si>
+    <t>rocha</t>
+  </si>
+  <si>
+    <t>uncosol</t>
+  </si>
+  <si>
+    <t>og_fluid</t>
+  </si>
+  <si>
+    <t>earth_fluid</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>sistema_petro</t>
+  </si>
+  <si>
+    <t>elemento_petro</t>
+  </si>
+  <si>
+    <t>qualidade_tempo_geo</t>
+  </si>
+  <si>
+    <t>crosses</t>
+  </si>
+  <si>
+    <t>participates_in</t>
+  </si>
+  <si>
+    <t>part_of</t>
+  </si>
+  <si>
+    <t>carrier_of</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>has_temporal_relation</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Base Classes</t>
+  </si>
+  <si>
+    <t>instance Clustering scores usando parâmetros do modelos base</t>
+  </si>
+  <si>
+    <t>10 com patience= 5 (melhor val_loss na epoch = 3)</t>
+  </si>
+  <si>
+    <t>10 com patience= 5 (melhor val_loss na epoch =  )</t>
   </si>
 </sst>
 </file>
@@ -803,7 +927,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,33 +942,33 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -859,15 +983,15 @@
         <v>85725834</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -882,15 +1006,15 @@
         <v>365295169</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -899,15 +1023,15 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -916,7 +1040,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -926,800 +1050,836 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="10" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="8" max="11" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>113</v>
-      </c>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D10" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F10" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H10" t="s">
         <v>83</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I10" t="s">
         <v>83</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J10" t="s">
         <v>83</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H11" t="s">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I11" t="s">
         <v>84</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J12" t="s">
         <v>85</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K12" t="s">
         <v>85</v>
       </c>
-      <c r="J5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
         <v>86</v>
       </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I14" t="s">
         <v>87</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J14" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G15" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H15" t="s">
         <v>88</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J15" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J16" t="s">
         <v>89</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H17" t="s">
         <v>90</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I17" t="s">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I18" t="s">
         <v>91</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J18" t="s">
         <v>91</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K18" t="s">
         <v>91</v>
       </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H19" t="s">
         <v>92</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I19" t="s">
         <v>92</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F20" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G20" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E21" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F21" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H21" t="s">
         <v>94</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J21" t="s">
         <v>94</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G22" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H22" t="s">
         <v>95</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I22" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J22" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G23" t="s">
         <v>96</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H23" t="s">
         <v>96</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I23" t="s">
         <v>96</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J23" t="s">
         <v>96</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E24" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I24" t="s">
         <v>97</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J24" t="s">
         <v>97</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="G18" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="s">
+      <c r="F25" t="s">
         <v>98</v>
       </c>
-      <c r="J18" t="s">
+      <c r="G25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1729,27 +1889,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>135</v>
+      <c r="A1" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -1757,10 +1920,45 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1770,20 +1968,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="29.88671875" customWidth="1"/>
+    <col min="11" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,562 +1994,549 @@
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="4">
-        <v>0.80598433998331098</v>
+        <v>0.82705015605171295</v>
       </c>
       <c r="C2" s="4">
-        <v>0.88835645129893404</v>
+        <v>0.77951575564926801</v>
       </c>
       <c r="D2" s="4">
-        <v>0.83972528395231905</v>
+        <v>0.900964570925326</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.94001318391562205</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.91293213828425102</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.96875</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.88412017167381896</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.91964285714285698</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.85123966942148699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.90825688073394395</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.85344827586206895</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.97058823529411697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.85779816513761398</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.98421052631578898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.92941176470588205</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.86813186813186805</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.92532467532467499</v>
+        <v>0.929595827900912</v>
       </c>
       <c r="C18" s="4">
-        <v>0.901898734177215</v>
+        <v>0.89348370927318299</v>
       </c>
       <c r="D18" s="4">
-        <v>0.95</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.90666666666666595</v>
+        <v>0.83760683760683696</v>
       </c>
       <c r="C19" s="4">
-        <v>0.87179487179487103</v>
+        <v>0.86725663716814105</v>
       </c>
       <c r="D19" s="4">
-        <v>0.94444444444444398</v>
+        <v>0.80991735537190002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.98293515358361705</v>
+        <v>0.91262135922330001</v>
       </c>
       <c r="C20" s="4">
-        <v>0.97297297297297303</v>
+        <v>0.90384615384615297</v>
       </c>
       <c r="D20" s="4">
-        <v>0.99310344827586206</v>
+        <v>0.92156862745098</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.67128027681660896</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="C21" s="4">
-        <v>0.53005464480874298</v>
+        <v>0.87906976744186005</v>
       </c>
       <c r="D21" s="4">
-        <v>0.91509433962264097</v>
+        <v>0.99473684210526303</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>0.91046658259772995</v>
+        <v>0.86338797814207602</v>
       </c>
       <c r="C22" s="4">
-        <v>0.84941176470588198</v>
+        <v>0.75961538461538403</v>
       </c>
       <c r="D22" s="4">
-        <v>0.98097826086956497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>0.92068683565004095</v>
+        <v>0.91935483870967705</v>
       </c>
       <c r="C24" s="4">
-        <v>0.88383045525902604</v>
+        <v>0.890625</v>
       </c>
       <c r="D24" s="4">
-        <v>0.96075085324232001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>0.93645484949832702</v>
+        <v>0.911392405063291</v>
       </c>
       <c r="C25" s="4">
-        <v>0.93959731543624103</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="D25" s="4">
-        <v>0.93333333333333302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>0.93270280101855196</v>
+        <v>0.96</v>
       </c>
       <c r="C26" s="4">
-        <v>0.88781163434902999</v>
+        <v>0.92903225806451595</v>
       </c>
       <c r="D26" s="4">
-        <v>0.98237547892720301</v>
+        <v>0.99310344827586206</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>0.86800894854586097</v>
+        <v>0.63230240549828098</v>
       </c>
       <c r="C27" s="4">
-        <v>0.85462555066079204</v>
+        <v>0.49729729729729699</v>
       </c>
       <c r="D27" s="4">
-        <v>0.88181818181818095</v>
+        <v>0.86792452830188604</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
-        <v>0.92356687898089096</v>
+        <v>0.84088269454123099</v>
       </c>
       <c r="C28" s="4">
-        <v>0.88957055214723901</v>
+        <v>0.73427991886409705</v>
       </c>
       <c r="D28" s="4">
-        <v>0.96026490066225101</v>
+        <v>0.98369565217391297</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>0.83911671924290199</v>
+        <v>0.11764705882352899</v>
       </c>
       <c r="C29" s="4">
-        <v>0.77325581395348797</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>0.917241379310344</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>0.92976588628762502</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>0.91147540983606501</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>0.94880546075085304</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>0.95737704918032696</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>0.94193548387096704</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>0.97333333333333305</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>0.93728222996515598</v>
+        <v>0.92700467457749003</v>
       </c>
       <c r="C32" s="4">
-        <v>0.96415770609318996</v>
+        <v>0.87330623306233002</v>
       </c>
       <c r="D32" s="4">
-        <v>0.91186440677966096</v>
+        <v>0.98773946360153198</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>0.78260869565217295</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="C33" s="4">
-        <v>0.75</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="D33" s="4">
-        <v>0.81818181818181801</v>
+        <v>0.87272727272727202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>0.927152317880794</v>
+        <v>0.92499999999999905</v>
       </c>
       <c r="C34" s="4">
-        <v>0.90322580645161199</v>
+        <v>0.87573964497041401</v>
       </c>
       <c r="D34" s="4">
-        <v>0.952380952380952</v>
+        <v>0.98013245033112495</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>0.59505208333333304</v>
+        <v>0.777464788732394</v>
       </c>
       <c r="C35" s="4">
-        <v>0.42590866728797699</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="D35" s="4">
-        <v>0.987041036717062</v>
+        <v>0.95172413793103405</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>0.866464339908953</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
-        <v>0.77581521739130399</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>0.98109965635738805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>0</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>0.91542044618779095</v>
+        <v>0.94551845342706498</v>
       </c>
       <c r="C38" s="4">
-        <v>0.85407136322049404</v>
+        <v>0.98175182481751799</v>
       </c>
       <c r="D38" s="4">
-        <v>0.98626518753301595</v>
+        <v>0.91186440677966096</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>0.94110032362459495</v>
+        <v>0.60606060606060597</v>
       </c>
       <c r="C39" s="4">
-        <v>0.93564993564993504</v>
+        <v>0.45454545454545398</v>
       </c>
       <c r="D39" s="4">
-        <v>0.94661458333333304</v>
+        <v>0.90909090909090895</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>47</v>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>0.99127374244266697</v>
+        <v>0.91205211726384305</v>
       </c>
       <c r="C40" s="4">
-        <v>0.99793954859734102</v>
+        <v>0.875</v>
       </c>
       <c r="D40" s="4">
-        <v>0.98469639484832505</v>
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.61283643892339501</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.45030425963488802</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.95896328293736499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.82446043165467597</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.70915841584158401</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.98453608247422597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.92538783550849502</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.86669741697416902</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.99260433174854701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.96168582375478895</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.94360902255639101</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.98046875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.99118608627094695</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.99857546167991895</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.98390526906783204</v>
       </c>
     </row>
   </sheetData>
@@ -2363,20 +2550,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,13 +2576,43 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4">
         <v>0.87683284457477995</v>
@@ -2403,250 +2623,381 @@
       <c r="D2" s="4">
         <v>0.862863217576187</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E2" s="4">
+        <v>0.89283339969549302</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.925258855436765</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+      <c r="K7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="I8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,10 +3013,14 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
@@ -2678,7 +3033,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2694,67 +3052,68 @@
       <c r="D2" s="4">
         <v>0.57206200089383197</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I7">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -2768,7 +3127,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -2782,7 +3141,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4">
         <v>0.90285714285714203</v>
@@ -2796,7 +3155,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4">
         <v>0.105263157894736</v>
@@ -2810,7 +3169,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4">
         <v>0.77941176470588203</v>
@@ -2824,7 +3183,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4">
         <v>0.868369351669941</v>
@@ -2838,7 +3197,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4">
         <v>0.77647058823529402</v>
@@ -2990,4 +3349,212 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upe2\OneDrive - PETROBRAS\Documents\Repositorios\Petro_KGraph\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="11_F25DC773A252ABDACC1048D6215F78F25ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F8F447-08B1-4308-B652-E453C8F14658}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ECB02-6058-461E-81F6-259415395C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1845" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="201">
   <si>
     <t>Baseline</t>
   </si>
@@ -201,15 +201,9 @@
     <t>CategoricalCrossentropy</t>
   </si>
   <si>
-    <t>50 com patience= 5 (melhor val_loss na epoch = 5)</t>
-  </si>
-  <si>
     <t>Exponential decay(innitial: 0.00002; decay rate:0.01)</t>
   </si>
   <si>
-    <t>atravessa</t>
-  </si>
-  <si>
     <t>constituted_by</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>no_relation</t>
   </si>
   <si>
-    <t>temporal_relation</t>
-  </si>
-  <si>
     <t>PetroVec</t>
   </si>
   <si>
@@ -573,20 +564,90 @@
     <t>10 com patience= 5 (melhor val_loss na epoch = 3)</t>
   </si>
   <si>
-    <t>10 com patience= 5 (melhor val_loss na epoch =  )</t>
+    <t>10 com patience= 5 (melhor val_loss na epoch =  ?)</t>
+  </si>
+  <si>
+    <t>50 com patience= 5 (melhor val_loss na epoch = 4)</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>BACIA</t>
+  </si>
+  <si>
+    <t>ELEMENTO_PETRO</t>
+  </si>
+  <si>
+    <t>ESTRUTURA_FÍSICA</t>
+  </si>
+  <si>
+    <t>EVENTO_PETRO</t>
+  </si>
+  <si>
+    <t>FLUIDO</t>
+  </si>
+  <si>
+    <t>FLUIDODATERRA_i</t>
+  </si>
+  <si>
+    <t>FLUIDODATERRA_o</t>
+  </si>
+  <si>
+    <t>NÃOCONSOLID</t>
+  </si>
+  <si>
+    <t>POÇO</t>
+  </si>
+  <si>
+    <t>ROCHA</t>
+  </si>
+  <si>
+    <t>TEXTURA</t>
+  </si>
+  <si>
+    <t>UNIDADE_CRONO</t>
+  </si>
+  <si>
+    <t>UNIDADE_LITO</t>
+  </si>
+  <si>
+    <t>POÇO_R</t>
+  </si>
+  <si>
+    <t>50 com patience= 5 (melhor val_loss na epoch = 42)</t>
+  </si>
+  <si>
+    <t>TyneBert</t>
+  </si>
+  <si>
+    <t>TyneBert Classes</t>
+  </si>
+  <si>
+    <t>10 com patience= 3 (melhor val_loss na epoch = 2)</t>
+  </si>
+  <si>
+    <t>NP1 Classes</t>
+  </si>
+  <si>
+    <t>"neuralmind/bert-large-portuguese-cased"</t>
+  </si>
+  <si>
+    <t>Bertimbau Large Classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +670,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -618,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -626,12 +692,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -639,6 +785,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +818,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,7 +1089,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
@@ -940,35 +1099,35 @@
     <col min="7" max="7" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -983,15 +1142,15 @@
         <v>85725834</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1006,15 +1165,15 @@
         <v>365295169</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1023,15 +1182,15 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1040,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1052,11 +1211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" customWidth="1"/>
@@ -1065,821 +1224,839 @@
     <col min="8" max="11" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11">
       <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I18" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J18" t="s">
         <v>88</v>
       </c>
-      <c r="F15" t="s">
+      <c r="K18" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I19" t="s">
         <v>89</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J19" t="s">
         <v>89</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H20" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I20" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J20" t="s">
         <v>90</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="H18" t="s">
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E21" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="K18" t="s">
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I22" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J22" t="s">
         <v>92</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>93</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I23" t="s">
         <v>93</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J23" t="s">
         <v>93</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>94</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>94</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H24" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I24" t="s">
         <v>94</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J24" t="s">
         <v>94</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>95</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>95</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H25" t="s">
         <v>95</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>95</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J25" t="s">
         <v>95</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>0.82512222640090205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>0.732065398732065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>0.77581329561527501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.95448018389604306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.84683443743062303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.89744088012007694</v>
       </c>
     </row>
   </sheetData>
@@ -1892,73 +2069,91 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>0.82512222640090205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>0.732065398732065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>0.77581329561527501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.95448018389604306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.84683443743062303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.89744088012007694</v>
       </c>
     </row>
   </sheetData>
@@ -1968,22 +2163,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.88671875" customWidth="1"/>
-    <col min="11" max="15" width="17.109375" customWidth="1"/>
+    <col min="9" max="15" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,30 +2189,33 @@
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>0.82705015605171295</v>
@@ -2034,509 +2232,1712 @@
       <c r="I2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.82819948973480995</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.77373652402467696</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.90114728392209298</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.71294368063832603</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.66028379751537303</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.81494939640925801</v>
+      </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="J6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="H11" t="s">
         <v>118</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="15">
         <v>0.929595827900912</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="15">
         <v>0.89348370927318299</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="16">
         <v>0.96875</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.94109861019192498</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.91741935483870896</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.966032608695652</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.89252948885976402</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.84701492537313405</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.94321329639889195</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0.89252948885976402</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.84701492537313405</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0.94321329639889195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="15">
         <v>0.83760683760683696</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="15">
         <v>0.86725663716814105</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="16">
         <v>0.80991735537190002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.88560885608855999</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.99173553719008201</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.54634146341463397</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.47863247863247799</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.54634146341463397</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0.47863247863247799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="15">
         <v>0.91262135922330001</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="15">
         <v>0.90384615384615297</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="16">
         <v>0.92156862745098</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.92957746478873204</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.891891891891891</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.97058823529411697</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="15">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="16">
+        <v>2.94117647058823E-2</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="15">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="16">
+        <v>2.94117647058823E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="15">
         <v>0.93333333333333302</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="15">
         <v>0.87906976744186005</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="16">
         <v>0.99473684210526303</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.93908629441624303</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.90686274509803899</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.97368421052631504</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.84037558685446001</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.752100840336134</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.95212765957446799</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0.84037558685446001</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.752100840336134</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0.95212765957446799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="15">
         <v>0.86338797814207602</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="15">
         <v>0.75961538461538403</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.86813186813186805</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.76699029126213503</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.949367088607594</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.9375</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0.949367088607594</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.9375</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0.96153846153846101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="15">
         <v>0.91935483870967705</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="15">
         <v>0.890625</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="16">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.92356687898089096</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.88414634146341398</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.86728395061728303</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.79603399433427702</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0.95254237288135502</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.86728395061728303</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.79603399433427702</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0.95254237288135502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="15">
         <v>0.911392405063291</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="15">
         <v>0.837209302325581</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.74468085106382897</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0.74468085106382897</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0.97222222222222199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="15">
         <v>0.96</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="15">
         <v>0.92903225806451595</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="16">
         <v>0.99310344827586206</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="E26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.97643097643097598</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.95394736842105199</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.67164179104477595</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0.95744680851063801</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.67164179104477595</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0.95744680851063801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="15">
         <v>0.63230240549828098</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="15">
         <v>0.49729729729729699</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="16">
         <v>0.86792452830188604</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="E27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.69039145907473298</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.55428571428571405</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.91509433962264097</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.65137614678899003</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.54198473282442705</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0.81609195402298795</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0.65137614678899003</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.54198473282442705</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0.81609195402298795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="15">
         <v>0.84088269454123099</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="15">
         <v>0.73427991886409705</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="16">
         <v>0.98369565217391297</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="E28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.98641304347825998</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.75952121871599498</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.63224637681159401</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0.95095367847411405</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0.75952121871599498</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0.63224637681159401</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.95095367847411405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="15">
         <v>0.11764705882352899</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="15">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="E29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="15">
         <v>0.92976588628762502</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="15">
         <v>0.91147540983606501</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="16">
         <v>0.94880546075085304</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.93089092422980801</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.90894308943089397</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.95392491467576701</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.82570281124497902</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.76261127596439104</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0.90017513134851102</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0.82570281124497902</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0.76261127596439104</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.90017513134851102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="15">
         <v>0.95737704918032696</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="15">
         <v>0.94193548387096704</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="16">
         <v>0.97333333333333305</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="E31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.81791044776119304</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0.73854447439353099</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0.91638795986622001</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0.81791044776119304</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0.73854447439353099</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.91638795986622001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="15">
         <v>0.92700467457749003</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="15">
         <v>0.87330623306233002</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="16">
         <v>0.98773946360153198</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="E32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.93759177679882499</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.89992952783650404</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.97854406130268201</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0.872270742358078</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0.78307742567788297</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.98439425051334695</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0.872270742358078</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0.78307742567788297</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.98439425051334695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="15">
         <v>0.89719626168224298</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="15">
         <v>0.92307692307692302</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="16">
         <v>0.87272727272727202</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="E33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.58089668615984402</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.53405017921146902</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0.63675213675213604</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0.58089668615984402</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0.53405017921146902</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.63675213675213604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="15">
         <v>0.92499999999999905</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="15">
         <v>0.87573964497041401</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="16">
         <v>0.98013245033112495</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="E34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.92744479495268095</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.88554216867469804</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.97350993377483397</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0.77842565597667601</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0.75423728813559299</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0.80421686746987897</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0.77842565597667601</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0.75423728813559299</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.80421686746987897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="15">
         <v>0.777464788732394</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="15">
         <v>0.65714285714285703</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="16">
         <v>0.95172413793103405</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="E35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.83076923076923004</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.93103448275862</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.84561403508771904</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0.75667189952904201</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.958250497017892</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0.84561403508771904</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0.75667189952904201</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.958250497017892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="15">
         <v>1</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="E36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H36" s="16">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0.91525423728813504</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.91525423728813504</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0.84375</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="15">
         <v>0.93333333333333302</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="15">
         <v>0.875</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="E37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="H37" s="16">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="15">
         <v>0.94551845342706498</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="15">
         <v>0.98175182481751799</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="16">
         <v>0.91186440677966096</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.946643717728055</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0.85018726591760296</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.92276422764227595</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0.85018726591760296</v>
+      </c>
+      <c r="O38" s="15">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0.92276422764227595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="15">
         <v>0.60606060606060597</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="15">
         <v>0.45454545454545398</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="16">
         <v>0.90909090909090895</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="E39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0.72316384180790905</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0.984615384615384</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.72316384180790905</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="P39" s="16">
+        <v>0.984615384615384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="15">
         <v>0.91205211726384305</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="15">
         <v>0.875</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="16">
         <v>0.952380952380952</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="E40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.904458598726114</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.85029940119760405</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.96598639455782298</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0.83636363636363598</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0.77094972067039103</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0.91390728476821104</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0.83636363636363598</v>
+      </c>
+      <c r="O40" s="15">
+        <v>0.77094972067039103</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0.91390728476821104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="15">
         <v>0.61283643892339501</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="15">
         <v>0.45030425963488802</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="16">
         <v>0.95896328293736499</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="E41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.64608433734939696</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.495953757225433</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.92656587473002106</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0.45274027005559903</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0.30448717948717902</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0.45274027005559903</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0.30448717948717902</v>
+      </c>
+      <c r="P41" s="16">
+        <v>0.88235294117647001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="15">
         <v>0.82446043165467597</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="15">
         <v>0.70915841584158401</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="16">
         <v>0.98453608247422597</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="E42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.860394537177541</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.77038043478260798</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0.97422680412371099</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0.75209692451071697</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0.61650114591291005</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0.96415770609318996</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0.75209692451071697</v>
+      </c>
+      <c r="O42" s="15">
+        <v>0.61650114591291005</v>
+      </c>
+      <c r="P42" s="16">
+        <v>0.96415770609318996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="15">
         <v>0</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="15">
         <v>0</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="E43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="15">
         <v>0.92538783550849502</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="15">
         <v>0.86669741697416902</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="16">
         <v>0.99260433174854701</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="E44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.91856199559794505</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.85519125683060104</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.99207606973058604</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0.82428407789232505</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0.75493075954678901</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0.90766902119071602</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0.82428407789232505</v>
+      </c>
+      <c r="O44" s="15">
+        <v>0.75493075954678901</v>
+      </c>
+      <c r="P44" s="16">
+        <v>0.90766902119071602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="15">
         <v>0.96168582375478895</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="15">
         <v>0.94360902255639101</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="16">
         <v>0.98046875</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.94637223974763396</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.91799265605875102</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.9765625</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0.82154171066525805</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0.77748167888074604</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0.87089552238805901</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0.82154171066525805</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0.77748167888074604</v>
+      </c>
+      <c r="P45" s="16">
+        <v>0.87089552238805901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" thickBot="1">
+      <c r="A46" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="18">
         <v>0.99118608627094695</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="18">
         <v>0.99857546167991895</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="19">
         <v>0.98390526906783204</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0.992235586183281</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0.99855267238705603</v>
+      </c>
+      <c r="H46" s="19">
+        <v>0.98599792435816702</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0.983879948968443</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0.99520173393507705</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0.97281286806470202</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="18">
+        <v>0.983879948968443</v>
+      </c>
+      <c r="O46" s="18">
+        <v>0.99520173393507705</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0.97281286806470202</v>
       </c>
     </row>
   </sheetData>
@@ -2550,13 +3951,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="18.5546875" customWidth="1"/>
@@ -2564,173 +3965,201 @@
     <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.862863217576187</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.87683284457477995</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.925258855436765</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.89283339969549302</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.87683284457477995</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.86260367832672102</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.862863217576187</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.89283339969549302</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.925258855436765</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.86260367832672102</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.82512222640090205</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.732065398732065</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.77581329561527501</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.95448018389604306</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.84683443743062303</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.89744088012007694</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I3" s="3" t="s">
+    <row r="4" spans="1:17">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I4" s="3" t="s">
+    <row r="5" spans="1:17">
+      <c r="I5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I5" s="3" t="s">
+    <row r="6" spans="1:17">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="I7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I8" s="3" t="s">
+      <c r="K8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>64</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I9" s="3" t="s">
+    <row r="10" spans="1:17">
+      <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2738,8 +4167,17 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2748,7 +4186,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2757,7 +4195,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2766,187 +4204,422 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.98190045248868696</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.83354673495518505</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.90166204986149501</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.99737889370135302</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.84668656405121301</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.91587563230470503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.95294117647058796</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.68067226890756305</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.99513713862120001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.71081224187228598</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.82928094885100001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.99403983137083796</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.99403983137083796</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.99403983137083796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.24338624338624301</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.244680851063829</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.24403183023872599</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.83408228746870405</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.83851889538077096</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.83629470732936395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.810126582278481</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.810126582278481</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.810126582278481</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.93237518030051103</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.93237518030051103</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.93237518030051103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.96949152542372796</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.95333333333333303</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.96134453781512597</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.99475858842009801</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.97817927861309595</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.986399272551021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.56756756756756699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.95614035087719296</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.91853932584269604</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.93696275071633195</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.99478591583854703</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.95566512139545801</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.974833189732903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.73161340007701103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.60791366906474797</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.56427378964941499</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.58528138528138496</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.93853537931044595</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.87116138713958002</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.90359423531880201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.52293577981651296</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.52293577981651296</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.686746987951807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2955,7 +4628,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2964,7 +4637,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2973,7 +4646,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2982,7 +4655,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2991,7 +4664,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3010,19 +4683,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="10" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3033,24 +4708,36 @@
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.62345354808590103</v>
+        <v>0.75645502936634401</v>
       </c>
       <c r="C2" s="4">
-        <v>0.58360037371153595</v>
+        <v>0.84708677898317097</v>
       </c>
       <c r="D2" s="4">
-        <v>0.57206200089383197</v>
+        <v>0.74029445282926598</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -3059,15 +4746,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3075,19 +4762,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3095,15 +4782,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3111,7 +4798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -3125,223 +4812,217 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>0.94623655913978399</v>
+      </c>
+      <c r="C12">
+        <v>0.93617021276595702</v>
+      </c>
+      <c r="D12">
+        <v>0.95652173913043403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="C14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D14">
+        <v>0.29411764705882298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.90285714285714203</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.92941176470588205</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.87777777777777699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>0.90714285714285703</v>
+      </c>
+      <c r="C15">
+        <v>0.92028985507246297</v>
+      </c>
+      <c r="D15">
+        <v>0.89436619718309796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.105263157894736</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5.8823529411764698E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.77941176470588203</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.75714285714285701</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.80303030303030298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.868369351669941</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.87007874015747999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.92153589315525797</v>
+      </c>
+      <c r="C16">
+        <v>0.92</v>
+      </c>
+      <c r="D16">
+        <v>0.92307692307692302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.77647058823529402</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.891891891891891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="B17">
+        <v>0.79569892473118198</v>
+      </c>
+      <c r="C17">
+        <v>0.67272727272727195</v>
+      </c>
+      <c r="D17">
+        <v>0.97368421052631504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3353,206 +5034,308 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B8" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B10" s="8">
+        <v>0.26408010012515598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B12" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B13" s="8">
+        <v>0.27027027027027001</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B14" s="8">
+        <v>7.4074074074074001E-2</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="8">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="8">
+        <v>0.44230769230769201</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="8">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B22" s="8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.14117647058823499</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B32" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.103174603174603</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="D37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upe2\OneDrive - PETROBRAS\Documents\Repositorios\Petro_KGraph\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ECB02-6058-461E-81F6-259415395C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{277ECB02-6058-461E-81F6-259415395C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1A059A-5F09-4165-B664-727F4D9B5ED3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <sheet name="Modelo RE" sheetId="3" r:id="rId6"/>
     <sheet name="Pipeline" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="233">
   <si>
     <t>Baseline</t>
   </si>
@@ -615,9 +626,6 @@
     <t>POÇO_R</t>
   </si>
   <si>
-    <t>50 com patience= 5 (melhor val_loss na epoch = 42)</t>
-  </si>
-  <si>
     <t>TyneBert</t>
   </si>
   <si>
@@ -634,6 +642,105 @@
   </si>
   <si>
     <t>Bertimbau Large Classes</t>
+  </si>
+  <si>
+    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.3); dense(softmax)</t>
+  </si>
+  <si>
+    <t>Dropout_03 Classes</t>
+  </si>
+  <si>
+    <t>TinyBert_5_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_100_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_10_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_15_epoch</t>
+  </si>
+  <si>
+    <t>lr = 2e-5</t>
+  </si>
+  <si>
+    <t>lr = padrão</t>
+  </si>
+  <si>
+    <t>lr = padrão com decay / Batch=64</t>
+  </si>
+  <si>
+    <t>TinyBert_10_epoch (9)</t>
+  </si>
+  <si>
+    <t>TinyBert_15_epoch (9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TinyBert_10_epoch </t>
+  </si>
+  <si>
+    <t>TinyBert_20_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_25_epoch</t>
+  </si>
+  <si>
+    <t>Exponential decay(innitial: 0.001; decay rate:0.01)</t>
+  </si>
+  <si>
+    <t>TinyBert_30_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_35_epoch (21)</t>
+  </si>
+  <si>
+    <t>TinyBert_40_epoch (22)</t>
+  </si>
+  <si>
+    <t>TinyBert_50_epoch (26)</t>
+  </si>
+  <si>
+    <t>TyneBert v2_10_epoch (1)</t>
+  </si>
+  <si>
+    <t>TyneBert v2_batch_64_1_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_70_epoch (15)</t>
+  </si>
+  <si>
+    <t>TyneBert v2_batch_64_2_epoch</t>
+  </si>
+  <si>
+    <t>TyneBert v2_batch_64_3_epoch</t>
+  </si>
+  <si>
+    <t>TinyBert_60_epoch (27)</t>
+  </si>
+  <si>
+    <t>TinyBert_45_epoch (22)</t>
+  </si>
+  <si>
+    <t>TyneBert v2_batch_64_4_epoch (3)</t>
+  </si>
+  <si>
+    <t>50 com patience= 5 (melhor val_loss na epoch =  28)</t>
+  </si>
+  <si>
+    <t>TyneBert v2_batch_64_5_epoch (2)</t>
+  </si>
+  <si>
+    <t>Rascunho</t>
+  </si>
+  <si>
+    <t>4 com patience= 5 (melhor val_loss na epoch = 3)</t>
+  </si>
+  <si>
+    <t>10 com patience= 3 (melhor val_loss na epoch = 3)</t>
+  </si>
+  <si>
+    <t>10 com patience= 3 (melhor val_loss na epoch =  ?)</t>
   </si>
 </sst>
 </file>
@@ -647,7 +754,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +781,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -777,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -789,9 +903,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -802,6 +913,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,19 +2294,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="26.88671875" customWidth="1"/>
     <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2235,11 +2367,14 @@
       <c r="J2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2270,19 +2405,22 @@
       <c r="L3" t="s">
         <v>137</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4">
-        <v>0.71294368063832603</v>
+        <v>0.74535538329694395</v>
       </c>
       <c r="C4" s="4">
-        <v>0.66028379751537303</v>
+        <v>0.67567596069657498</v>
       </c>
       <c r="D4" s="4">
-        <v>0.81494939640925801</v>
+        <v>0.84908189034612103</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -2297,6 +2435,9 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2304,6 +2445,15 @@
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="B5" s="4">
+        <v>0.826074348328662</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.78036554611616604</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.90930738360060004</v>
+      </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2469,23 @@
       <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.77461056382495497</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.72313676886715805</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.87034897878816297</v>
+      </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
@@ -2328,13 +2493,16 @@
         <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>231</v>
+      </c>
+      <c r="M6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2348,10 +2516,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>8</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2364,10 +2535,13 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2387,6 +2561,9 @@
       <c r="L9" t="s">
         <v>15</v>
       </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="H10" t="s">
@@ -2404,6 +2581,9 @@
       <c r="L10" t="s">
         <v>114</v>
       </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="H11" t="s">
@@ -2421,6 +2601,9 @@
       <c r="L11" t="s">
         <v>116</v>
       </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="H12" t="s">
@@ -2438,1506 +2621,1963 @@
       <c r="L12" t="s">
         <v>117</v>
       </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1"/>
-    <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:20">
+      <c r="A17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="K17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="M17" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13" t="s">
+      <c r="O17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>0.929595827900912</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.89348370927318299</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>0.96875</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.94109861019192498</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>0.91741935483870896</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>0.966032608695652</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="15">
-        <v>0.89252948885976402</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0.84701492537313405</v>
-      </c>
-      <c r="L18" s="16">
-        <v>0.94321329639889195</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="J18" s="14">
+        <v>0.88917861799217701</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.83990147783251201</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.94459833795013803</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="15">
-        <v>0.89252948885976402</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0.84701492537313405</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0.94321329639889195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="14" t="s">
+      <c r="N18" s="14">
+        <v>0.94257425742574197</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.91655969191270803</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.97010869565217395</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.87995049504950495</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0.80795454545454504</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0.966032608695652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>0.83760683760683696</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.86725663716814105</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0.80991735537190002</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.88560885608855999</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.8</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>0.99173553719008201</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="15">
-        <v>0.54634146341463397</v>
-      </c>
-      <c r="K19" s="15">
+      <c r="J19" s="14">
+        <v>0.605504587155963</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.65346534653465305</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.87346938775510197</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.86290322580645096</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.88429752066115697</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0.84291187739463602</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.91262135922330001</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.90384615384615297</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.92957746478873204</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.891891891891891</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.97058823529411697</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.69148936170212705</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.75581395348837199</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.63725490196078405</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.92523364485981296</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.88392857142857095</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.97058823529411697</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.47482014388489202</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0.891891891891891</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0.32352941176470501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.87906976744186005</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.99473684210526303</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.93908629441624303</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.90686274509803899</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.97368421052631504</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.817155756207675</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.70980392156862704</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0.96276595744680804</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.93532338308457696</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.88679245283018804</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0.98947368421052595</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0.79914529914529897</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0.67266187050359705</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0.98421052631578898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.86338797814207602</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.75961538461538403</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.86813186813186805</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.76699029126213503</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.88505747126436696</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0.987179487179487</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0.87777777777777699</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.78217821782178198</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0.91860465116279</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0.84946236559139698</v>
+      </c>
+      <c r="T22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="K23" s="14">
         <v>0.63636363636363602</v>
       </c>
-      <c r="L19" s="16">
-        <v>0.47863247863247799</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0.54634146341463397</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0.47863247863247799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.91262135922330001</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.90384615384615297</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.92156862745098</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.92957746478873204</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.891891891891891</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.97058823529411697</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="15">
-        <v>5.5555555555555497E-2</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="16">
-        <v>2.94117647058823E-2</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="15">
-        <v>5.5555555555555497E-2</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P20" s="16">
-        <v>2.94117647058823E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15">
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14">
+        <v>1</v>
+      </c>
+      <c r="P23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1</v>
+      </c>
+      <c r="S23" s="14">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.91935483870967705</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.890625</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.92356687898089096</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.88414634146341398</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.83707025411061198</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.74866310160427796</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.94915254237288105</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.92532467532467499</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.901898734177215</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0.87692307692307603</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0.911392405063291</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.837209302325581</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.72164948453608202</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.57377049180327799</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0.886075949367088</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0.97222222222222199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.92903225806451595</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.99310344827586206</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.97643097643097598</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.95394736842105199</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.95744680851063801</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0.95081967213114704</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0.90625</v>
+      </c>
+      <c r="P26" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0.94352159468438501</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0.91025641025641002</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0.97931034482758605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0.63230240549828098</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.49729729729729699</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.86792452830188604</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.69039145907473298</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.55428571428571405</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0.91509433962264097</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.68544600938967104</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.57936507936507897</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.83908045977011403</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0.678200692041522</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.53551912568306004</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.92452830188679203</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0.64625850340136004</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0.50531914893617003</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0.89622641509433898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0.84088269454123099</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.73427991886409705</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.98369565217391297</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0.98641304347825998</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.80225988700564899</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.68532818532818496</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0.96730245231607603</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0.81243063263041004</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.68667917448405202</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0.99456521739130399</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0.81298992161254102</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0.69142857142857095</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0.98641304347825998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C29" s="14">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0.92976588628762502</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.91147540983606501</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.94880546075085304</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.93089092422980801</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.90894308943089397</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0.95392491467576701</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0.89316987740805598</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0.85868725868725804</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.78420310296191797</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.94880546075085304</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0.87836734693877505</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0.84194053208137698</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0.91808873720136497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0.95737704918032696</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.94193548387096704</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.97333333333333305</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0.79407407407407404</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0.71276595744680804</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0.896321070234113</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0.93553719008264402</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0.92786885245901596</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0.94333333333333302</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0.93679092382495899</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0.91167192429022004</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0.96333333333333304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0.92700467457749003</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.87330623306233002</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.98773946360153198</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.93759177679882499</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.89992952783650404</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.97854406130268201</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.89662921348314595</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.82409638554216802</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0.98316221765913703</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.93279471171502004</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.89562764456981603</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0.97318007662835204</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0.89919213206884396</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0.83009079118028495</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0.98084291187739403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0.89719626168224298</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.87272727272727202</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0.60076045627376395</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.54109589041095896</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0.67521367521367504</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.77142857142857102</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.98181818181818103</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="14">
+        <v>0.77467411545623799</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0.65615141955835898</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.94545454545454499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.87573964497041401</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.98013245033112495</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.92744479495268095</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.88554216867469804</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0.97350993377483397</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0.81866666666666599</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.73444976076555002</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0.92469879518072196</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0.86982248520710004</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.97350993377483397</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="14">
+        <v>0.82621082621082598</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0.96026490066225101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.777464788732394</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.95172413793103405</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.83076923076923004</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0.93103448275862</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0.84020618556700999</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0.73978819969742804</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0.97216699801192796</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0.86153846153846103</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0.59518599562363195</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0.43589743589743501</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0.93793103448275805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="14">
+        <v>1</v>
+      </c>
+      <c r="O36" s="14">
+        <v>1</v>
+      </c>
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="14">
+        <v>1</v>
+      </c>
+      <c r="S36" s="14">
+        <v>1</v>
+      </c>
+      <c r="T36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14">
         <v>0.93333333333333302</v>
       </c>
-      <c r="C21" s="15">
-        <v>0.87906976744186005</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.99473684210526303</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0.93908629441624303</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0.90686274509803899</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.97368421052631504</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0.84037558685446001</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0.752100840336134</v>
-      </c>
-      <c r="L21" s="16">
-        <v>0.95212765957446799</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="15">
-        <v>0.84037558685446001</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0.752100840336134</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.95212765957446799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0.86338797814207602</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.75961538461538403</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.86813186813186805</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.76699029126213503</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0.949367088607594</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0.9375</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="C37" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L37" s="15">
+        <v>1</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="14">
+        <v>1</v>
+      </c>
+      <c r="O37" s="14">
+        <v>1</v>
+      </c>
+      <c r="P37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="S37" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="T37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0.94551845342706498</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.91186440677966096</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.946643717728055</v>
+      </c>
+      <c r="G38" s="14">
         <v>0.96153846153846101</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="15">
-        <v>0.949367088607594</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0.9375</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0.96153846153846101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="H38" s="15">
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0.87081339712918604</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0.822784810126582</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0.92479674796747902</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0.93079584775086499</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0.95053003533568903</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0.91186440677966096</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" s="14">
+        <v>0.94014084507042195</v>
+      </c>
+      <c r="S38" s="14">
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0.90508474576271103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0.79503105590062095</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0.984615384615384</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="14">
+        <v>0.58064516129032195</v>
+      </c>
+      <c r="S39" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0.91205211726384305</v>
+      </c>
+      <c r="C40" s="14">
         <v>0.875</v>
       </c>
-      <c r="K23" s="15">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="L23" s="16">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="P23" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0.91935483870967705</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.890625</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.92356687898089096</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.88414634146341398</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0.96666666666666601</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0.86728395061728303</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0.79603399433427702</v>
-      </c>
-      <c r="L24" s="16">
-        <v>0.95254237288135502</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="15">
-        <v>0.86728395061728303</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0.79603399433427702</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0.95254237288135502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15">
-        <v>0.911392405063291</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.837209302325581</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.78571428571428503</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.6875</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="15">
-        <v>0.74468085106382897</v>
-      </c>
-      <c r="K25" s="15">
-        <v>0.60344827586206895</v>
-      </c>
-      <c r="L25" s="16">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="15">
-        <v>0.74468085106382897</v>
-      </c>
-      <c r="O25" s="15">
-        <v>0.60344827586206895</v>
-      </c>
-      <c r="P25" s="16">
-        <v>0.97222222222222199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.92903225806451595</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0.99310344827586206</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.97643097643097598</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.95394736842105199</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0.78947368421052599</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0.67164179104477595</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0.95744680851063801</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="15">
-        <v>0.78947368421052599</v>
-      </c>
-      <c r="O26" s="15">
-        <v>0.67164179104477595</v>
-      </c>
-      <c r="P26" s="16">
-        <v>0.95744680851063801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0.63230240549828098</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0.49729729729729699</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0.86792452830188604</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.69039145907473298</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.55428571428571405</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0.91509433962264097</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="15">
-        <v>0.65137614678899003</v>
-      </c>
-      <c r="K27" s="15">
-        <v>0.54198473282442705</v>
-      </c>
-      <c r="L27" s="16">
-        <v>0.81609195402298795</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="15">
-        <v>0.65137614678899003</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0.54198473282442705</v>
-      </c>
-      <c r="P27" s="16">
-        <v>0.81609195402298795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0.84088269454123099</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0.73427991886409705</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0.98369565217391297</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.90749999999999997</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.84027777777777701</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0.98641304347825998</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0.75952121871599498</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0.63224637681159401</v>
-      </c>
-      <c r="L28" s="16">
-        <v>0.95095367847411405</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="15">
-        <v>0.75952121871599498</v>
-      </c>
-      <c r="O28" s="15">
-        <v>0.63224637681159401</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0.95095367847411405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0.11764705882352899</v>
-      </c>
-      <c r="C29" s="15">
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0</v>
-      </c>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="15">
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
-      </c>
-      <c r="P29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0.92976588628762502</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0.91147540983606501</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0.94880546075085304</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0.93089092422980801</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0.90894308943089397</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0.95392491467576701</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0.82570281124497902</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0.76261127596439104</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0.90017513134851102</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0.82570281124497902</v>
-      </c>
-      <c r="O30" s="15">
-        <v>0.76261127596439104</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0.90017513134851102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0.95737704918032696</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0.94193548387096704</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0.97333333333333305</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.94666666666666599</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.94666666666666599</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0.94666666666666599</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="15">
-        <v>0.81791044776119304</v>
-      </c>
-      <c r="K31" s="15">
-        <v>0.73854447439353099</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0.91638795986622001</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0.81791044776119304</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0.73854447439353099</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0.91638795986622001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0.92700467457749003</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0.87330623306233002</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0.98773946360153198</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0.93759177679882499</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.89992952783650404</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0.97854406130268201</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="15">
-        <v>0.872270742358078</v>
-      </c>
-      <c r="K32" s="15">
-        <v>0.78307742567788297</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0.98439425051334695</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="15">
-        <v>0.872270742358078</v>
-      </c>
-      <c r="O32" s="15">
-        <v>0.78307742567788297</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0.98439425051334695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="15">
-        <v>0.89719626168224298</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="D33" s="16">
-        <v>0.87272727272727202</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.88</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0.78571428571428503</v>
-      </c>
-      <c r="H33" s="16">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0.58089668615984402</v>
-      </c>
-      <c r="K33" s="15">
-        <v>0.53405017921146902</v>
-      </c>
-      <c r="L33" s="16">
-        <v>0.63675213675213604</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0.58089668615984402</v>
-      </c>
-      <c r="O33" s="15">
-        <v>0.53405017921146902</v>
-      </c>
-      <c r="P33" s="16">
-        <v>0.63675213675213604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="15">
-        <v>0.92499999999999905</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0.87573964497041401</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0.98013245033112495</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0.92744479495268095</v>
-      </c>
-      <c r="G34" s="15">
-        <v>0.88554216867469804</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0.97350993377483397</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="15">
-        <v>0.77842565597667601</v>
-      </c>
-      <c r="K34" s="15">
-        <v>0.75423728813559299</v>
-      </c>
-      <c r="L34" s="16">
-        <v>0.80421686746987897</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N34" s="15">
-        <v>0.77842565597667601</v>
-      </c>
-      <c r="O34" s="15">
-        <v>0.75423728813559299</v>
-      </c>
-      <c r="P34" s="16">
-        <v>0.80421686746987897</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="15">
-        <v>0.777464788732394</v>
-      </c>
-      <c r="C35" s="15">
-        <v>0.65714285714285703</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0.95172413793103405</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0.83076923076923004</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0.93103448275862</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0.84561403508771904</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0.75667189952904201</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0.958250497017892</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0.84561403508771904</v>
-      </c>
-      <c r="O35" s="15">
-        <v>0.75667189952904201</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0.958250497017892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="15">
+      <c r="D40" s="15">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.904458598726114</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.85029940119760405</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0.96598639455782298</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0.75675675675675602</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0.927152317880794</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0.79213483146067398</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0.67464114832535804</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0.95918367346938704</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" s="14">
+        <v>0.86984126984126897</v>
+      </c>
+      <c r="S40" s="14">
+        <v>0.81547619047619002</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0.93197278911564596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.61283643892339501</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.45030425963488802</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.95896328293736499</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.64608433734939696</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0.495953757225433</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0.92656587473002106</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0.54757630161579895</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0.38558786346396901</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0.94427244582043302</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0.623061362103843</v>
+      </c>
+      <c r="O41" s="14">
+        <v>0.45294117647058801</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0.99784017278617698</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="14">
+        <v>0.59484467944481101</v>
+      </c>
+      <c r="S41" s="14">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0.97192224622030199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14">
+        <v>0.82446043165467597</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.70915841584158401</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.98453608247422597</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.860394537177541</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0.77038043478260798</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0.97422680412371099</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="14">
+        <v>0.83042137718396702</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0.72858431018935899</v>
+      </c>
+      <c r="L42" s="15">
+        <v>0.96535244922341701</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0.75799086757990797</v>
+      </c>
+      <c r="O42" s="14">
+        <v>0.61093585699263897</v>
+      </c>
+      <c r="P42" s="15">
+        <v>0.99828178694157998</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R42" s="14">
+        <v>0.78278688524590101</v>
+      </c>
+      <c r="S42" s="14">
+        <v>0.64965986394557795</v>
+      </c>
+      <c r="T42" s="15">
+        <v>0.98453608247422597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="14">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="O43" s="14">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H36" s="16">
-        <v>1</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0.91525423728813504</v>
-      </c>
-      <c r="K36" s="15">
-        <v>0.84375</v>
-      </c>
-      <c r="L36" s="16">
-        <v>1</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="15">
-        <v>0.91525423728813504</v>
-      </c>
-      <c r="O36" s="15">
-        <v>0.84375</v>
-      </c>
-      <c r="P36" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="15">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="D37" s="16">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0.82352941176470495</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="L37" s="16">
-        <v>1</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0.82352941176470495</v>
-      </c>
-      <c r="O37" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="P37" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="15">
-        <v>0.94551845342706498</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0.98175182481751799</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0.91186440677966096</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0.946643717728055</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0.96153846153846101</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0.93220338983050799</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0.85018726591760296</v>
-      </c>
-      <c r="K38" s="15">
-        <v>0.78819444444444398</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0.92276422764227595</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" s="15">
-        <v>0.85018726591760296</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0.78819444444444398</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0.92276422764227595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="15">
-        <v>0.60606060606060597</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0.45454545454545398</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0.72316384180790905</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="L39" s="16">
-        <v>0.984615384615384</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N39" s="15">
-        <v>0.72316384180790905</v>
-      </c>
-      <c r="O39" s="15">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="P39" s="16">
-        <v>0.984615384615384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="15">
-        <v>0.91205211726384305</v>
-      </c>
-      <c r="C40" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.904458598726114</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0.85029940119760405</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0.96598639455782298</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="15">
-        <v>0.83636363636363598</v>
-      </c>
-      <c r="K40" s="15">
-        <v>0.77094972067039103</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0.91390728476821104</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N40" s="15">
-        <v>0.83636363636363598</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0.77094972067039103</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0.91390728476821104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="15">
-        <v>0.61283643892339501</v>
-      </c>
-      <c r="C41" s="15">
-        <v>0.45030425963488802</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0.95896328293736499</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.64608433734939696</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0.495953757225433</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0.92656587473002106</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0.45274027005559903</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0.30448717948717902</v>
-      </c>
-      <c r="L41" s="16">
-        <v>0.88235294117647001</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N41" s="15">
-        <v>0.45274027005559903</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0.30448717948717902</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0.88235294117647001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="15">
-        <v>0.82446043165467597</v>
-      </c>
-      <c r="C42" s="15">
-        <v>0.70915841584158401</v>
-      </c>
-      <c r="D42" s="16">
-        <v>0.98453608247422597</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.860394537177541</v>
-      </c>
-      <c r="G42" s="15">
-        <v>0.77038043478260798</v>
-      </c>
-      <c r="H42" s="16">
-        <v>0.97422680412371099</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="15">
-        <v>0.75209692451071697</v>
-      </c>
-      <c r="K42" s="15">
-        <v>0.61650114591291005</v>
-      </c>
-      <c r="L42" s="16">
-        <v>0.96415770609318996</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="15">
-        <v>0.75209692451071697</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0.61650114591291005</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0.96415770609318996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="14" t="s">
+      <c r="P43" s="15">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="Q43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
-        <v>0</v>
-      </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="16">
-        <v>0</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="15">
-        <v>0</v>
-      </c>
-      <c r="O43" s="15">
-        <v>0</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="14" t="s">
+      <c r="R43" s="14">
+        <v>0</v>
+      </c>
+      <c r="S43" s="14">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>0.92538783550849502</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>0.86669741697416902</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <v>0.99260433174854701</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="14">
         <v>0.91856199559794505</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>0.85519125683060104</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="15">
         <v>0.99207606973058604</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="15">
-        <v>0.82428407789232505</v>
-      </c>
-      <c r="K44" s="15">
-        <v>0.75493075954678901</v>
-      </c>
-      <c r="L44" s="16">
-        <v>0.90766902119071602</v>
-      </c>
-      <c r="M44" s="14" t="s">
+      <c r="J44" s="14">
+        <v>0.85931920971197295</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0.81342947273546595</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0.91069626639757795</v>
+      </c>
+      <c r="M44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N44" s="15">
-        <v>0.82428407789232505</v>
-      </c>
-      <c r="O44" s="15">
-        <v>0.75493075954678901</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0.90766902119071602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="14" t="s">
+      <c r="N44" s="14">
+        <v>0.86908589802480396</v>
+      </c>
+      <c r="O44" s="14">
+        <v>0.76879317350670395</v>
+      </c>
+      <c r="P44" s="15">
+        <v>0.99947173798203903</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="14">
+        <v>0.89280609814197198</v>
+      </c>
+      <c r="S44" s="14">
+        <v>0.813015184381778</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0.98996302165874195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>0.96168582375478895</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>0.94360902255639101</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <v>0.98046875</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <v>0.94637223974763396</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>0.91799265605875102</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <v>0.9765625</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="15">
-        <v>0.82154171066525805</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0.77748167888074604</v>
-      </c>
-      <c r="L45" s="16">
-        <v>0.87089552238805901</v>
-      </c>
-      <c r="M45" s="14" t="s">
+      <c r="J45" s="14">
+        <v>0.82951289398280803</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0.79752066115702402</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0.86417910447761104</v>
+      </c>
+      <c r="M45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="15">
-        <v>0.82154171066525805</v>
-      </c>
-      <c r="O45" s="15">
-        <v>0.77748167888074604</v>
-      </c>
-      <c r="P45" s="16">
-        <v>0.87089552238805901</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1">
-      <c r="A46" s="17" t="s">
+      <c r="N45" s="14">
+        <v>0.92639593908629403</v>
+      </c>
+      <c r="O45" s="14">
+        <v>0.90346534653465305</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0.95052083333333304</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="14">
+        <v>0.91722054380664597</v>
+      </c>
+      <c r="S45" s="14">
+        <v>0.855693348365276</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0.98828125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15" thickBot="1">
+      <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>0.99118608627094695</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>0.99857546167991895</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>0.98390526906783204</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <v>0.992235586183281</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="17">
         <v>0.99855267238705603</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="18">
         <v>0.98599792435816702</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J46" s="18">
-        <v>0.983879948968443</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0.99520173393507705</v>
-      </c>
-      <c r="L46" s="19">
-        <v>0.97281286806470202</v>
-      </c>
-      <c r="M46" s="17" t="s">
+      <c r="J46" s="17">
+        <v>0.98570453698036398</v>
+      </c>
+      <c r="K46" s="17">
+        <v>0.99511360165910201</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0.976471736115466</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="18">
-        <v>0.983879948968443</v>
-      </c>
-      <c r="O46" s="18">
-        <v>0.99520173393507705</v>
-      </c>
-      <c r="P46" s="19">
-        <v>0.97281286806470202</v>
+      <c r="N46" s="17">
+        <v>0.98926477221470399</v>
+      </c>
+      <c r="O46" s="17">
+        <v>0.99923631661618795</v>
+      </c>
+      <c r="P46" s="18">
+        <v>0.97949027680895495</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" s="17">
+        <v>0.98793429652562703</v>
+      </c>
+      <c r="S46" s="17">
+        <v>0.99887831939203098</v>
+      </c>
+      <c r="T46" s="18">
+        <v>0.97722748694217099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.73604745280967698</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.671136557726696</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.84462187021097201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="19">
+        <v>0.54324629738512298</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0.53695091346557899</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.65110740714742699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.68891592210698205</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.63406519219538404</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.80284579685109803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.73121981211281895</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.68263627678849204</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.82332772979218205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.76980257922999895</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.71064779267925504</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.85306358846034402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.72121447781373604</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.86211138354285399</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.77979892143477603</v>
       </c>
     </row>
   </sheetData>
@@ -3951,15 +4591,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="7" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
@@ -3968,7 +4608,7 @@
     <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4015,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
@@ -4043,8 +4683,14 @@
       <c r="K2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
@@ -4075,14 +4721,35 @@
       <c r="K3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="L3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.84412733260153605</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.76976976976976896</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.80523560209424005</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.95055031875284801</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.86681815854238697</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.90675533024486299</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
@@ -4092,8 +4759,17 @@
       <c r="K4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>49</v>
       </c>
@@ -4103,8 +4779,14 @@
       <c r="K5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4114,8 +4796,14 @@
       <c r="K6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="I7" s="3" t="s">
         <v>140</v>
       </c>
@@ -4125,8 +4813,14 @@
       <c r="K7" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="L7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4136,8 +4830,14 @@
       <c r="K8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="L8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4147,8 +4847,14 @@
       <c r="K9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="L9">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4158,8 +4864,14 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="L10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4176,8 +4888,14 @@
       <c r="K11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4186,7 +4904,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:21">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4195,7 +4913,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4204,375 +4922,867 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:21">
+      <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="7" t="s">
+      <c r="H15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="21">
         <v>0.98190045248868696</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="21">
         <v>0.83354673495518505</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="21">
         <v>0.90166204986149501</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="21">
         <v>0.99737889370135302</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="21">
         <v>0.84668656405121301</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="22">
         <v>0.91587563230470503</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7" t="s">
+      <c r="H16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.93178519593613895</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.82202304737515997</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.87346938775510197</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.98860788557897505</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0.87215215513945399</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0.92673582743389704</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="21">
         <v>0.95294117647058796</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="21">
         <v>0.68067226890756305</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="21">
         <v>0.79411764705882304</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="21">
         <v>0.99513713862120001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="21">
         <v>0.71081224187228598</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="22">
         <v>0.82928094885100001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
+      <c r="H17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0.92771084337349397</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.64705882352941102</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0.76237623762376205</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.99252994185786803</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0.69226878297649597</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0.81564341756636705</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="21">
         <v>0.98039215686274495</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="21">
         <v>0.98039215686274495</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="21">
         <v>0.98039215686274495</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="21">
         <v>0.99403983137083796</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="21">
         <v>0.99403983137083796</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="22">
         <v>0.99403983137083796</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7" t="s">
+      <c r="H18" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="21">
         <v>0.24338624338624301</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="21">
         <v>0.244680851063829</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="21">
         <v>0.24403183023872599</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="21">
         <v>0.83408228746870405</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="21">
         <v>0.83851889538077096</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="22">
         <v>0.83629470732936395</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.326315789473684</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.329787234042553</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.32804232804232802</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.85144529459252605</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0.860503223258404</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0.85595029615121698</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="21">
         <v>0.810126582278481</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="21">
         <v>0.810126582278481</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="21">
         <v>0.810126582278481</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="21">
         <v>0.93237518030051103</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="21">
         <v>0.93237518030051103</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="22">
         <v>0.93237518030051103</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="21">
         <v>0.96949152542372796</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="21">
         <v>0.95333333333333303</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="21">
         <v>0.96134453781512597</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="21">
         <v>0.99475858842009801</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="21">
         <v>0.97817927861309595</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="22">
         <v>0.986399272551021</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="7" t="s">
+      <c r="H22" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0.994845945279763</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0.994845945279763</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0.994845945279763</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7" t="s">
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="21">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
         <v>0.39622641509433898</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="21">
         <v>0.56756756756756699</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21">
         <v>0.39622641509433898</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="22">
         <v>0.56756756756756699</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="7" t="s">
+      <c r="H25" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.339622641509433</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0.49315068493150599</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0.99355763009520204</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0.37492740758309501</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0.544415139778193</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="22"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="9">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="22">
+        <v>0</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="22"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="21">
         <v>0.95614035087719296</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="21">
         <v>0.91853932584269604</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="21">
         <v>0.93696275071633195</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="21">
         <v>0.99478591583854703</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="21">
         <v>0.95566512139545801</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="22">
         <v>0.974833189732903</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
+      <c r="H27" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.95977011494252795</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.93820224719101097</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0.94886363636363602</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.99300549896627299</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0.97069076865242399</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0.98172134556892898</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="22"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="9">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="B28" s="21">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
         <v>0.73161340007701103</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="21">
         <v>0.73161340007701103</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="22">
         <v>0.73161340007701103</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="7" t="s">
+      <c r="H28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="N28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="22"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="21">
         <v>0.60791366906474797</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="21">
         <v>0.56427378964941499</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="21">
         <v>0.58528138528138496</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="21">
         <v>0.93853537931044595</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="21">
         <v>0.87116138713958002</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="22">
         <v>0.90359423531880201</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="7" t="s">
+      <c r="H29" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.75315315315315301</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0.69782971619365597</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.72443674176776396</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.94880251585056996</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0.87910750633900903</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0.91262633673668303</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="22"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1">
+      <c r="A30" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="24">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24">
         <v>0.52293577981651296</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="24">
         <v>0.686746987951807</v>
       </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24">
         <v>0.52293577981651296</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="25">
         <v>0.686746987951807</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.78205128205128205</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0.55963302752293498</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.65240641711229896</v>
+      </c>
+      <c r="L30" s="24">
+        <v>0.85627380202275005</v>
+      </c>
+      <c r="M30" s="24">
+        <v>0.61274639043829804</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0.71432466906710701</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="25"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -4584,7 +5794,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:21">
       <c r="A32" s="2"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4595,8 +5805,13 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4607,8 +5822,13 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4618,8 +5838,14 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4627,8 +5853,9 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4637,7 +5864,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:15">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4646,8 +5873,10 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:15">
+      <c r="A38" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4655,7 +5884,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:15">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4664,13 +5893,301 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.17102137767220901</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4.8048048048047999E-2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7.50195363375879E-2</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4">
+        <v>9.1463414634146298E-2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.001001001001E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.8045112781954802E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.141201264488935</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4.47113780447113E-2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6.7916877850988294E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.60882140274764995</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.280947614280947</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.38447488584474798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.77337973031752905</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.59325992659325899</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.67145015105740102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.770798668885191</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.61828495161828501</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.68616922792075496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.82197549770290901</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.716383049716383</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.76555535746122305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.80749063670411902</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.71938605271938605</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.76089641785777296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.82348484848484804</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.72539205872539203</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.77133226893737705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.816697588126159</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.73440106773440095</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.77336612789880499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.82298252138341299</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.73840507173840497</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.77840309532184304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.87403881362138403</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.79646312979646305</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.83344972067039103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.86902133922001401</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.78812145478812101</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.82659667541557302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.81154127100073004</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.74140807474140802</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.77489102005231003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.74749163879598601</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.59659659659659603</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.66357394692892901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.79839326702371805</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.69636302969636299</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.74389591873106398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.79063767047548805</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.71571571571571502</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.751313485113835</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upe2\OneDrive - PETROBRAS\Documents\Repositorios\Petro_KGraph\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{277ECB02-6058-461E-81F6-259415395C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1A059A-5F09-4165-B664-727F4D9B5ED3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="243">
   <si>
     <t>Baseline</t>
   </si>
@@ -578,9 +578,6 @@
     <t>10 com patience= 5 (melhor val_loss na epoch =  ?)</t>
   </si>
   <si>
-    <t>50 com patience= 5 (melhor val_loss na epoch = 4)</t>
-  </si>
-  <si>
     <t>CAMPO</t>
   </si>
   <si>
@@ -741,6 +738,39 @@
   </si>
   <si>
     <t>10 com patience= 3 (melhor val_loss na epoch =  ?)</t>
+  </si>
+  <si>
+    <t>Sentence (input_id, attention_masks); tf_bert_model; dropout(0.3); dense(activation=None)</t>
+  </si>
+  <si>
+    <t>10 com patience= 3 (melhor val_loss na epoch =  7?)</t>
+  </si>
+  <si>
+    <t>TinyBert Classes</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_4</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_8 (6)</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_12 (11)</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_16 (?)</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_30 (8)</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_40 (10)</t>
+  </si>
+  <si>
+    <t>Baseline_epoch_25 (9)</t>
+  </si>
+  <si>
+    <t>25 com patience= 5 (melhor val_loss na epoch = 9)</t>
   </si>
 </sst>
 </file>
@@ -790,12 +820,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -891,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -933,6 +969,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,7 +2339,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2371,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
         <v>54</v>
@@ -2406,12 +2448,12 @@
         <v>137</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4">
         <v>0.74535538329694395</v>
@@ -2493,16 +2535,16 @@
         <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" t="s">
         <v>230</v>
       </c>
-      <c r="L6" t="s">
-        <v>231</v>
-      </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2536,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -2645,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>3</v>
@@ -2657,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>3</v>
@@ -2669,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>3</v>
@@ -2681,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>3</v>
@@ -4493,12 +4535,12 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="19">
         <v>0.73604745280967698</v>
@@ -4512,7 +4554,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="19">
         <v>0.54324629738512298</v>
@@ -4526,7 +4568,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57" s="4">
         <v>0.68891592210698205</v>
@@ -4540,7 +4582,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B58" s="4">
         <v>0.73121981211281895</v>
@@ -4554,7 +4596,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B59" s="4">
         <v>0.76980257922999895</v>
@@ -4568,7 +4610,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="4">
         <v>0.72121447781373604</v>
@@ -4591,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4608,7 +4650,7 @@
     <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:28">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4655,7 +4697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
@@ -4689,8 +4731,11 @@
       <c r="M2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
@@ -4725,10 +4770,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>197</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
         <v>139</v>
       </c>
@@ -4765,11 +4813,32 @@
       <c r="M4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="N4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="B5" s="4">
+        <v>0.90725369902562203</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.83883883883883803</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.87170596393897304</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.96967306867307101</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.89655124234003403</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.931679637064175</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>49</v>
       </c>
@@ -4785,8 +4854,32 @@
       <c r="M5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.80420650095602297</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.70170170170170099</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.74946543121881604</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.94842567309138803</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.82753858362828803</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.88386783148039205</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4802,8 +4895,11 @@
       <c r="M6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="I7" s="3" t="s">
         <v>140</v>
       </c>
@@ -4819,8 +4915,11 @@
       <c r="M7" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="N7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4831,13 +4930,16 @@
         <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>233</v>
+      </c>
+      <c r="N8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4853,8 +4955,11 @@
       <c r="M9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="N9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4870,8 +4975,11 @@
       <c r="M10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4894,8 +5002,11 @@
       <c r="M11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4904,7 +5015,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:28">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4913,7 +5024,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1">
+    <row r="14" spans="1:28" ht="15" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4922,7 +5033,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:28">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
@@ -4986,10 +5097,31 @@
       <c r="U15" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="21">
         <v>0.98190045248868696</v>
@@ -5010,7 +5142,7 @@
         <v>0.91587563230470503</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="21">
         <v>0.93178519593613895</v>
@@ -5031,18 +5163,51 @@
         <v>0.92673582743389704</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:21">
+        <v>179</v>
+      </c>
+      <c r="P16" s="21">
+        <v>0.96960926193921804</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.85787451984634999</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0.91032608695652095</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0.99569553876539496</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0.88095469562981799</v>
+      </c>
+      <c r="U16" s="22">
+        <v>0.93481741479196701</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0.99388379204892896</v>
+      </c>
+      <c r="X16" s="21">
+        <v>0.83226632522407096</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>0.90592334494773497</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0.99911427447706302</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>0.83664626825608002</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>0.91069092056863998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="21">
         <v>0.95294117647058796</v>
@@ -5063,7 +5228,7 @@
         <v>0.82928094885100001</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" s="21">
         <v>0.92771084337349397</v>
@@ -5084,18 +5249,51 @@
         <v>0.81564341756636705</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:21">
+        <v>178</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0.94565217391304301</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0.73109243697478898</v>
+      </c>
+      <c r="R17" s="21">
+        <v>0.82464454976303303</v>
+      </c>
+      <c r="S17" s="21">
+        <v>0.99018746648741796</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0.76552308333481001</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0.863481013429786</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W17" s="21">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="X17" s="21">
+        <v>0.67226890756302504</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>0.78817733990147698</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>0.99507924741430998</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>0.70240888052774797</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>0.82351385992908399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="21">
         <v>0.98039215686274495</v>
@@ -5116,7 +5314,7 @@
         <v>0.99403983137083796</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="21">
         <v>0.99019607843137203</v>
@@ -5137,18 +5335,51 @@
         <v>0.99701991568541903</v>
       </c>
       <c r="O18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1</v>
+      </c>
+      <c r="R18" s="21">
+        <v>1</v>
+      </c>
+      <c r="S18" s="21">
+        <v>1</v>
+      </c>
+      <c r="T18" s="21">
+        <v>1</v>
+      </c>
+      <c r="U18" s="22">
+        <v>1</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="W18" s="21">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="X18" s="21">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0.99403983137083796</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>0.99403983137083796</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>0.99403983137083796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="B19" s="21">
         <v>0.24338624338624301</v>
@@ -5169,7 +5400,7 @@
         <v>0.83629470732936395</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I19" s="21">
         <v>0.326315789473684</v>
@@ -5190,18 +5421,51 @@
         <v>0.85595029615121698</v>
       </c>
       <c r="O19" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0.93121693121693105</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0.93617021276595702</v>
+      </c>
+      <c r="R19" s="21">
+        <v>0.93368700265251903</v>
+      </c>
+      <c r="S19" s="21">
+        <v>0.97774965019510296</v>
+      </c>
+      <c r="T19" s="21">
+        <v>0.98295044620677896</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0.98034315059349797</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="W19" s="21">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="X19" s="21">
+        <v>0.26063829787234</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>0.259946949602122</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0.83739768814700499</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>0.84185193116906398</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>0.83961890217392099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="22"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="B20" s="21">
         <v>0.810126582278481</v>
@@ -5222,92 +5486,158 @@
         <v>0.93237518030051103</v>
       </c>
       <c r="H20" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="21">
+        <v>1</v>
+      </c>
+      <c r="S20" s="21">
+        <v>1</v>
+      </c>
+      <c r="T20" s="21">
+        <v>1</v>
+      </c>
+      <c r="U20" s="22">
+        <v>1</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="W20" s="21">
+        <v>0.30379746835443</v>
+      </c>
+      <c r="X20" s="21">
+        <v>0.30379746835443</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>0.30379746835443</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>0.75204232776854196</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>0.75204232776854196</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>0.75204232776854196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="21">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1</v>
-      </c>
-      <c r="K20" s="21">
-        <v>1</v>
-      </c>
-      <c r="L20" s="21">
-        <v>1</v>
-      </c>
-      <c r="M20" s="21">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
-        <v>1</v>
-      </c>
-      <c r="O20" s="20" t="s">
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="20" t="s">
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="22"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="B22" s="21">
         <v>0.96949152542372796</v>
@@ -5328,7 +5658,7 @@
         <v>0.986399272551021</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I22" s="21">
         <v>0.97</v>
@@ -5349,124 +5679,223 @@
         <v>0.994845945279763</v>
       </c>
       <c r="O22" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0.97666666666666602</v>
+      </c>
+      <c r="R22" s="21">
+        <v>0.98819561551433399</v>
+      </c>
+      <c r="S22" s="21">
+        <v>1</v>
+      </c>
+      <c r="T22" s="21">
+        <v>0.97666666666666602</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0.98819561551433399</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="W22" s="21">
+        <v>0.96271186440677903</v>
+      </c>
+      <c r="X22" s="21">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>0.95462184873949496</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0.99359383029123105</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>0.97703393311970999</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>0.98524430230559001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="22"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="20" t="s">
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="21">
-        <v>0</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20" t="s">
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
+      <c r="O24" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="22"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="20" t="s">
+      <c r="P24" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
+      <c r="S24" s="21">
+        <v>1</v>
+      </c>
+      <c r="T24" s="21">
+        <v>1</v>
+      </c>
+      <c r="U24" s="22">
+        <v>1</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="W24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="X24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>0.99722865577876896</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>0.99722865577876896</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>0.99722865577876896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="B24" s="21">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1</v>
-      </c>
-      <c r="J24" s="21">
-        <v>1</v>
-      </c>
-      <c r="K24" s="21">
-        <v>1</v>
-      </c>
-      <c r="L24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="21">
-        <v>1</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -5487,7 +5916,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I25" s="21">
         <v>0.9</v>
@@ -5508,71 +5937,137 @@
         <v>0.544415139778193</v>
       </c>
       <c r="O25" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="R25" s="21">
+        <v>0.55263157894736803</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0.99439793921321995</v>
+      </c>
+      <c r="T25" s="21">
+        <v>0.43153118116800099</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0.60187243689221204</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="W25" s="21">
+        <v>1</v>
+      </c>
+      <c r="X25" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="Y25" s="21">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="AB25" s="22">
+        <v>0.56756756756756699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="22">
+        <v>0</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0</v>
+      </c>
+      <c r="R26" s="21">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
+        <v>0</v>
+      </c>
+      <c r="T26" s="21">
+        <v>0</v>
+      </c>
+      <c r="U26" s="22">
+        <v>0</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="W26" s="21">
+        <v>0</v>
+      </c>
+      <c r="X26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="20" t="s">
         <v>188</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="22"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="21">
-        <v>0</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21">
-        <v>0</v>
-      </c>
-      <c r="K26" s="21">
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="22"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="20" t="s">
-        <v>189</v>
       </c>
       <c r="B27" s="21">
         <v>0.95614035087719296</v>
@@ -5593,7 +6088,7 @@
         <v>0.974833189732903</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="21">
         <v>0.95977011494252795</v>
@@ -5614,18 +6109,51 @@
         <v>0.98172134556892898</v>
       </c>
       <c r="O27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0.93593314763231195</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0.94382022471910099</v>
+      </c>
+      <c r="R27" s="21">
+        <v>0.93986013986013905</v>
+      </c>
+      <c r="S27" s="21">
+        <v>0.96293121919862801</v>
+      </c>
+      <c r="T27" s="21">
+        <v>0.97104580812445895</v>
+      </c>
+      <c r="U27" s="22">
+        <v>0.96697149004841298</v>
+      </c>
+      <c r="V27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="W27" s="21">
+        <v>0.88825214899713401</v>
+      </c>
+      <c r="X27" s="21">
+        <v>0.87078651685393205</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>0.879432624113475</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>0.97425136404269497</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>0.95509473609803497</v>
+      </c>
+      <c r="AB27" s="22">
+        <v>0.96457794624368998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="22"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
@@ -5646,7 +6174,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I28" s="21">
         <v>0</v>
@@ -5667,18 +6195,51 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="O28" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>0</v>
+      </c>
+      <c r="R28" s="21">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="T28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="U28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="V28" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="W28" s="21">
+        <v>0</v>
+      </c>
+      <c r="X28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AB28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="22"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="B29" s="21">
         <v>0.60791366906474797</v>
@@ -5699,7 +6260,7 @@
         <v>0.90359423531880201</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I29" s="21">
         <v>0.75315315315315301</v>
@@ -5720,18 +6281,51 @@
         <v>0.91262633673668303</v>
       </c>
       <c r="O29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0.74406779661016897</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0.73288814691151905</v>
+      </c>
+      <c r="R29" s="21">
+        <v>0.73843566021867102</v>
+      </c>
+      <c r="S29" s="21">
+        <v>0.95709399780686999</v>
+      </c>
+      <c r="T29" s="21">
+        <v>0.94271362054432895</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0.949849383862158</v>
+      </c>
+      <c r="V29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="W29" s="21">
+        <v>0.59541984732824405</v>
+      </c>
+      <c r="X29" s="21">
+        <v>0.52086811352253704</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>0.555654496883348</v>
+      </c>
+      <c r="Z29" s="21">
+        <v>0.93970545499009694</v>
+      </c>
+      <c r="AA29" s="21">
+        <v>0.82204617431520999</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>0.876946853810883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15" thickBot="1">
+      <c r="A30" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="22"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1">
-      <c r="A30" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="B30" s="24">
         <v>1</v>
@@ -5752,7 +6346,7 @@
         <v>0.686746987951807</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I30" s="24">
         <v>0.78205128205128205</v>
@@ -5773,16 +6367,49 @@
         <v>0.71432466906710701</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="25"/>
-    </row>
-    <row r="31" spans="1:21">
+        <v>191</v>
+      </c>
+      <c r="P30" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>0.66513761467889898</v>
+      </c>
+      <c r="R30" s="24">
+        <v>0.79889807162534399</v>
+      </c>
+      <c r="S30" s="24">
+        <v>1</v>
+      </c>
+      <c r="T30" s="24">
+        <v>0.66513761467889898</v>
+      </c>
+      <c r="U30" s="25">
+        <v>0.79889807162534399</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="W30" s="24">
+        <v>1</v>
+      </c>
+      <c r="X30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y30" s="24">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AB30" s="25">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5794,7 +6421,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:28">
       <c r="A32" s="2"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5810,8 +6437,15 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="2"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5827,8 +6461,18 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="2"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5844,8 +6488,18 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5854,8 +6508,24 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5864,7 +6534,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:25">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5873,9 +6543,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:25">
       <c r="A38" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5884,7 +6554,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:25">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5893,9 +6563,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
@@ -5910,9 +6580,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:25">
       <c r="A41" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="4">
         <v>0.17102137767220901</v>
@@ -5927,9 +6597,9 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:25">
       <c r="A42" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5941,23 +6611,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:25">
       <c r="A43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="B44" s="4">
         <v>9.1463414634146298E-2</v>
@@ -5969,14 +6639,14 @@
         <v>1.8045112781954802E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="4">
         <v>0.141201264488935</v>
@@ -5988,9 +6658,9 @@
         <v>6.7916877850988294E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:25">
       <c r="A48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4">
         <v>0.60882140274764995</v>
@@ -6004,7 +6674,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="4">
         <v>0.77337973031752905</v>
@@ -6018,7 +6688,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="4">
         <v>0.770798668885191</v>
@@ -6032,7 +6702,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="4">
         <v>0.82197549770290901</v>
@@ -6046,7 +6716,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="4">
         <v>0.80749063670411902</v>
@@ -6060,7 +6730,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="4">
         <v>0.82348484848484804</v>
@@ -6074,7 +6744,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="4">
         <v>0.816697588126159</v>
@@ -6088,7 +6758,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55" s="4">
         <v>0.82298252138341299</v>
@@ -6102,7 +6772,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="4">
         <v>0.87403881362138403</v>
@@ -6116,7 +6786,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="4">
         <v>0.86902133922001401</v>
@@ -6130,7 +6800,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="4">
         <v>0.81154127100073004</v>
@@ -6144,12 +6814,12 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="4">
         <v>0.74749163879598601</v>
@@ -6163,7 +6833,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" s="4">
         <v>0.79839326702371805</v>
@@ -6177,7 +6847,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="4">
         <v>0.79063767047548805</v>
@@ -6200,21 +6870,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="10" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6243,18 +6913,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.75645502936634401</v>
+        <v>0.85123632135596305</v>
       </c>
       <c r="C2" s="4">
-        <v>0.84708677898317097</v>
+        <v>0.93439291545418202</v>
       </c>
       <c r="D2" s="4">
-        <v>0.74029445282926598</v>
+        <v>0.81541379252177604</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -6262,236 +6932,540 @@
       <c r="I2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.80982336333446203</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.90727244782855299</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.76000696444944205</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="E11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B12">
-        <v>0.94623655913978399</v>
-      </c>
-      <c r="C12">
-        <v>0.93617021276595702</v>
-      </c>
-      <c r="D12">
-        <v>0.95652173913043403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="B12" s="14">
+        <v>0.99459459459459398</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.989247311827957</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.978494623655913</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.96808510638297796</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0.98913043478260798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="14">
         <v>0.53333333333333299</v>
       </c>
-      <c r="C13">
+      <c r="O13" s="14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="P13" s="15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B14">
-        <v>0.434782608695652</v>
-      </c>
-      <c r="C14">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D14">
-        <v>0.29411764705882298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="B14" s="14">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.52941176470588203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B15">
-        <v>0.90714285714285703</v>
-      </c>
-      <c r="C15">
-        <v>0.92028985507246297</v>
-      </c>
-      <c r="D15">
-        <v>0.89436619718309796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="B15" s="14">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.98319327731092399</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.823943661971831</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.90036900369003603</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.94573643410852704</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.85915492957746398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B16">
-        <v>0.92153589315525797</v>
-      </c>
-      <c r="C16">
-        <v>0.92</v>
-      </c>
-      <c r="D16">
-        <v>0.92307692307692302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B16" s="14">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.89570552147239202</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.97658862876254104</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.92776886035313</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.89197530864197505</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0.96655518394648798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" thickBot="1">
+      <c r="A17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B17">
-        <v>0.79569892473118198</v>
-      </c>
-      <c r="C17">
-        <v>0.67272727272727195</v>
-      </c>
-      <c r="D17">
-        <v>0.97368421052631504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="17">
+        <v>0.835443037974683</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.80487804878048697</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0.82666666666666599</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0.83783783783783705</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0.81578947368420995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:18">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:18">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
+    <row r="21" spans="1:18">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.53210988756182398</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.53722955060766497</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.53086486707606995</v>
+      </c>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.71584936762955298</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.91929869244606899</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.69462695387042095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.788566279996052</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.91308312553077897</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.75353095496400402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.78647013871648097</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.90370168336920198</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.74956068647649399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.85123632135596305</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.93439291545418202</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.81541379252177604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.80197730201052198</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.889369733463101</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.76723535468864401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.79948131930390598</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.91144287386457201</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.75399380294523799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:18">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:18">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:18">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upe2\OneDrive - PETROBRAS\Documents\Repositorios\Petro_KGraph\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4162847-C432-46CA-BCA1-79FB55A06D80}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="256">
   <si>
     <t>Baseline</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>treinando</t>
-  </si>
-  <si>
     <t>Petrovec-OeG-pub</t>
   </si>
   <si>
@@ -771,6 +768,48 @@
   </si>
   <si>
     <t>25 com patience= 5 (melhor val_loss na epoch = 9)</t>
+  </si>
+  <si>
+    <t>25 com patience= 5 (melhor val_loss na epoch = 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google/bert_uncased_L-2_H-128_A-2' </t>
+  </si>
+  <si>
+    <t>25 com patience= 5 (melhor val_loss na epoch = 5)</t>
+  </si>
+  <si>
+    <t>TyneBert_epoch_25 (5)</t>
+  </si>
+  <si>
+    <t>TyneBert_epoch_5</t>
+  </si>
+  <si>
+    <t>TyneBert_epoch_10 (2)</t>
+  </si>
+  <si>
+    <t>TyneBert_epoch_15 (2)</t>
+  </si>
+  <si>
+    <t>Não é possível treinar</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>10 com patience= 3 (melhor val_loss na epoch =  10)</t>
+  </si>
+  <si>
+    <t>Alpha 001_treino 005_pred</t>
+  </si>
+  <si>
+    <t>0.01 treino e 0.05 predição</t>
+  </si>
+  <si>
+    <t>Instance Clustering scores usando parâmetros do modelos base</t>
   </si>
 </sst>
 </file>
@@ -820,7 +859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +869,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -970,11 +1015,17 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,7 +1348,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -1320,7 +1371,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -1343,7 +1394,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -1360,7 +1411,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -1384,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2176,12 +2227,15 @@
         <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2210,7 +2264,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="4">
         <v>0.95448018389604306</v>
@@ -2218,7 +2272,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="4">
         <v>0.84683443743062303</v>
@@ -2226,7 +2280,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="4">
         <v>0.89744088012007694</v>
@@ -2239,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2250,38 +2304,56 @@
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,7 +2361,7 @@
         <v>0.82512222640090205</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -2297,7 +2369,7 @@
         <v>0.732065398732065</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -2305,25 +2377,25 @@
         <v>0.77581329561527501</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4">
         <v>0.95448018389604306</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4">
         <v>0.84683443743062303</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="4">
         <v>0.89744088012007694</v>
@@ -2339,7 +2411,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2372,19 +2444,19 @@
         <v>121</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2413,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
         <v>54</v>
@@ -2423,37 +2495,37 @@
       <c r="A3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="29">
         <v>0.82819948973480995</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="29">
         <v>0.77373652402467696</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="29">
         <v>0.90114728392209298</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4">
         <v>0.74535538329694395</v>
@@ -2485,15 +2557,15 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="4">
+        <v>133</v>
+      </c>
+      <c r="B5" s="29">
         <v>0.826074348328662</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="29">
         <v>0.78036554611616604</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="29">
         <v>0.90930738360060004</v>
       </c>
       <c r="H5" t="s">
@@ -2517,7 +2589,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="4">
         <v>0.77461056382495497</v>
@@ -2532,19 +2604,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" t="s">
         <v>229</v>
       </c>
-      <c r="L6" t="s">
-        <v>230</v>
-      </c>
       <c r="M6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2578,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -2675,7 +2747,7 @@
     <row r="16" spans="1:15" ht="15" thickBot="1"/>
     <row r="17" spans="1:20">
       <c r="A17" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>3</v>
@@ -2687,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>3</v>
@@ -2699,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>3</v>
@@ -2711,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>3</v>
@@ -2723,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>3</v>
@@ -4535,12 +4607,12 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="19">
         <v>0.73604745280967698</v>
@@ -4554,7 +4626,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="19">
         <v>0.54324629738512298</v>
@@ -4568,7 +4640,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="4">
         <v>0.68891592210698205</v>
@@ -4582,7 +4654,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="4">
         <v>0.73121981211281895</v>
@@ -4596,7 +4668,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59" s="4">
         <v>0.76980257922999895</v>
@@ -4610,7 +4682,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B60" s="4">
         <v>0.72121447781373604</v>
@@ -4633,7 +4705,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AW62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4650,7 +4722,7 @@
     <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:49">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4661,45 +4733,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
+      <c r="A2" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="B2" s="4">
         <v>0.86260367832672102</v>
@@ -4720,7 +4792,7 @@
         <v>0.89283339969549302</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>128</v>
@@ -4734,8 +4806,17 @@
       <c r="N2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
@@ -4770,15 +4851,24 @@
         <v>46</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="4">
         <v>0.84412733260153605</v>
@@ -4814,29 +4904,38 @@
         <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>231</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="4">
+        <v>133</v>
+      </c>
+      <c r="B5" s="29">
         <v>0.90725369902562203</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="29">
         <v>0.83883883883883803</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="29">
         <v>0.87170596393897304</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="29">
         <v>0.96967306867307101</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="29">
         <v>0.89655124234003403</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="29">
         <v>0.931679637064175</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -4857,10 +4956,19 @@
       <c r="N5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="4">
         <v>0.80420650095602297</v>
@@ -4898,10 +5006,40 @@
       <c r="N6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="A7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.78004934790271396</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.73840507173840497</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.75865615358244698</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.94116365803559099</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.89091801729962306</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.91535183333800896</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="1">
         <v>0.05</v>
@@ -4918,8 +5056,38 @@
       <c r="N7" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="O7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.930221366698748</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.64497831164497799</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.76177339901477803</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.98117506687081602</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.680307570556408</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.80350021239706604</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4927,19 +5095,49 @@
         <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>230</v>
+      </c>
+      <c r="O8" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.85624538063562405</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.773106439773106</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.81255479572154998</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.96192695354755997</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.868526638738637</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.91284388437653696</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4958,8 +5156,21 @@
       <c r="N9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4970,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -4978,8 +5189,17 @@
       <c r="N10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5005,8 +5225,17 @@
       <c r="N11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5015,7 +5244,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:49">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5024,7 +5253,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="15" thickBot="1">
+    <row r="14" spans="1:49" ht="15" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5033,7 +5262,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:49">
       <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
@@ -5047,13 +5276,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="G15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>128</v>
@@ -5068,16 +5297,16 @@
         <v>3</v>
       </c>
       <c r="L15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="N15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>1</v>
@@ -5089,16 +5318,16 @@
         <v>3</v>
       </c>
       <c r="S15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="U15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W15" s="11" t="s">
         <v>1</v>
@@ -5110,18 +5339,81 @@
         <v>3</v>
       </c>
       <c r="Z15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AA15" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="AB15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AH15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ15" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP15" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ15" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW15" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="21">
         <v>0.98190045248868696</v>
@@ -5142,7 +5434,7 @@
         <v>0.91587563230470503</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="21">
         <v>0.93178519593613895</v>
@@ -5163,7 +5455,7 @@
         <v>0.92673582743389704</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P16" s="21">
         <v>0.96960926193921804</v>
@@ -5184,7 +5476,7 @@
         <v>0.93481741479196701</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W16" s="21">
         <v>0.99388379204892896</v>
@@ -5204,10 +5496,73 @@
       <c r="AB16" s="22">
         <v>0.91069092056863998</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>0.90713324360699799</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>0.86299615877080604</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>0.884514435695538</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>0.98664124277641696</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>0.93863565093838397</v>
+      </c>
+      <c r="AI16" s="22">
+        <v>0.96203995194603398</v>
+      </c>
+      <c r="AJ16" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="21">
+        <v>0.78617157490396905</v>
+      </c>
+      <c r="AM16" s="21">
+        <v>0.88028673835125404</v>
+      </c>
+      <c r="AN16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="21">
+        <v>0.78617157490396905</v>
+      </c>
+      <c r="AP16" s="22">
+        <v>0.88028673835125404</v>
+      </c>
+      <c r="AQ16" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR16" s="21">
+        <v>0.97878787878787799</v>
+      </c>
+      <c r="AS16" s="21">
+        <v>0.82714468629961502</v>
+      </c>
+      <c r="AT16" s="21">
+        <v>0.89659958362248404</v>
+      </c>
+      <c r="AU16" s="21">
+        <v>0.99407185461402603</v>
+      </c>
+      <c r="AV16" s="21">
+        <v>0.87060838483481895</v>
+      </c>
+      <c r="AW16" s="22">
+        <v>0.92825276253377997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49">
       <c r="A17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="21">
         <v>0.95294117647058796</v>
@@ -5228,7 +5583,7 @@
         <v>0.82928094885100001</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="21">
         <v>0.92771084337349397</v>
@@ -5249,7 +5604,7 @@
         <v>0.81564341756636705</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P17" s="21">
         <v>0.94565217391304301</v>
@@ -5270,7 +5625,7 @@
         <v>0.863481013429786</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W17" s="21">
         <v>0.952380952380952</v>
@@ -5290,10 +5645,73 @@
       <c r="AB17" s="22">
         <v>0.82351385992908399</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>0.95402298850574696</v>
+      </c>
+      <c r="AE17" s="21">
+        <v>0.69747899159663795</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>0.80582524271844602</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>0.99524892853795499</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>0.72761896456136199</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>0.84064715323108796</v>
+      </c>
+      <c r="AJ17" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK17" s="21">
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="AL17" s="21">
+        <v>0.63865546218487301</v>
+      </c>
+      <c r="AM17" s="21">
+        <v>0.77551020408163196</v>
+      </c>
+      <c r="AN17" s="21">
+        <v>0.99865797656753896</v>
+      </c>
+      <c r="AO17" s="21">
+        <v>0.64619045542605402</v>
+      </c>
+      <c r="AP17" s="22">
+        <v>0.78465983873163803</v>
+      </c>
+      <c r="AQ17" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR17" s="21">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="AS17" s="21">
+        <v>0.67226890756302504</v>
+      </c>
+      <c r="AT17" s="21">
+        <v>0.78817733990147698</v>
+      </c>
+      <c r="AU17" s="21">
+        <v>0.99507924741430998</v>
+      </c>
+      <c r="AV17" s="21">
+        <v>0.70240888052774797</v>
+      </c>
+      <c r="AW17" s="22">
+        <v>0.82351385992908399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49">
       <c r="A18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="21">
         <v>0.98039215686274495</v>
@@ -5314,7 +5732,7 @@
         <v>0.99403983137083796</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="21">
         <v>0.99019607843137203</v>
@@ -5335,7 +5753,7 @@
         <v>0.99701991568541903</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P18" s="21">
         <v>1</v>
@@ -5356,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W18" s="21">
         <v>0.98039215686274495</v>
@@ -5376,10 +5794,73 @@
       <c r="AB18" s="22">
         <v>0.99403983137083796</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="AI18" s="22">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="AJ18" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK18" s="21">
+        <v>0.98850574712643602</v>
+      </c>
+      <c r="AL18" s="21">
+        <v>0.84313725490196001</v>
+      </c>
+      <c r="AM18" s="21">
+        <v>0.91005291005291</v>
+      </c>
+      <c r="AN18" s="21">
+        <v>0.99650610804497397</v>
+      </c>
+      <c r="AO18" s="21">
+        <v>0.84996109215600701</v>
+      </c>
+      <c r="AP18" s="22">
+        <v>0.91741832169219795</v>
+      </c>
+      <c r="AQ18" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR18" s="21">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="AS18" s="21">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="AT18" s="21">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="AU18" s="21">
+        <v>0.98807966274167702</v>
+      </c>
+      <c r="AV18" s="21">
+        <v>0.98807966274167702</v>
+      </c>
+      <c r="AW18" s="22">
+        <v>0.98807966274167702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49">
       <c r="A19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="21">
         <v>0.24338624338624301</v>
@@ -5400,7 +5881,7 @@
         <v>0.83629470732936395</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="21">
         <v>0.326315789473684</v>
@@ -5421,7 +5902,7 @@
         <v>0.85595029615121698</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P19" s="21">
         <v>0.93121693121693105</v>
@@ -5442,7 +5923,7 @@
         <v>0.98034315059349797</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W19" s="21">
         <v>0.25925925925925902</v>
@@ -5462,10 +5943,73 @@
       <c r="AB19" s="22">
         <v>0.83961890217392099</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>0.34736842105263099</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>0.35106382978723399</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>0.34920634920634902</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>0.85584256286059002</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>0.864947270976128</v>
+      </c>
+      <c r="AI19" s="22">
+        <v>0.86037083038895301</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK19" s="21">
+        <v>0.39247311827956899</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>0.38829787234042501</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>0.39037433155080198</v>
+      </c>
+      <c r="AN19" s="21">
+        <v>0.86459894116471803</v>
+      </c>
+      <c r="AO19" s="21">
+        <v>0.85540108008849802</v>
+      </c>
+      <c r="AP19" s="22">
+        <v>0.85997541741517403</v>
+      </c>
+      <c r="AQ19" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR19" s="21">
+        <v>0.39153439153439101</v>
+      </c>
+      <c r="AS19" s="21">
+        <v>0.39361702127659498</v>
+      </c>
+      <c r="AT19" s="21">
+        <v>0.392572944297082</v>
+      </c>
+      <c r="AU19" s="21">
+        <v>0.86512266022270201</v>
+      </c>
+      <c r="AV19" s="21">
+        <v>0.87432609277826301</v>
+      </c>
+      <c r="AW19" s="22">
+        <v>0.86970002879530905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="21">
         <v>0.810126582278481</v>
@@ -5486,7 +6030,7 @@
         <v>0.93237518030051103</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="21">
         <v>1</v>
@@ -5507,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P20" s="21">
         <v>1</v>
@@ -5528,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W20" s="21">
         <v>0.30379746835443</v>
@@ -5548,96 +6092,222 @@
       <c r="AB20" s="22">
         <v>0.75204232776854196</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>0.329113924050632</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>0.329113924050632</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>0.329113924050632</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>0.76105897039514103</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>0.76105897039514103</v>
+      </c>
+      <c r="AI20" s="22">
+        <v>0.76105897039514103</v>
+      </c>
+      <c r="AJ20" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AN20" s="21">
+        <v>0.99549167868669997</v>
+      </c>
+      <c r="AO20" s="21">
+        <v>0.99549167868669997</v>
+      </c>
+      <c r="AP20" s="22">
+        <v>0.99549167868669997</v>
+      </c>
+      <c r="AQ20" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AS20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AT20" s="21">
+        <v>0.987341772151898</v>
+      </c>
+      <c r="AU20" s="21">
+        <v>0.99549167868669997</v>
+      </c>
+      <c r="AV20" s="21">
+        <v>0.99549167868669997</v>
+      </c>
+      <c r="AW20" s="22">
+        <v>0.99549167868669997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49">
       <c r="A21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49">
+      <c r="A22" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
-        <v>0</v>
-      </c>
-      <c r="U21" s="22">
-        <v>0</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="W21" s="21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="20" t="s">
-        <v>184</v>
       </c>
       <c r="B22" s="21">
         <v>0.96949152542372796</v>
@@ -5658,7 +6328,7 @@
         <v>0.986399272551021</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I22" s="21">
         <v>0.97</v>
@@ -5679,7 +6349,7 @@
         <v>0.994845945279763</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P22" s="21">
         <v>1</v>
@@ -5700,7 +6370,7 @@
         <v>0.98819561551433399</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W22" s="21">
         <v>0.96271186440677903</v>
@@ -5720,159 +6390,285 @@
       <c r="AB22" s="22">
         <v>0.98524430230559001</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>0.956666666666666</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>0.956666666666666</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>0.956666666666666</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>0.99255525429299096</v>
+      </c>
+      <c r="AH22" s="21">
+        <v>0.99255525429299096</v>
+      </c>
+      <c r="AI22" s="22">
+        <v>0.99255525429299096</v>
+      </c>
+      <c r="AJ22" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="21">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="AM22" s="21">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="AN22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="21">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="AP22" s="22">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="AQ22" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR22" s="21">
+        <v>0.96949152542372796</v>
+      </c>
+      <c r="AS22" s="21">
+        <v>0.95333333333333303</v>
+      </c>
+      <c r="AT22" s="21">
+        <v>0.96134453781512597</v>
+      </c>
+      <c r="AU22" s="21">
+        <v>0.99475858842009801</v>
+      </c>
+      <c r="AV22" s="21">
+        <v>0.97817927861309595</v>
+      </c>
+      <c r="AW22" s="22">
+        <v>0.986399272551021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49">
       <c r="A23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49">
+      <c r="A24" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="21">
-        <v>0</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20" t="s">
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
+      <c r="O24" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <v>0</v>
-      </c>
-      <c r="T23" s="21">
-        <v>0</v>
-      </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="20" t="s">
+      <c r="P24" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
+      <c r="S24" s="21">
+        <v>1</v>
+      </c>
+      <c r="T24" s="21">
+        <v>1</v>
+      </c>
+      <c r="U24" s="22">
+        <v>1</v>
+      </c>
+      <c r="V24" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="W23" s="21">
-        <v>0</v>
-      </c>
-      <c r="X23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="21">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1</v>
-      </c>
-      <c r="J24" s="21">
-        <v>1</v>
-      </c>
-      <c r="K24" s="21">
-        <v>1</v>
-      </c>
-      <c r="L24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="21">
-        <v>1</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>1</v>
-      </c>
-      <c r="R24" s="21">
-        <v>1</v>
-      </c>
-      <c r="S24" s="21">
-        <v>1</v>
-      </c>
-      <c r="T24" s="21">
-        <v>1</v>
-      </c>
-      <c r="U24" s="22">
-        <v>1</v>
-      </c>
-      <c r="V24" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="W24" s="21">
         <v>0.986206896551724</v>
@@ -5892,10 +6688,73 @@
       <c r="AB24" s="22">
         <v>0.99722865577876896</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>0.99305555555555503</v>
+      </c>
+      <c r="AN24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="AP24" s="22">
+        <v>0.99305555555555503</v>
+      </c>
+      <c r="AQ24" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="AS24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="AT24" s="21">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="AU24" s="21">
+        <v>0.99722865577876896</v>
+      </c>
+      <c r="AV24" s="21">
+        <v>0.99722865577876896</v>
+      </c>
+      <c r="AW24" s="22">
+        <v>0.99722865577876896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49">
       <c r="A25" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -5916,7 +6775,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="21">
         <v>0.9</v>
@@ -5937,7 +6796,7 @@
         <v>0.544415139778193</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P25" s="21">
         <v>0.91304347826086896</v>
@@ -5958,7 +6817,7 @@
         <v>0.60187243689221204</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W25" s="21">
         <v>1</v>
@@ -5978,10 +6837,73 @@
       <c r="AB25" s="22">
         <v>0.56756756756756699</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>0.89361702127659504</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="AG25" s="21">
+        <v>0.99314641499489598</v>
+      </c>
+      <c r="AH25" s="21">
+        <v>0.440357372686416</v>
+      </c>
+      <c r="AI25" s="22">
+        <v>0.61016838568313903</v>
+      </c>
+      <c r="AJ25" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="21">
+        <v>0.37735849056603699</v>
+      </c>
+      <c r="AM25" s="21">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="AN25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="21">
+        <v>0.37735849056603699</v>
+      </c>
+      <c r="AP25" s="22">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="AQ25" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR25" s="21">
+        <v>0.98795180722891496</v>
+      </c>
+      <c r="AS25" s="21">
+        <v>0.38679245283018798</v>
+      </c>
+      <c r="AT25" s="21">
+        <v>0.55593220338982996</v>
+      </c>
+      <c r="AU25" s="21">
+        <v>0.99850177444074395</v>
+      </c>
+      <c r="AV25" s="21">
+        <v>0.405052606612755</v>
+      </c>
+      <c r="AW25" s="22">
+        <v>0.57631646041546303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49">
       <c r="A26" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
@@ -6002,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="21">
         <v>0</v>
@@ -6023,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P26" s="21">
         <v>0</v>
@@ -6044,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W26" s="21">
         <v>0</v>
@@ -6064,10 +6986,73 @@
       <c r="AB26" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49">
       <c r="A27" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" s="21">
         <v>0.95614035087719296</v>
@@ -6088,7 +7073,7 @@
         <v>0.974833189732903</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I27" s="21">
         <v>0.95977011494252795</v>
@@ -6109,7 +7094,7 @@
         <v>0.98172134556892898</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P27" s="21">
         <v>0.93593314763231195</v>
@@ -6130,7 +7115,7 @@
         <v>0.96697149004841298</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W27" s="21">
         <v>0.88825214899713401</v>
@@ -6150,10 +7135,73 @@
       <c r="AB27" s="22">
         <v>0.96457794624368998</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>0.88826815642458101</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>0.89325842696629199</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>0.89075630252100801</v>
+      </c>
+      <c r="AG27" s="21">
+        <v>0.972105380030449</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>0.97756664621039502</v>
+      </c>
+      <c r="AI27" s="22">
+        <v>0.97482836428823705</v>
+      </c>
+      <c r="AJ27" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK27" s="21">
+        <v>0.99076923076922996</v>
+      </c>
+      <c r="AL27" s="21">
+        <v>0.90449438202247101</v>
+      </c>
+      <c r="AM27" s="21">
+        <v>0.945668135095447</v>
+      </c>
+      <c r="AN27" s="21">
+        <v>0.99890263582571204</v>
+      </c>
+      <c r="AO27" s="21">
+        <v>0.91191954113302398</v>
+      </c>
+      <c r="AP27" s="22">
+        <v>0.95343129704363105</v>
+      </c>
+      <c r="AQ27" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR27" s="21">
+        <v>0.94571428571428495</v>
+      </c>
+      <c r="AS27" s="21">
+        <v>0.92977528089887596</v>
+      </c>
+      <c r="AT27" s="21">
+        <v>0.93767705382436195</v>
+      </c>
+      <c r="AU27" s="21">
+        <v>0.98078408843281295</v>
+      </c>
+      <c r="AV27" s="21">
+        <v>0.97251905397972804</v>
+      </c>
+      <c r="AW27" s="22">
+        <v>0.97663408523775197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49">
       <c r="A28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
@@ -6174,7 +7222,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28" s="21">
         <v>0</v>
@@ -6195,7 +7243,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P28" s="21">
         <v>0</v>
@@ -6216,7 +7264,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="V28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W28" s="21">
         <v>0</v>
@@ -6236,10 +7284,73 @@
       <c r="AB28" s="22">
         <v>0.73161340007701103</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AI28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AJ28" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AO28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AP28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AQ28" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AV28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="AW28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
       <c r="A29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="21">
         <v>0.60791366906474797</v>
@@ -6260,7 +7371,7 @@
         <v>0.90359423531880201</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I29" s="21">
         <v>0.75315315315315301</v>
@@ -6281,7 +7392,7 @@
         <v>0.91262633673668303</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P29" s="21">
         <v>0.74406779661016897</v>
@@ -6302,7 +7413,7 @@
         <v>0.949849383862158</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W29" s="21">
         <v>0.59541984732824405</v>
@@ -6322,10 +7433,73 @@
       <c r="AB29" s="22">
         <v>0.876946853810883</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1">
+      <c r="AC29" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>0.56280587275693295</v>
+      </c>
+      <c r="AE29" s="21">
+        <v>0.57595993322203598</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>0.56930693069306904</v>
+      </c>
+      <c r="AG29" s="21">
+        <v>0.912896873136679</v>
+      </c>
+      <c r="AH29" s="21">
+        <v>0.93423336098962295</v>
+      </c>
+      <c r="AI29" s="22">
+        <v>0.92344188652274695</v>
+      </c>
+      <c r="AJ29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK29" s="21">
+        <v>0.92207792207792205</v>
+      </c>
+      <c r="AL29" s="21">
+        <v>0.23706176961602601</v>
+      </c>
+      <c r="AM29" s="21">
+        <v>0.37715803452855201</v>
+      </c>
+      <c r="AN29" s="21">
+        <v>0.98870154185319503</v>
+      </c>
+      <c r="AO29" s="21">
+        <v>0.254190379708501</v>
+      </c>
+      <c r="AP29" s="22">
+        <v>0.40440913000104101</v>
+      </c>
+      <c r="AQ29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR29" s="21">
+        <v>0.74261201143946598</v>
+      </c>
+      <c r="AS29" s="21">
+        <v>0.65025041736226996</v>
+      </c>
+      <c r="AT29" s="21">
+        <v>0.69336893635958996</v>
+      </c>
+      <c r="AU29" s="21">
+        <v>0.95657891048367605</v>
+      </c>
+      <c r="AV29" s="21">
+        <v>0.90068531805140795</v>
+      </c>
+      <c r="AW29" s="22">
+        <v>0.92779106708992798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" ht="15" thickBot="1">
       <c r="A30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="24">
         <v>1</v>
@@ -6346,7 +7520,7 @@
         <v>0.686746987951807</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I30" s="24">
         <v>0.78205128205128205</v>
@@ -6367,7 +7541,7 @@
         <v>0.71432466906710701</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P30" s="24">
         <v>1</v>
@@ -6388,7 +7562,7 @@
         <v>0.79889807162534399</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W30" s="24">
         <v>1</v>
@@ -6408,8 +7582,71 @@
       <c r="AB30" s="25">
         <v>0.66666666666666596</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="24">
+        <v>0.57798165137614599</v>
+      </c>
+      <c r="AF30" s="24">
+        <v>0.73255813953488302</v>
+      </c>
+      <c r="AG30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="24">
+        <v>0.57798165137614599</v>
+      </c>
+      <c r="AI30" s="25">
+        <v>0.73255813953488302</v>
+      </c>
+      <c r="AJ30" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="24">
+        <v>0.34403669724770602</v>
+      </c>
+      <c r="AM30" s="24">
+        <v>0.51194539249146698</v>
+      </c>
+      <c r="AN30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="24">
+        <v>0.34403669724770602</v>
+      </c>
+      <c r="AP30" s="25">
+        <v>0.51194539249146698</v>
+      </c>
+      <c r="AQ30" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="24">
+        <v>0.55275229357798095</v>
+      </c>
+      <c r="AT30" s="24">
+        <v>0.71196454948301302</v>
+      </c>
+      <c r="AU30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="24">
+        <v>0.57798165137614599</v>
+      </c>
+      <c r="AW30" s="25">
+        <v>0.73255813953488302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -6421,8 +7658,8 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:49">
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -6444,9 +7681,30 @@
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="2"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -6471,9 +7729,30 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="2"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+    </row>
+    <row r="34" spans="1:49">
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -6498,8 +7777,32 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6524,8 +7827,26 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+    </row>
+    <row r="36" spans="1:49">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6533,8 +7854,23 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+    </row>
+    <row r="37" spans="1:49">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6543,9 +7879,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:49">
       <c r="A38" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6554,7 +7890,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:49">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6563,9 +7899,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
@@ -6580,9 +7916,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:49">
       <c r="A41" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="4">
         <v>0.17102137767220901</v>
@@ -6597,9 +7933,9 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:49">
       <c r="A42" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6611,23 +7947,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:49">
       <c r="A43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
+      <c r="A44" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="B44" s="4">
         <v>9.1463414634146298E-2</v>
@@ -6639,14 +7975,14 @@
         <v>1.8045112781954802E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
       <c r="A47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="4">
         <v>0.141201264488935</v>
@@ -6658,9 +7994,9 @@
         <v>6.7916877850988294E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:49">
       <c r="A48" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="4">
         <v>0.60882140274764995</v>
@@ -6674,7 +8010,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="4">
         <v>0.77337973031752905</v>
@@ -6688,7 +8024,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" s="4">
         <v>0.770798668885191</v>
@@ -6702,7 +8038,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" s="4">
         <v>0.82197549770290901</v>
@@ -6716,7 +8052,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="4">
         <v>0.80749063670411902</v>
@@ -6730,7 +8066,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="4">
         <v>0.82348484848484804</v>
@@ -6744,7 +8080,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="4">
         <v>0.816697588126159</v>
@@ -6758,7 +8094,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="4">
         <v>0.82298252138341299</v>
@@ -6772,7 +8108,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="4">
         <v>0.87403881362138403</v>
@@ -6786,7 +8122,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="4">
         <v>0.86902133922001401</v>
@@ -6800,7 +8136,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58" s="4">
         <v>0.81154127100073004</v>
@@ -6814,12 +8150,12 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4">
         <v>0.74749163879598601</v>
@@ -6833,7 +8169,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="4">
         <v>0.79839326702371805</v>
@@ -6847,7 +8183,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" s="4">
         <v>0.79063767047548805</v>
@@ -6872,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6901,13 +8237,13 @@
         <v>128</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>14</v>
@@ -6917,13 +8253,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="29">
         <v>0.85123632135596305</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="29">
         <v>0.93439291545418202</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="29">
         <v>0.81541379252177604</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6932,34 +8268,67 @@
       <c r="I2" t="s">
         <v>54</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="K2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.33791425011290999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.46109772566731699</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.33938166344779902</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.71020131376752604</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.90950090623320301</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.69536814041348904</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
       </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
       <c r="K4" t="s">
         <v>55</v>
       </c>
@@ -6969,7 +8338,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4">
         <v>0.80982336333446203</v>
@@ -6982,6 +8351,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
@@ -6990,13 +8360,16 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>244</v>
       </c>
       <c r="K6" t="s">
         <v>242</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7006,8 +8379,11 @@
       <c r="I7">
         <v>16</v>
       </c>
+      <c r="J7" s="3">
+        <v>64</v>
+      </c>
       <c r="K7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -7020,6 +8396,9 @@
       <c r="I8" t="s">
         <v>56</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="K8" t="s">
         <v>56</v>
       </c>
@@ -7032,6 +8411,9 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
@@ -7056,7 +8438,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>3</v>
@@ -7068,7 +8450,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>3</v>
@@ -7080,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>3</v>
@@ -7108,15 +8490,27 @@
       <c r="E12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="4">
+        <v>0.56842105263157905</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.55102040816326503</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.58695652173913004</v>
+      </c>
       <c r="I12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="J12" s="4">
+        <v>0.92063492063492003</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.89690721649484495</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.94565217391304301</v>
+      </c>
       <c r="M12" s="27" t="s">
         <v>57</v>
       </c>
@@ -7132,7 +8526,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="14">
         <v>0.57142857142857095</v>
@@ -7144,19 +8538,31 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.1</v>
+      </c>
       <c r="I13" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.3</v>
+      </c>
       <c r="M13" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N13" s="14">
         <v>0.53333333333333299</v>
@@ -7184,15 +8590,27 @@
       <c r="E14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
       <c r="I14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="J14" s="4">
+        <v>0.21052631578947301</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.11764705882352899</v>
+      </c>
       <c r="M14" s="27" t="s">
         <v>58</v>
       </c>
@@ -7222,15 +8640,27 @@
       <c r="E15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="F15" s="4">
+        <v>0.55749128919860602</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.56338028169013998</v>
+      </c>
       <c r="I15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="J15" s="4">
+        <v>0.91549295774647799</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.91549295774647799</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.91549295774647799</v>
+      </c>
       <c r="M15" s="27" t="s">
         <v>59</v>
       </c>
@@ -7260,15 +8690,27 @@
       <c r="E16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="4">
+        <v>0.71975497702909597</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.66384180790960401</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.785953177257525</v>
+      </c>
       <c r="I16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="J16" s="4">
+        <v>0.91210613598673296</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.90460526315789402</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.91973244147157196</v>
+      </c>
       <c r="M16" s="27" t="s">
         <v>60</v>
       </c>
@@ -7284,7 +8726,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="17">
         <v>0.835443037974683</v>
@@ -7296,19 +8738,31 @@
         <v>0.86842105263157898</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
       <c r="I17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.84090909090909005</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0.97368421052631504</v>
+      </c>
       <c r="M17" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N17" s="17">
         <v>0.82666666666666599</v>
@@ -7327,7 +8781,9 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="2"/>
+      <c r="A19" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7350,7 +8806,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="4">
         <v>0.53210988756182398</v>
@@ -7361,11 +8817,11 @@
       <c r="D22" s="4">
         <v>0.53086486707606995</v>
       </c>
-      <c r="R22" s="32"/>
+      <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="4">
         <v>0.71584936762955298</v>
@@ -7379,7 +8835,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="4">
         <v>0.788566279996052</v>
@@ -7393,7 +8849,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="4">
         <v>0.78647013871648097</v>
@@ -7407,7 +8863,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="4">
         <v>0.85123632135596305</v>
@@ -7421,7 +8877,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="4">
         <v>0.80197730201052198</v>
@@ -7435,7 +8891,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="4">
         <v>0.79948131930390598</v>
@@ -7455,33 +8911,71 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.46255109825582602</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.49931092002259198</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.44637991063201299</v>
+      </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.39428168932264401</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.40299806096231</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.40218703230354302</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.27675248945247699</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.29262000768049101</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.27935057390048201</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.302648883949245</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.280130218764713</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.33643051172138699</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2"/>
@@ -7538,7 +9032,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7546,12 +9040,12 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>128</v>
@@ -7567,7 +9061,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>128</v>
@@ -7575,7 +9069,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
@@ -7583,7 +9077,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>128</v>
@@ -7594,7 +9088,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="8">
         <v>0.26408010012515598</v>
@@ -7606,7 +9100,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="8">
         <v>0.65</v>
@@ -7615,7 +9109,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="8">
         <v>0.27027027027027001</v>
@@ -7624,7 +9118,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="8">
         <v>7.4074074074074001E-2</v>
@@ -7633,7 +9127,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -7642,7 +9136,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -7651,7 +9145,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="8">
         <v>0.27586206896551702</v>
@@ -7660,7 +9154,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="8">
         <v>0.4375</v>
@@ -7673,7 +9167,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="8">
         <v>0.44230769230769201</v>
@@ -7682,7 +9176,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="8">
         <v>0.85714285714285698</v>
@@ -7691,7 +9185,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="8">
         <v>0.57142857142857095</v>
@@ -7700,7 +9194,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="8">
         <v>0.5</v>
@@ -7709,7 +9203,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="8">
         <v>0</v>
@@ -7718,7 +9212,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -7727,7 +9221,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="8">
         <v>0.66666666666666596</v>
@@ -7736,7 +9230,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="8">
         <v>0.4375</v>
@@ -7758,7 +9252,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
@@ -7776,7 +9270,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="8">
         <v>8.3333333333333301E-2</v>
@@ -7794,7 +9288,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="8">
         <v>0</v>
@@ -7803,28 +9297,28 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D37" s="7"/>
     </row>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4162847-C432-46CA-BCA1-79FB55A06D80}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCFD6475-03C1-4619-BDBD-AF50CADE289D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="256">
-  <si>
-    <t>Baseline</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="263">
   <si>
     <t>Precision</t>
   </si>
@@ -810,6 +807,30 @@
   </si>
   <si>
     <t>Instance Clustering scores usando parâmetros do modelos base</t>
+  </si>
+  <si>
+    <t>Tamanho do dataset</t>
+  </si>
+  <si>
+    <t>Dataset validação</t>
+  </si>
+  <si>
+    <t>Dataset teste</t>
+  </si>
+  <si>
+    <t>Dataset treino</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertimbau Large / Alpha 001_treino 005_pred 001_newInstances </t>
+  </si>
+  <si>
+    <t>Bertimbau Large / NP1</t>
+  </si>
+  <si>
+    <t>treinando</t>
   </si>
 </sst>
 </file>
@@ -972,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1024,6 +1045,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,33 +1349,33 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1366,15 +1390,15 @@
         <v>85725834</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1389,15 +1413,15 @@
         <v>365295169</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1406,15 +1430,15 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1423,7 +1447,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1435,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1450,797 +1474,803 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4">
         <v>0.82512222640090205</v>
@@ -2248,7 +2278,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="4">
         <v>0.732065398732065</v>
@@ -2256,7 +2286,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4">
         <v>0.77581329561527501</v>
@@ -2264,7 +2294,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="4">
         <v>0.95448018389604306</v>
@@ -2272,7 +2302,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="4">
         <v>0.84683443743062303</v>
@@ -2280,7 +2310,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="4">
         <v>0.89744088012007694</v>
@@ -2293,36 +2323,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -2333,10 +2372,13 @@
       <c r="D3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -2347,58 +2389,119 @@
       <c r="D4">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>0.82512222640090205</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4">
         <v>0.732065398732065</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4">
         <v>0.77581329561527501</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4">
         <v>0.95448018389604306</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4">
         <v>0.84683443743062303</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4">
         <v>0.89744088012007694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="6">
+        <v>12448</v>
+      </c>
+      <c r="C15" s="35">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3282</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4948</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2950</v>
       </c>
     </row>
   </sheetData>
@@ -2426,42 +2529,42 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>0.82705015605171295</v>
@@ -2473,27 +2576,27 @@
         <v>0.900964570925326</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="29">
         <v>0.82819948973480995</v>
@@ -2505,27 +2608,27 @@
         <v>0.90114728392209298</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4">
         <v>0.74535538329694395</v>
@@ -2537,27 +2640,27 @@
         <v>0.84908189034612103</v>
       </c>
       <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="29">
         <v>0.826074348328662</v>
@@ -2569,27 +2672,27 @@
         <v>0.90930738360060004</v>
       </c>
       <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="4">
         <v>0.77461056382495497</v>
@@ -2601,27 +2704,27 @@
         <v>0.87034897878816297</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" t="s">
         <v>228</v>
       </c>
-      <c r="L6" t="s">
-        <v>229</v>
-      </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -2641,102 +2744,102 @@
     </row>
     <row r="8" spans="1:15">
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="H11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="H12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2747,69 +2850,69 @@
     <row r="16" spans="1:15" ht="15" thickBot="1"/>
     <row r="17" spans="1:20">
       <c r="A17" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="14">
         <v>0.929595827900912</v>
@@ -2821,7 +2924,7 @@
         <v>0.96875</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="14">
         <v>0.94109861019192498</v>
@@ -2833,7 +2936,7 @@
         <v>0.966032608695652</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="14">
         <v>0.88917861799217701</v>
@@ -2845,7 +2948,7 @@
         <v>0.94459833795013803</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" s="14">
         <v>0.94257425742574197</v>
@@ -2857,7 +2960,7 @@
         <v>0.97010869565217395</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="14">
         <v>0.87995049504950495</v>
@@ -2871,7 +2974,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="14">
         <v>0.83760683760683696</v>
@@ -2883,7 +2986,7 @@
         <v>0.80991735537190002</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="14">
         <v>0.88560885608855999</v>
@@ -2895,7 +2998,7 @@
         <v>0.99173553719008201</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="14">
         <v>0.605504587155963</v>
@@ -2907,7 +3010,7 @@
         <v>0.56410256410256399</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="14">
         <v>0.87346938775510197</v>
@@ -2919,7 +3022,7 @@
         <v>0.88429752066115697</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" s="14">
         <v>0.84291187739463602</v>
@@ -2933,7 +3036,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="14">
         <v>0.91262135922330001</v>
@@ -2945,7 +3048,7 @@
         <v>0.92156862745098</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="14">
         <v>0.92957746478873204</v>
@@ -2957,7 +3060,7 @@
         <v>0.97058823529411697</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="14">
         <v>0.69148936170212705</v>
@@ -2969,7 +3072,7 @@
         <v>0.63725490196078405</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="14">
         <v>0.92523364485981296</v>
@@ -2981,7 +3084,7 @@
         <v>0.97058823529411697</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="14">
         <v>0.47482014388489202</v>
@@ -2995,7 +3098,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="14">
         <v>0.93333333333333302</v>
@@ -3007,7 +3110,7 @@
         <v>0.99473684210526303</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="14">
         <v>0.93908629441624303</v>
@@ -3019,7 +3122,7 @@
         <v>0.97368421052631504</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="14">
         <v>0.817155756207675</v>
@@ -3031,7 +3134,7 @@
         <v>0.96276595744680804</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21" s="14">
         <v>0.93532338308457696</v>
@@ -3043,7 +3146,7 @@
         <v>0.98947368421052595</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="14">
         <v>0.79914529914529897</v>
@@ -3057,7 +3160,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="14">
         <v>0.86338797814207602</v>
@@ -3069,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="14">
         <v>0.86813186813186805</v>
@@ -3081,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="14">
         <v>0.93333333333333302</v>
@@ -3093,7 +3196,7 @@
         <v>0.987179487179487</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="14">
         <v>0.87777777777777699</v>
@@ -3105,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" s="14">
         <v>0.91860465116279</v>
@@ -3119,7 +3222,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="14">
         <v>1</v>
@@ -3131,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="14">
         <v>1</v>
@@ -3143,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="14">
         <v>0.77777777777777701</v>
@@ -3155,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" s="14">
         <v>1</v>
@@ -3167,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="14">
         <v>1</v>
@@ -3181,7 +3284,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="14">
         <v>0.91935483870967705</v>
@@ -3193,7 +3296,7 @@
         <v>0.95</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="14">
         <v>0.92356687898089096</v>
@@ -3205,7 +3308,7 @@
         <v>0.96666666666666601</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="14">
         <v>0.83707025411061198</v>
@@ -3217,7 +3320,7 @@
         <v>0.94915254237288105</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24" s="14">
         <v>0.92532467532467499</v>
@@ -3229,7 +3332,7 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="14">
         <v>0.91200000000000003</v>
@@ -3243,7 +3346,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="14">
         <v>0.911392405063291</v>
@@ -3255,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="14">
         <v>0.78571428571428503</v>
@@ -3267,7 +3370,7 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="14">
         <v>0.72164948453608202</v>
@@ -3279,7 +3382,7 @@
         <v>0.97222222222222199</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="14">
         <v>0.886075949367088</v>
@@ -3291,7 +3394,7 @@
         <v>0.97222222222222199</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R25" s="14">
         <v>0.82352941176470495</v>
@@ -3305,7 +3408,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="14">
         <v>0.96</v>
@@ -3317,7 +3420,7 @@
         <v>0.99310344827586206</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="14">
         <v>0.97643097643097598</v>
@@ -3329,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="14">
         <v>0.81818181818181801</v>
@@ -3341,7 +3444,7 @@
         <v>0.95744680851063801</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N26" s="14">
         <v>0.95081967213114704</v>
@@ -3353,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R26" s="14">
         <v>0.94352159468438501</v>
@@ -3367,7 +3470,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="14">
         <v>0.63230240549828098</v>
@@ -3379,7 +3482,7 @@
         <v>0.86792452830188604</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="14">
         <v>0.69039145907473298</v>
@@ -3391,7 +3494,7 @@
         <v>0.91509433962264097</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="14">
         <v>0.68544600938967104</v>
@@ -3403,7 +3506,7 @@
         <v>0.83908045977011403</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="14">
         <v>0.678200692041522</v>
@@ -3415,7 +3518,7 @@
         <v>0.92452830188679203</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R27" s="14">
         <v>0.64625850340136004</v>
@@ -3429,7 +3532,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="14">
         <v>0.84088269454123099</v>
@@ -3441,7 +3544,7 @@
         <v>0.98369565217391297</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="14">
         <v>0.90749999999999997</v>
@@ -3453,7 +3556,7 @@
         <v>0.98641304347825998</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="14">
         <v>0.80225988700564899</v>
@@ -3465,7 +3568,7 @@
         <v>0.96730245231607603</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="14">
         <v>0.81243063263041004</v>
@@ -3477,7 +3580,7 @@
         <v>0.99456521739130399</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R28" s="14">
         <v>0.81298992161254102</v>
@@ -3491,7 +3594,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="14">
         <v>0.11764705882352899</v>
@@ -3503,7 +3606,7 @@
         <v>0.25</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="14">
         <v>0</v>
@@ -3515,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29" s="14">
         <v>0</v>
@@ -3527,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
@@ -3539,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R29" s="14">
         <v>0</v>
@@ -3553,7 +3656,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="14">
         <v>0.92976588628762502</v>
@@ -3565,7 +3668,7 @@
         <v>0.94880546075085304</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="14">
         <v>0.93089092422980801</v>
@@ -3577,7 +3680,7 @@
         <v>0.95392491467576701</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30" s="14">
         <v>0.85</v>
@@ -3589,7 +3692,7 @@
         <v>0.89316987740805598</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" s="14">
         <v>0.85868725868725804</v>
@@ -3601,7 +3704,7 @@
         <v>0.94880546075085304</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R30" s="14">
         <v>0.87836734693877505</v>
@@ -3615,7 +3718,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="14">
         <v>0.95737704918032696</v>
@@ -3627,7 +3730,7 @@
         <v>0.97333333333333305</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="14">
         <v>0.94666666666666599</v>
@@ -3639,7 +3742,7 @@
         <v>0.94666666666666599</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="14">
         <v>0.79407407407407404</v>
@@ -3651,7 +3754,7 @@
         <v>0.896321070234113</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" s="14">
         <v>0.93553719008264402</v>
@@ -3663,7 +3766,7 @@
         <v>0.94333333333333302</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31" s="14">
         <v>0.93679092382495899</v>
@@ -3677,7 +3780,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="14">
         <v>0.92700467457749003</v>
@@ -3689,7 +3792,7 @@
         <v>0.98773946360153198</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="14">
         <v>0.93759177679882499</v>
@@ -3701,7 +3804,7 @@
         <v>0.97854406130268201</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" s="14">
         <v>0.89662921348314595</v>
@@ -3713,7 +3816,7 @@
         <v>0.98316221765913703</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" s="14">
         <v>0.93279471171502004</v>
@@ -3725,7 +3828,7 @@
         <v>0.97318007662835204</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R32" s="14">
         <v>0.89919213206884396</v>
@@ -3739,7 +3842,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="14">
         <v>0.89719626168224298</v>
@@ -3751,7 +3854,7 @@
         <v>0.87272727272727202</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="14">
         <v>0.88</v>
@@ -3763,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" s="14">
         <v>0.60076045627376395</v>
@@ -3775,7 +3878,7 @@
         <v>0.67521367521367504</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" s="14">
         <v>0.86399999999999999</v>
@@ -3787,7 +3890,7 @@
         <v>0.98181818181818103</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="14">
         <v>0.77467411545623799</v>
@@ -3801,7 +3904,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="14">
         <v>0.92499999999999905</v>
@@ -3813,7 +3916,7 @@
         <v>0.98013245033112495</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="14">
         <v>0.92744479495268095</v>
@@ -3825,7 +3928,7 @@
         <v>0.97350993377483397</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="14">
         <v>0.81866666666666599</v>
@@ -3837,7 +3940,7 @@
         <v>0.92469879518072196</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34" s="14">
         <v>0.91874999999999996</v>
@@ -3849,7 +3952,7 @@
         <v>0.97350993377483397</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="14">
         <v>0.82621082621082598</v>
@@ -3863,7 +3966,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="14">
         <v>0.777464788732394</v>
@@ -3875,7 +3978,7 @@
         <v>0.95172413793103405</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="14">
         <v>0.83076923076923004</v>
@@ -3887,7 +3990,7 @@
         <v>0.93103448275862</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" s="14">
         <v>0.84020618556700999</v>
@@ -3899,7 +4002,7 @@
         <v>0.97216699801192796</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35" s="14">
         <v>0.86153846153846103</v>
@@ -3911,7 +4014,7 @@
         <v>0.96551724137931005</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="14">
         <v>0.59518599562363195</v>
@@ -3925,7 +4028,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="14">
         <v>1</v>
@@ -3937,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="14">
         <v>0.8</v>
@@ -3949,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="14">
         <v>0.94736842105263097</v>
@@ -3961,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36" s="14">
         <v>1</v>
@@ -3973,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R36" s="14">
         <v>1</v>
@@ -3987,7 +4090,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="14">
         <v>0.93333333333333302</v>
@@ -3999,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="14">
         <v>0.93333333333333302</v>
@@ -4011,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="14">
         <v>0.73684210526315697</v>
@@ -4023,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37" s="14">
         <v>1</v>
@@ -4035,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R37" s="14">
         <v>0.93333333333333302</v>
@@ -4049,7 +4152,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="14">
         <v>0.94551845342706498</v>
@@ -4061,7 +4164,7 @@
         <v>0.91186440677966096</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="14">
         <v>0.946643717728055</v>
@@ -4073,7 +4176,7 @@
         <v>0.93220338983050799</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38" s="14">
         <v>0.87081339712918604</v>
@@ -4085,7 +4188,7 @@
         <v>0.92479674796747902</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N38" s="14">
         <v>0.93079584775086499</v>
@@ -4097,7 +4200,7 @@
         <v>0.91186440677966096</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R38" s="14">
         <v>0.94014084507042195</v>
@@ -4111,7 +4214,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="14">
         <v>0.60606060606060597</v>
@@ -4123,7 +4226,7 @@
         <v>0.90909090909090895</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="14">
         <v>0.76923076923076905</v>
@@ -4135,7 +4238,7 @@
         <v>0.90909090909090895</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39" s="14">
         <v>0.79503105590062095</v>
@@ -4147,7 +4250,7 @@
         <v>0.984615384615384</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39" s="14">
         <v>0.55555555555555503</v>
@@ -4159,7 +4262,7 @@
         <v>0.90909090909090895</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R39" s="14">
         <v>0.58064516129032195</v>
@@ -4173,7 +4276,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="14">
         <v>0.91205211726384305</v>
@@ -4185,7 +4288,7 @@
         <v>0.952380952380952</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="14">
         <v>0.904458598726114</v>
@@ -4197,7 +4300,7 @@
         <v>0.96598639455782298</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40" s="14">
         <v>0.83333333333333304</v>
@@ -4209,7 +4312,7 @@
         <v>0.927152317880794</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N40" s="14">
         <v>0.79213483146067398</v>
@@ -4221,7 +4324,7 @@
         <v>0.95918367346938704</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R40" s="14">
         <v>0.86984126984126897</v>
@@ -4235,7 +4338,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="14">
         <v>0.61283643892339501</v>
@@ -4247,7 +4350,7 @@
         <v>0.95896328293736499</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="14">
         <v>0.64608433734939696</v>
@@ -4259,7 +4362,7 @@
         <v>0.92656587473002106</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" s="14">
         <v>0.54757630161579895</v>
@@ -4271,7 +4374,7 @@
         <v>0.94427244582043302</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N41" s="14">
         <v>0.623061362103843</v>
@@ -4283,7 +4386,7 @@
         <v>0.99784017278617698</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R41" s="14">
         <v>0.59484467944481101</v>
@@ -4297,7 +4400,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="14">
         <v>0.82446043165467597</v>
@@ -4309,7 +4412,7 @@
         <v>0.98453608247422597</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="14">
         <v>0.860394537177541</v>
@@ -4321,7 +4424,7 @@
         <v>0.97422680412371099</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42" s="14">
         <v>0.83042137718396702</v>
@@ -4333,7 +4436,7 @@
         <v>0.96535244922341701</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42" s="14">
         <v>0.75799086757990797</v>
@@ -4345,7 +4448,7 @@
         <v>0.99828178694157998</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R42" s="14">
         <v>0.78278688524590101</v>
@@ -4359,7 +4462,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14">
         <v>0</v>
@@ -4371,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="14">
         <v>0</v>
@@ -4383,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43" s="14">
         <v>0</v>
@@ -4395,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" s="14">
         <v>0.33333333333333298</v>
@@ -4407,7 +4510,7 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43" s="14">
         <v>0</v>
@@ -4421,7 +4524,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="14">
         <v>0.92538783550849502</v>
@@ -4433,7 +4536,7 @@
         <v>0.99260433174854701</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="14">
         <v>0.91856199559794505</v>
@@ -4445,7 +4548,7 @@
         <v>0.99207606973058604</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44" s="14">
         <v>0.85931920971197295</v>
@@ -4457,7 +4560,7 @@
         <v>0.91069626639757795</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N44" s="14">
         <v>0.86908589802480396</v>
@@ -4469,7 +4572,7 @@
         <v>0.99947173798203903</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R44" s="14">
         <v>0.89280609814197198</v>
@@ -4483,7 +4586,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="14">
         <v>0.96168582375478895</v>
@@ -4495,7 +4598,7 @@
         <v>0.98046875</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="14">
         <v>0.94637223974763396</v>
@@ -4507,7 +4610,7 @@
         <v>0.9765625</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45" s="14">
         <v>0.82951289398280803</v>
@@ -4519,7 +4622,7 @@
         <v>0.86417910447761104</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N45" s="14">
         <v>0.92639593908629403</v>
@@ -4531,7 +4634,7 @@
         <v>0.95052083333333304</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R45" s="14">
         <v>0.91722054380664597</v>
@@ -4545,7 +4648,7 @@
     </row>
     <row r="46" spans="1:20" ht="15" thickBot="1">
       <c r="A46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17">
         <v>0.99118608627094695</v>
@@ -4557,7 +4660,7 @@
         <v>0.98390526906783204</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="17">
         <v>0.992235586183281</v>
@@ -4569,7 +4672,7 @@
         <v>0.98599792435816702</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="17">
         <v>0.98570453698036398</v>
@@ -4581,7 +4684,7 @@
         <v>0.976471736115466</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N46" s="17">
         <v>0.98926477221470399</v>
@@ -4593,7 +4696,7 @@
         <v>0.97949027680895495</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R46" s="17">
         <v>0.98793429652562703</v>
@@ -4607,12 +4710,12 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B55" s="19">
         <v>0.73604745280967698</v>
@@ -4626,7 +4729,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="19">
         <v>0.54324629738512298</v>
@@ -4640,7 +4743,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="4">
         <v>0.68891592210698205</v>
@@ -4654,7 +4757,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="4">
         <v>0.73121981211281895</v>
@@ -4668,7 +4771,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" s="4">
         <v>0.76980257922999895</v>
@@ -4682,7 +4785,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60" s="4">
         <v>0.72121447781373604</v>
@@ -4708,7 +4811,7 @@
   <dimension ref="A1:AW62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4724,54 +4827,54 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4">
         <v>0.86260367832672102</v>
@@ -4792,33 +4895,33 @@
         <v>0.89283339969549302</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>0.82512222640090205</v>
@@ -4839,36 +4942,36 @@
         <v>0.89744088012007694</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="4">
         <v>0.84412733260153605</v>
@@ -4889,36 +4992,36 @@
         <v>0.90675533024486299</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="29">
         <v>0.90725369902562203</v>
@@ -4939,36 +5042,36 @@
         <v>0.931679637064175</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="4">
         <v>0.80420650095602297</v>
@@ -4989,36 +5092,36 @@
         <v>0.88386783148039205</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:49">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4">
         <v>0.78004934790271396</v>
@@ -5039,7 +5142,7 @@
         <v>0.91535183333800896</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1">
         <v>0.05</v>
@@ -5063,12 +5166,12 @@
         <v>0.01</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4">
         <v>0.930221366698748</v>
@@ -5089,36 +5192,36 @@
         <v>0.80350021239706604</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="29">
         <v>0.85624538063562405</v>
@@ -5139,7 +5242,7 @@
         <v>0.91284388437653696</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>64</v>
@@ -5172,31 +5275,31 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -5208,31 +5311,31 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -5264,156 +5367,156 @@
     </row>
     <row r="15" spans="1:49">
       <c r="A15" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="E15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="G15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="M15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="S15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="N15" s="12" t="s">
+      <c r="U15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="11" t="s">
+      <c r="AG15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U15" s="12" t="s">
+      <c r="AI15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ15" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="X15" s="11" t="s">
+      <c r="AO15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP15" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ15" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AU15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV15" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="AA15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ15" s="30" t="s">
+      <c r="AW15" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="AK15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN15" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP15" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ15" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="AR15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW15" s="32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:49">
       <c r="A16" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="21">
         <v>0.98190045248868696</v>
@@ -5434,7 +5537,7 @@
         <v>0.91587563230470503</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="21">
         <v>0.93178519593613895</v>
@@ -5455,7 +5558,7 @@
         <v>0.92673582743389704</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P16" s="21">
         <v>0.96960926193921804</v>
@@ -5476,7 +5579,7 @@
         <v>0.93481741479196701</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W16" s="21">
         <v>0.99388379204892896</v>
@@ -5497,7 +5600,7 @@
         <v>0.91069092056863998</v>
       </c>
       <c r="AC16" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD16" s="21">
         <v>0.90713324360699799</v>
@@ -5518,7 +5621,7 @@
         <v>0.96203995194603398</v>
       </c>
       <c r="AJ16" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK16" s="21">
         <v>1</v>
@@ -5539,7 +5642,7 @@
         <v>0.88028673835125404</v>
       </c>
       <c r="AQ16" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AR16" s="21">
         <v>0.97878787878787799</v>
@@ -5562,7 +5665,7 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="21">
         <v>0.95294117647058796</v>
@@ -5583,7 +5686,7 @@
         <v>0.82928094885100001</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" s="21">
         <v>0.92771084337349397</v>
@@ -5604,7 +5707,7 @@
         <v>0.81564341756636705</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P17" s="21">
         <v>0.94565217391304301</v>
@@ -5625,7 +5728,7 @@
         <v>0.863481013429786</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W17" s="21">
         <v>0.952380952380952</v>
@@ -5646,7 +5749,7 @@
         <v>0.82351385992908399</v>
       </c>
       <c r="AC17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD17" s="21">
         <v>0.95402298850574696</v>
@@ -5667,7 +5770,7 @@
         <v>0.84064715323108796</v>
       </c>
       <c r="AJ17" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK17" s="21">
         <v>0.98701298701298701</v>
@@ -5688,7 +5791,7 @@
         <v>0.78465983873163803</v>
       </c>
       <c r="AQ17" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AR17" s="21">
         <v>0.952380952380952</v>
@@ -5711,7 +5814,7 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="21">
         <v>0.98039215686274495</v>
@@ -5732,7 +5835,7 @@
         <v>0.99403983137083796</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I18" s="21">
         <v>0.99019607843137203</v>
@@ -5753,7 +5856,7 @@
         <v>0.99701991568541903</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P18" s="21">
         <v>1</v>
@@ -5774,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W18" s="21">
         <v>0.98039215686274495</v>
@@ -5795,7 +5898,7 @@
         <v>0.99403983137083796</v>
       </c>
       <c r="AC18" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD18" s="21">
         <v>0.99019607843137203</v>
@@ -5816,7 +5919,7 @@
         <v>0.99701991568541903</v>
       </c>
       <c r="AJ18" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AK18" s="21">
         <v>0.98850574712643602</v>
@@ -5837,7 +5940,7 @@
         <v>0.91741832169219795</v>
       </c>
       <c r="AQ18" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AR18" s="21">
         <v>0.96078431372549</v>
@@ -5860,7 +5963,7 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="21">
         <v>0.24338624338624301</v>
@@ -5881,7 +5984,7 @@
         <v>0.83629470732936395</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I19" s="21">
         <v>0.326315789473684</v>
@@ -5902,7 +6005,7 @@
         <v>0.85595029615121698</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P19" s="21">
         <v>0.93121693121693105</v>
@@ -5923,7 +6026,7 @@
         <v>0.98034315059349797</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W19" s="21">
         <v>0.25925925925925902</v>
@@ -5944,7 +6047,7 @@
         <v>0.83961890217392099</v>
       </c>
       <c r="AC19" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD19" s="21">
         <v>0.34736842105263099</v>
@@ -5965,7 +6068,7 @@
         <v>0.86037083038895301</v>
       </c>
       <c r="AJ19" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK19" s="21">
         <v>0.39247311827956899</v>
@@ -5986,7 +6089,7 @@
         <v>0.85997541741517403</v>
       </c>
       <c r="AQ19" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AR19" s="21">
         <v>0.39153439153439101</v>
@@ -6009,7 +6112,7 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="21">
         <v>0.810126582278481</v>
@@ -6030,7 +6133,7 @@
         <v>0.93237518030051103</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="21">
         <v>1</v>
@@ -6051,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P20" s="21">
         <v>1</v>
@@ -6072,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W20" s="21">
         <v>0.30379746835443</v>
@@ -6093,7 +6196,7 @@
         <v>0.75204232776854196</v>
       </c>
       <c r="AC20" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD20" s="21">
         <v>0.329113924050632</v>
@@ -6114,7 +6217,7 @@
         <v>0.76105897039514103</v>
       </c>
       <c r="AJ20" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK20" s="21">
         <v>0.987341772151898</v>
@@ -6135,7 +6238,7 @@
         <v>0.99549167868669997</v>
       </c>
       <c r="AQ20" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AR20" s="21">
         <v>0.987341772151898</v>
@@ -6158,7 +6261,7 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="21">
         <v>0</v>
@@ -6179,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="21">
         <v>0</v>
@@ -6200,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P21" s="21">
         <v>0</v>
@@ -6221,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W21" s="21">
         <v>0</v>
@@ -6242,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD21" s="21">
         <v>0</v>
@@ -6263,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK21" s="21">
         <v>0</v>
@@ -6284,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR21" s="21">
         <v>0</v>
@@ -6307,7 +6410,7 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="21">
         <v>0.96949152542372796</v>
@@ -6328,7 +6431,7 @@
         <v>0.986399272551021</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I22" s="21">
         <v>0.97</v>
@@ -6349,7 +6452,7 @@
         <v>0.994845945279763</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P22" s="21">
         <v>1</v>
@@ -6370,7 +6473,7 @@
         <v>0.98819561551433399</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W22" s="21">
         <v>0.96271186440677903</v>
@@ -6391,7 +6494,7 @@
         <v>0.98524430230559001</v>
       </c>
       <c r="AC22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD22" s="21">
         <v>0.956666666666666</v>
@@ -6412,7 +6515,7 @@
         <v>0.99255525429299096</v>
       </c>
       <c r="AJ22" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK22" s="21">
         <v>1</v>
@@ -6433,7 +6536,7 @@
         <v>0.97260273972602695</v>
       </c>
       <c r="AQ22" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AR22" s="21">
         <v>0.96949152542372796</v>
@@ -6456,7 +6559,7 @@
     </row>
     <row r="23" spans="1:49">
       <c r="A23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="21">
         <v>0</v>
@@ -6477,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="21">
         <v>0</v>
@@ -6498,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P23" s="21">
         <v>0</v>
@@ -6519,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W23" s="21">
         <v>0</v>
@@ -6540,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD23" s="21">
         <v>0</v>
@@ -6561,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK23" s="21">
         <v>0</v>
@@ -6582,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AR23" s="21">
         <v>0</v>
@@ -6605,7 +6708,7 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="21">
         <v>1</v>
@@ -6626,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21">
         <v>1</v>
@@ -6647,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P24" s="21">
         <v>1</v>
@@ -6668,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W24" s="21">
         <v>0.986206896551724</v>
@@ -6689,7 +6792,7 @@
         <v>0.99722865577876896</v>
       </c>
       <c r="AC24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD24" s="21">
         <v>1</v>
@@ -6710,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK24" s="21">
         <v>1</v>
@@ -6731,7 +6834,7 @@
         <v>0.99305555555555503</v>
       </c>
       <c r="AQ24" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AR24" s="21">
         <v>0.986206896551724</v>
@@ -6754,7 +6857,7 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -6775,7 +6878,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I25" s="21">
         <v>0.9</v>
@@ -6796,7 +6899,7 @@
         <v>0.544415139778193</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P25" s="21">
         <v>0.91304347826086896</v>
@@ -6817,7 +6920,7 @@
         <v>0.60187243689221204</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W25" s="21">
         <v>1</v>
@@ -6838,7 +6941,7 @@
         <v>0.56756756756756699</v>
       </c>
       <c r="AC25" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD25" s="21">
         <v>0.89361702127659504</v>
@@ -6859,7 +6962,7 @@
         <v>0.61016838568313903</v>
       </c>
       <c r="AJ25" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK25" s="21">
         <v>1</v>
@@ -6880,7 +6983,7 @@
         <v>0.54794520547945202</v>
       </c>
       <c r="AQ25" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR25" s="21">
         <v>0.98795180722891496</v>
@@ -6903,7 +7006,7 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
@@ -6924,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I26" s="21">
         <v>0</v>
@@ -6945,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P26" s="21">
         <v>0</v>
@@ -6966,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W26" s="21">
         <v>0</v>
@@ -6987,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD26" s="21">
         <v>0</v>
@@ -7008,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK26" s="21">
         <v>0</v>
@@ -7029,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR26" s="21">
         <v>0</v>
@@ -7052,7 +7155,7 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="21">
         <v>0.95614035087719296</v>
@@ -7073,7 +7176,7 @@
         <v>0.974833189732903</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27" s="21">
         <v>0.95977011494252795</v>
@@ -7094,7 +7197,7 @@
         <v>0.98172134556892898</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P27" s="21">
         <v>0.93593314763231195</v>
@@ -7115,7 +7218,7 @@
         <v>0.96697149004841298</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W27" s="21">
         <v>0.88825214899713401</v>
@@ -7136,7 +7239,7 @@
         <v>0.96457794624368998</v>
       </c>
       <c r="AC27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD27" s="21">
         <v>0.88826815642458101</v>
@@ -7157,7 +7260,7 @@
         <v>0.97482836428823705</v>
       </c>
       <c r="AJ27" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK27" s="21">
         <v>0.99076923076922996</v>
@@ -7178,7 +7281,7 @@
         <v>0.95343129704363105</v>
       </c>
       <c r="AQ27" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR27" s="21">
         <v>0.94571428571428495</v>
@@ -7201,7 +7304,7 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
@@ -7222,7 +7325,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I28" s="21">
         <v>0</v>
@@ -7243,7 +7346,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P28" s="21">
         <v>0</v>
@@ -7264,7 +7367,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="V28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W28" s="21">
         <v>0</v>
@@ -7285,7 +7388,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="AC28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD28" s="21">
         <v>0</v>
@@ -7306,7 +7409,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="AJ28" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK28" s="21">
         <v>0</v>
@@ -7327,7 +7430,7 @@
         <v>0.73161340007701103</v>
       </c>
       <c r="AQ28" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AR28" s="21">
         <v>0</v>
@@ -7350,7 +7453,7 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="21">
         <v>0.60791366906474797</v>
@@ -7371,7 +7474,7 @@
         <v>0.90359423531880201</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29" s="21">
         <v>0.75315315315315301</v>
@@ -7392,7 +7495,7 @@
         <v>0.91262633673668303</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P29" s="21">
         <v>0.74406779661016897</v>
@@ -7413,7 +7516,7 @@
         <v>0.949849383862158</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W29" s="21">
         <v>0.59541984732824405</v>
@@ -7434,7 +7537,7 @@
         <v>0.876946853810883</v>
       </c>
       <c r="AC29" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD29" s="21">
         <v>0.56280587275693295</v>
@@ -7455,7 +7558,7 @@
         <v>0.92344188652274695</v>
       </c>
       <c r="AJ29" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK29" s="21">
         <v>0.92207792207792205</v>
@@ -7476,7 +7579,7 @@
         <v>0.40440913000104101</v>
       </c>
       <c r="AQ29" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AR29" s="21">
         <v>0.74261201143946598</v>
@@ -7499,7 +7602,7 @@
     </row>
     <row r="30" spans="1:49" ht="15" thickBot="1">
       <c r="A30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="24">
         <v>1</v>
@@ -7520,7 +7623,7 @@
         <v>0.686746987951807</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="24">
         <v>0.78205128205128205</v>
@@ -7541,7 +7644,7 @@
         <v>0.71432466906710701</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P30" s="24">
         <v>1</v>
@@ -7562,7 +7665,7 @@
         <v>0.79889807162534399</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W30" s="24">
         <v>1</v>
@@ -7583,7 +7686,7 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="AC30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD30" s="24">
         <v>1</v>
@@ -7604,7 +7707,7 @@
         <v>0.73255813953488302</v>
       </c>
       <c r="AJ30" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK30" s="24">
         <v>1</v>
@@ -7625,7 +7728,7 @@
         <v>0.51194539249146698</v>
       </c>
       <c r="AQ30" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR30" s="24">
         <v>1</v>
@@ -7881,7 +7984,7 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7901,16 +8004,16 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -7918,7 +8021,7 @@
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B41" s="4">
         <v>0.17102137767220901</v>
@@ -7935,7 +8038,7 @@
     </row>
     <row r="42" spans="1:49">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7949,7 +8052,7 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7963,7 +8066,7 @@
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="4">
         <v>9.1463414634146298E-2</v>
@@ -7977,12 +8080,12 @@
     </row>
     <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" s="4">
         <v>0.141201264488935</v>
@@ -7996,7 +8099,7 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="4">
         <v>0.60882140274764995</v>
@@ -8010,7 +8113,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4">
         <v>0.77337973031752905</v>
@@ -8024,7 +8127,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" s="4">
         <v>0.770798668885191</v>
@@ -8038,7 +8141,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" s="4">
         <v>0.82197549770290901</v>
@@ -8052,7 +8155,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="4">
         <v>0.80749063670411902</v>
@@ -8066,7 +8169,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="4">
         <v>0.82348484848484804</v>
@@ -8080,7 +8183,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4">
         <v>0.816697588126159</v>
@@ -8094,7 +8197,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" s="4">
         <v>0.82298252138341299</v>
@@ -8108,7 +8211,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" s="4">
         <v>0.87403881362138403</v>
@@ -8122,7 +8225,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57" s="4">
         <v>0.86902133922001401</v>
@@ -8136,7 +8239,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="4">
         <v>0.81154127100073004</v>
@@ -8150,12 +8253,12 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4">
         <v>0.74749163879598601</v>
@@ -8169,7 +8272,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="4">
         <v>0.79839326702371805</v>
@@ -8183,7 +8286,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4">
         <v>0.79063767047548805</v>
@@ -8209,7 +8312,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8222,36 +8325,36 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B2" s="29">
         <v>0.85123632135596305</v>
@@ -8263,24 +8366,24 @@
         <v>0.81541379252177604</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="4">
         <v>0.33791425011290999</v>
@@ -8292,24 +8395,24 @@
         <v>0.33938166344779902</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4">
         <v>0.71020131376752604</v>
@@ -8321,24 +8424,24 @@
         <v>0.69536814041348904</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="4">
         <v>0.80982336333446203</v>
@@ -8357,24 +8460,24 @@
     </row>
     <row r="6" spans="1:16">
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" t="s">
         <v>241</v>
       </c>
-      <c r="J6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K6" t="s">
-        <v>242</v>
-      </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -8391,92 +8494,92 @@
     </row>
     <row r="8" spans="1:16">
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1"/>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="K11" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="O11" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="14">
         <v>0.99459459459459398</v>
@@ -8488,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4">
         <v>0.56842105263157905</v>
@@ -8500,7 +8603,7 @@
         <v>0.58695652173913004</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="4">
         <v>0.92063492063492003</v>
@@ -8512,7 +8615,7 @@
         <v>0.94565217391304301</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="14">
         <v>0.978494623655913</v>
@@ -8526,7 +8629,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="14">
         <v>0.57142857142857095</v>
@@ -8538,7 +8641,7 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="4">
         <v>0.18181818181818099</v>
@@ -8550,7 +8653,7 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" s="4">
         <v>0.46153846153846101</v>
@@ -8562,7 +8665,7 @@
         <v>0.3</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N13" s="14">
         <v>0.53333333333333299</v>
@@ -8576,7 +8679,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="14">
         <v>0.874999999999999</v>
@@ -8588,7 +8691,7 @@
         <v>0.82352941176470495</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -8600,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="4">
         <v>0.21052631578947301</v>
@@ -8612,7 +8715,7 @@
         <v>0.11764705882352899</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="14">
         <v>0.69230769230769196</v>
@@ -8626,7 +8729,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="14">
         <v>0.89655172413793105</v>
@@ -8638,7 +8741,7 @@
         <v>0.823943661971831</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4">
         <v>0.55749128919860602</v>
@@ -8650,7 +8753,7 @@
         <v>0.56338028169013998</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="4">
         <v>0.91549295774647799</v>
@@ -8662,7 +8765,7 @@
         <v>0.91549295774647799</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="14">
         <v>0.90036900369003603</v>
@@ -8676,7 +8779,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="14">
         <v>0.93440000000000001</v>
@@ -8688,7 +8791,7 @@
         <v>0.97658862876254104</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4">
         <v>0.71975497702909597</v>
@@ -8700,7 +8803,7 @@
         <v>0.785953177257525</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="4">
         <v>0.91210613598673296</v>
@@ -8712,7 +8815,7 @@
         <v>0.91973244147157196</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="14">
         <v>0.92776886035313</v>
@@ -8726,7 +8829,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="17">
         <v>0.835443037974683</v>
@@ -8738,7 +8841,7 @@
         <v>0.86842105263157898</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="17">
         <v>0</v>
@@ -8750,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J17" s="17">
         <v>0.84090909090909005</v>
@@ -8762,7 +8865,7 @@
         <v>0.97368421052631504</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" s="17">
         <v>0.82666666666666599</v>
@@ -8782,7 +8885,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8795,18 +8898,18 @@
     </row>
     <row r="21" spans="1:18">
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="4">
         <v>0.53210988756182398</v>
@@ -8821,7 +8924,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="4">
         <v>0.71584936762955298</v>
@@ -8835,7 +8938,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="4">
         <v>0.788566279996052</v>
@@ -8849,7 +8952,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="4">
         <v>0.78647013871648097</v>
@@ -8863,7 +8966,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="4">
         <v>0.85123632135596305</v>
@@ -8877,7 +8980,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="4">
         <v>0.80197730201052198</v>
@@ -8891,7 +8994,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="4">
         <v>0.79948131930390598</v>
@@ -8912,18 +9015,18 @@
     <row r="30" spans="1:18">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="4">
         <v>0.46255109825582602</v>
@@ -8937,7 +9040,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="4">
         <v>0.39428168932264401</v>
@@ -8951,7 +9054,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="4">
         <v>0.27675248945247699</v>
@@ -8965,7 +9068,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="4">
         <v>0.302648883949245</v>
@@ -9022,7 +9125,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9032,55 +9135,70 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9088,7 +9206,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="8">
         <v>0.26408010012515598</v>
@@ -9100,7 +9218,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="8">
         <v>0.65</v>
@@ -9109,7 +9227,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="8">
         <v>0.27027027027027001</v>
@@ -9118,7 +9236,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="8">
         <v>7.4074074074074001E-2</v>
@@ -9127,7 +9245,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -9136,7 +9254,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -9145,7 +9263,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="8">
         <v>0.27586206896551702</v>
@@ -9154,7 +9272,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="8">
         <v>0.4375</v>
@@ -9167,7 +9285,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="8">
         <v>0.44230769230769201</v>
@@ -9176,7 +9294,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="8">
         <v>0.85714285714285698</v>
@@ -9185,7 +9303,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="8">
         <v>0.57142857142857095</v>
@@ -9194,7 +9312,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="8">
         <v>0.5</v>
@@ -9203,7 +9321,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="8">
         <v>0</v>
@@ -9212,7 +9330,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -9221,7 +9339,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="8">
         <v>0.66666666666666596</v>
@@ -9230,7 +9348,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="8">
         <v>0.4375</v>
@@ -9243,7 +9361,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="8">
         <v>0.14117647058823499</v>
@@ -9252,7 +9370,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
@@ -9261,7 +9379,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="8">
         <v>8.3333333333333301E-2</v>
@@ -9270,7 +9388,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="8">
         <v>8.3333333333333301E-2</v>
@@ -9279,7 +9397,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="8">
         <v>0.103174603174603</v>
@@ -9288,7 +9406,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="8">
         <v>0</v>
@@ -9297,28 +9415,28 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D37" s="7"/>
     </row>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCFD6475-03C1-4619-BDBD-AF50CADE289D}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EB2761-ECCC-4A6A-8498-E66CFB38D42C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="264">
   <si>
     <t>Precision</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>treinando</t>
+  </si>
+  <si>
+    <t>100/100 or 200/200</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1050,6 +1059,8 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,6 +1077,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,6 +2290,10 @@
       <c r="B29" s="4">
         <v>0.82512222640090205</v>
       </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4">
+        <v>0.76091913699350999</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
@@ -2283,6 +2302,10 @@
       <c r="B30" s="4">
         <v>0.732065398732065</v>
       </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4">
+        <v>0.80214497041420096</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
@@ -2290,6 +2313,10 @@
       </c>
       <c r="B31" s="4">
         <v>0.77581329561527501</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>0.72372372372372296</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2299,21 +2326,33 @@
       <c r="B32" s="4">
         <v>0.95448018389604306</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
+        <v>0.90127946396784298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="4">
         <v>0.84683443743062303</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="F33" s="3"/>
+      <c r="G33" s="4">
+        <v>0.95010987871314201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="4">
         <v>0.89744088012007694</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
+        <v>0.85722292694038604</v>
       </c>
     </row>
   </sheetData>
@@ -2325,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2334,7 +2373,7 @@
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2369,7 +2408,7 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="36">
         <v>75</v>
       </c>
       <c r="I3" t="s">
@@ -2386,7 +2425,7 @@
       <c r="C4">
         <v>75</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="36">
         <v>25</v>
       </c>
       <c r="I4" t="s">
@@ -2413,6 +2452,12 @@
       <c r="B7" s="4">
         <v>0.82512222640090205</v>
       </c>
+      <c r="C7">
+        <v>0.667931688804554</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.85076463350325104</v>
+      </c>
       <c r="I7" t="s">
         <v>229</v>
       </c>
@@ -2424,6 +2469,12 @@
       <c r="B8" s="4">
         <v>0.732065398732065</v>
       </c>
+      <c r="C8">
+        <v>0.77430708315002195</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.89895988112927105</v>
+      </c>
       <c r="I8">
         <v>8</v>
       </c>
@@ -2434,6 +2485,12 @@
       </c>
       <c r="B9" s="4">
         <v>0.77581329561527501</v>
+      </c>
+      <c r="C9">
+        <v>0.58725392058725301</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.80747414080747404</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -2443,8 +2500,14 @@
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="37">
         <v>0.95448018389604306</v>
+      </c>
+      <c r="C10">
+        <v>0.81410373588726404</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.91570874100575095</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -2457,13 +2520,25 @@
       <c r="B11" s="4">
         <v>0.84683443743062303</v>
       </c>
+      <c r="C11">
+        <v>0.94375862035325198</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.96758302889704995</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="37">
         <v>0.89744088012007694</v>
+      </c>
+      <c r="C12">
+        <v>0.71577021823922005</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.86911361821516797</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2481,6 +2556,9 @@
       <c r="C15" s="35">
         <v>7283</v>
       </c>
+      <c r="D15" s="35">
+        <v>16898</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -2492,8 +2570,11 @@
       <c r="C16" s="35">
         <v>2002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="35">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -2502,6 +2583,9 @@
       </c>
       <c r="C17" s="35">
         <v>2950</v>
+      </c>
+      <c r="D17" s="35">
+        <v>6725</v>
       </c>
     </row>
   </sheetData>
@@ -9125,7 +9209,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9167,6 +9251,9 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EB2761-ECCC-4A6A-8498-E66CFB38D42C}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EF5ADC-826C-4408-A846-42615F150836}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="265">
   <si>
     <t>Precision</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>100/100 or 200/200</t>
+  </si>
+  <si>
+    <t>no_onto_projection / depth_2</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2260,6 +2263,9 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
         <v>262</v>
       </c>
       <c r="G26" t="s">
@@ -2288,35 +2294,59 @@
         <v>2</v>
       </c>
       <c r="B29" s="4">
-        <v>0.82512222640090205</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>0.77581329561527501</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G29" s="4">
         <v>0.76091913699350999</v>
       </c>
+      <c r="H29" s="37">
+        <v>0.81689153670930403</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0.80062959076600204</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4">
-        <v>0.732065398732065</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>0.82512222640090205</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G30" s="4">
         <v>0.80214497041420096</v>
       </c>
+      <c r="H30" s="37">
+        <v>0.86014760147601399</v>
+      </c>
+      <c r="K30" s="37">
+        <v>0.84123484013230398</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>0.77581329561527501</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>0.732065398732065</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G31" s="4">
         <v>0.72372372372372296</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="K31" s="37">
+        <v>0.76376376376376298</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2324,35 +2354,59 @@
         <v>141</v>
       </c>
       <c r="B32" s="4">
-        <v>0.95448018389604306</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>0.89744088012007694</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G32" s="4">
         <v>0.90127946396784298</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="37">
+        <v>0.91178161225944299</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0.908143780357348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="4">
-        <v>0.84683443743062303</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>0.95448018389604306</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G33" s="4">
         <v>0.95010987871314201</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="37">
+        <v>0.960062299107868</v>
+      </c>
+      <c r="K33" s="37">
+        <v>0.95420178906345399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="4">
-        <v>0.89744088012007694</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>0.84683443743062303</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="G34" s="4">
         <v>0.85722292694038604</v>
+      </c>
+      <c r="H34" s="37">
+        <v>0.86812440126203605</v>
+      </c>
+      <c r="K34" s="37">
+        <v>0.86632735003058303</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80464D9-BE08-48C0-9C57-068FB602ABD8}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -4895,7 +4949,7 @@
   <dimension ref="A1:AW62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9209,7 +9263,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9243,6 +9297,9 @@
       <c r="B4" t="s">
         <v>127</v>
       </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EF5ADC-826C-4408-A846-42615F150836}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7B3F35-7BE8-440F-8C49-A5A9F7F4EF0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2296,6 +2296,9 @@
       <c r="B29" s="4">
         <v>0.77581329561527501</v>
       </c>
+      <c r="C29" s="4">
+        <v>0.86597209959385402</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2316,6 +2319,9 @@
       <c r="B30" s="4">
         <v>0.82512222640090205</v>
       </c>
+      <c r="C30" s="4">
+        <v>0.91972993248311996</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2335,6 +2341,9 @@
       </c>
       <c r="B31" s="4">
         <v>0.732065398732065</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.81815148481815103</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1</v>
@@ -2356,6 +2365,9 @@
       <c r="B32" s="4">
         <v>0.89744088012007694</v>
       </c>
+      <c r="C32" s="4">
+        <v>0.92002505561524295</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>141</v>
       </c>
@@ -2376,6 +2388,9 @@
       <c r="B33" s="4">
         <v>0.95448018389604306</v>
       </c>
+      <c r="C33" s="4">
+        <v>0.977138388962701</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>142</v>
       </c>
@@ -2395,6 +2410,9 @@
       </c>
       <c r="B34" s="4">
         <v>0.84683443743062303</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.86921953452604594</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>143</v>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7B3F35-7BE8-440F-8C49-A5A9F7F4EF0F}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1AF8F2D-35B0-402A-8F58-A2C7EB35D953}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Pipeline" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="279">
   <si>
     <t>Precision</t>
   </si>
@@ -821,9 +822,6 @@
     <t>Dataset treino</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bertimbau Large / Alpha 001_treino 005_pred 001_newInstances </t>
   </si>
   <si>
@@ -833,10 +831,55 @@
     <t>treinando</t>
   </si>
   <si>
-    <t>100/100 or 200/200</t>
-  </si>
-  <si>
-    <t>no_onto_projection / depth_2</t>
+    <t>Petrovec-OeG_NP2</t>
+  </si>
+  <si>
+    <t>Spearman Correlation</t>
+  </si>
+  <si>
+    <t>Number of vectors</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>PetroOntoVec (V2)</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Base_PetroOntoVecV2</t>
+  </si>
+  <si>
+    <t>200/200</t>
+  </si>
+  <si>
+    <t>4 com patience= 3 (melhor val_loss na epoch =  ?)</t>
+  </si>
+  <si>
+    <t>New_instance</t>
+  </si>
+  <si>
+    <t>Alpha:0.05 / min_samples: 5</t>
+  </si>
+  <si>
+    <t>Alpha:0.01 / min_samples: 5</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>30 com patience= 5 (melhor val_loss na epoch = 12)</t>
   </si>
 </sst>
 </file>
@@ -850,7 +893,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +927,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1005,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1064,6 +1140,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,7 +1460,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1475,54 +1583,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" customWidth="1"/>
-    <col min="8" max="11" width="27.33203125" customWidth="1"/>
+    <col min="2" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="7" width="31.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:16">
       <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="M1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1553,13 +1680,16 @@
       <c r="K3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -1582,11 +1712,14 @@
       <c r="J4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:16">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1617,8 +1750,11 @@
       <c r="K5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -1649,8 +1785,11 @@
       <c r="K6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
         <v>76</v>
       </c>
@@ -1681,8 +1820,11 @@
       <c r="K7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1713,8 +1855,11 @@
       <c r="K8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1745,8 +1890,11 @@
       <c r="K9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -1777,8 +1925,11 @@
       <c r="K10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -1809,8 +1960,11 @@
       <c r="K11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" t="s">
         <v>81</v>
       </c>
@@ -1826,11 +1980,11 @@
       <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
       </c>
       <c r="I12" t="s">
         <v>81</v>
@@ -1841,13 +1995,16 @@
       <c r="K12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
-        <v>82</v>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
@@ -1861,20 +2018,23 @@
       <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:16">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -1905,8 +2065,11 @@
       <c r="K14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -1937,8 +2100,11 @@
       <c r="K15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -1969,8 +2135,11 @@
       <c r="K16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2001,25 +2170,28 @@
       <c r="K17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -2033,8 +2205,11 @@
       <c r="K18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2065,8 +2240,11 @@
       <c r="K19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2097,8 +2275,11 @@
       <c r="K20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2129,8 +2310,11 @@
       <c r="K21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2161,8 +2345,11 @@
       <c r="K22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2193,8 +2380,11 @@
       <c r="K23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -2225,8 +2415,11 @@
       <c r="K24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2257,8 +2450,11 @@
       <c r="K25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>123</v>
       </c>
@@ -2266,30 +2462,36 @@
         <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" t="s">
         <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>261</v>
       </c>
       <c r="H26" t="s">
         <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
       </c>
       <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2297,45 +2499,63 @@
         <v>0.77581329561527501</v>
       </c>
       <c r="C29" s="4">
+        <v>0.86701940035273295</v>
+      </c>
+      <c r="D29" s="4">
         <v>0.86597209959385402</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>2</v>
+      <c r="E29" s="4">
+        <v>0.801559177888022</v>
+      </c>
+      <c r="F29" s="41">
+        <v>0.86936699982465304</v>
       </c>
       <c r="G29" s="4">
+        <v>0.78287135749822301</v>
+      </c>
+      <c r="H29" s="4">
         <v>0.76091913699350999</v>
       </c>
-      <c r="H29" s="37">
+      <c r="I29" s="37">
         <v>0.81689153670930403</v>
       </c>
-      <c r="K29" s="37">
+      <c r="L29" s="37">
         <v>0.80062959076600204</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4">
         <v>0.82512222640090205</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="37">
+        <v>0.91956603067714104</v>
+      </c>
+      <c r="D30" s="41">
         <v>0.91972993248311996</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>0</v>
+      <c r="E30" s="4">
+        <v>0.85455232338496401</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.91611234294161104</v>
       </c>
       <c r="G30" s="4">
+        <v>0.83732421132649104</v>
+      </c>
+      <c r="H30" s="4">
         <v>0.80214497041420096</v>
       </c>
-      <c r="H30" s="37">
+      <c r="I30" s="37">
         <v>0.86014760147601399</v>
       </c>
-      <c r="K30" s="37">
+      <c r="L30" s="37">
         <v>0.84123484013230398</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -2343,22 +2563,31 @@
         <v>0.732065398732065</v>
       </c>
       <c r="C31" s="4">
+        <v>0.82015348682015299</v>
+      </c>
+      <c r="D31" s="4">
         <v>0.81815148481815103</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
+      <c r="E31" s="4">
+        <v>0.75475475475475395</v>
+      </c>
+      <c r="F31" s="41">
+        <v>0.82716049382715995</v>
       </c>
       <c r="G31" s="4">
+        <v>0.73506840173506804</v>
+      </c>
+      <c r="H31" s="4">
         <v>0.72372372372372296</v>
       </c>
-      <c r="H31" s="37">
+      <c r="I31" s="37">
         <v>0.77777777777777701</v>
       </c>
-      <c r="K31" s="37">
+      <c r="L31" s="37">
         <v>0.76376376376376298</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
         <v>141</v>
       </c>
@@ -2366,45 +2595,63 @@
         <v>0.89744088012007694</v>
       </c>
       <c r="C32" s="4">
+        <v>0.92139936566695801</v>
+      </c>
+      <c r="D32" s="4">
         <v>0.92002505561524295</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>141</v>
+      <c r="E32" s="4">
+        <v>0.90059790357589597</v>
+      </c>
+      <c r="F32" s="41">
+        <v>0.92640844871308803</v>
       </c>
       <c r="G32" s="4">
+        <v>0.89598089336835096</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.90127946396784298</v>
       </c>
-      <c r="H32" s="37">
+      <c r="I32" s="37">
         <v>0.91178161225944299</v>
       </c>
-      <c r="K32" s="37">
+      <c r="L32" s="37">
         <v>0.908143780357348</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:16">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="4">
         <v>0.95448018389604306</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="41">
+        <v>0.97724175146495496</v>
+      </c>
+      <c r="D33" s="37">
         <v>0.977138388962701</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>142</v>
+      <c r="E33" s="4">
+        <v>0.96013875477566202</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.97622087638779398</v>
       </c>
       <c r="G33" s="4">
+        <v>0.95830111514197602</v>
+      </c>
+      <c r="H33" s="4">
         <v>0.95010987871314201</v>
       </c>
-      <c r="H33" s="37">
+      <c r="I33" s="37">
         <v>0.960062299107868</v>
       </c>
-      <c r="K33" s="37">
+      <c r="L33" s="37">
         <v>0.95420178906345399</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>143</v>
       </c>
@@ -2412,19 +2659,178 @@
         <v>0.84683443743062303</v>
       </c>
       <c r="C34" s="4">
+        <v>0.871593994549825</v>
+      </c>
+      <c r="D34" s="4">
         <v>0.86921953452604594</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>143</v>
+      <c r="E34" s="4">
+        <v>0.84801043840212798</v>
+      </c>
+      <c r="F34" s="41">
+        <v>0.88143266316495505</v>
       </c>
       <c r="G34" s="4">
+        <v>0.84127134932884196</v>
+      </c>
+      <c r="H34" s="4">
         <v>0.85722292694038604</v>
       </c>
-      <c r="H34" s="37">
+      <c r="I34" s="37">
         <v>0.86812440126203605</v>
       </c>
-      <c r="K34" s="37">
+      <c r="L34" s="37">
         <v>0.86632735003058303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="39">
+        <v>0.38824230863075099</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.58347306939669397</v>
+      </c>
+      <c r="D36" s="39">
+        <v>0.56553496354809096</v>
+      </c>
+      <c r="E36" s="39">
+        <v>0.32577970842299903</v>
+      </c>
+      <c r="F36" s="39">
+        <v>0.54914548575972499</v>
+      </c>
+      <c r="G36" s="39">
+        <v>0.29792941144963497</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0.40302703418451302</v>
+      </c>
+      <c r="I36" s="39">
+        <v>0.44955880608239801</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="39">
+        <v>0.36566408433547198</v>
+      </c>
+      <c r="M36" s="39">
+        <v>0.61010019488606904</v>
+      </c>
+      <c r="N36" s="40">
+        <v>0.64654022489825802</v>
+      </c>
+      <c r="O36" s="39">
+        <v>0.60227678894415004</v>
+      </c>
+      <c r="P36" s="39">
+        <v>0.63664106228522799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="C37" s="39">
+        <v>1</v>
+      </c>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
+      <c r="E37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="F37" s="39">
+        <v>1</v>
+      </c>
+      <c r="G37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="H37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="I37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="39">
+        <v>2.5333333333333301E-2</v>
+      </c>
+      <c r="M37" s="39">
+        <v>1</v>
+      </c>
+      <c r="N37" s="39">
+        <v>1</v>
+      </c>
+      <c r="O37" s="39">
+        <v>1</v>
+      </c>
+      <c r="P37" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="35">
+        <v>643232</v>
+      </c>
+      <c r="C38" s="35">
+        <v>754454</v>
+      </c>
+      <c r="D38" s="35">
+        <v>803869</v>
+      </c>
+      <c r="E38" s="35">
+        <v>643225</v>
+      </c>
+      <c r="F38" s="35">
+        <v>987842</v>
+      </c>
+      <c r="G38" s="35">
+        <v>643237</v>
+      </c>
+      <c r="H38" s="35">
+        <v>110122</v>
+      </c>
+      <c r="I38" s="35">
+        <v>643225</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="35">
+        <v>409875</v>
+      </c>
+      <c r="M38" s="35">
+        <v>161842</v>
+      </c>
+      <c r="N38" s="35">
+        <v>440692</v>
+      </c>
+      <c r="O38" s="35">
+        <v>348890</v>
+      </c>
+      <c r="P38" s="35">
+        <v>521081</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2843,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2466,6 +2872,9 @@
       <c r="D2" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
@@ -2483,6 +2892,9 @@
       <c r="D3" s="36">
         <v>75</v>
       </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
@@ -2499,6 +2911,9 @@
       </c>
       <c r="D4" s="36">
         <v>25</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -2667,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2683,7 +3098,7 @@
     <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2717,8 +3132,11 @@
       <c r="O1" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -2749,8 +3167,11 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
@@ -2781,8 +3202,11 @@
       <c r="M3" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -2813,8 +3237,11 @@
       <c r="M4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -2845,8 +3272,11 @@
       <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -2877,8 +3307,23 @@
       <c r="M6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="43">
+        <v>0.82837748719101201</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.80045510044782098</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.89338022828637098</v>
+      </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
@@ -2897,8 +3342,11 @@
       <c r="M7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="H8" t="s">
         <v>11</v>
       </c>
@@ -2917,8 +3365,11 @@
       <c r="M8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="H9" t="s">
         <v>13</v>
       </c>
@@ -2937,8 +3388,11 @@
       <c r="M9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="H10" t="s">
         <v>114</v>
       </c>
@@ -2957,8 +3411,11 @@
       <c r="M10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="H11" t="s">
         <v>117</v>
       </c>
@@ -2977,8 +3434,11 @@
       <c r="M11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="H12" t="s">
         <v>118</v>
       </c>
@@ -2997,14 +3457,17 @@
       <c r="M12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1"/>
-    <row r="17" spans="1:20">
+    <row r="16" spans="1:16" ht="15" thickBot="1"/>
+    <row r="17" spans="1:24">
       <c r="A17" s="10" t="s">
         <v>172</v>
       </c>
@@ -3065,8 +3528,20 @@
       <c r="T17" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
@@ -3127,8 +3602,14 @@
       <c r="T18" s="15">
         <v>0.966032608695652</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -3189,8 +3670,14 @@
       <c r="T19" s="15">
         <v>0.90909090909090895</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
@@ -3251,8 +3738,14 @@
       <c r="T20" s="15">
         <v>0.32352941176470501</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
@@ -3313,8 +3806,14 @@
       <c r="T21" s="15">
         <v>0.98421052631578898</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -3375,8 +3874,14 @@
       <c r="T22" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
@@ -3437,8 +3942,14 @@
       <c r="T23" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
@@ -3499,8 +4010,14 @@
       <c r="T24" s="15">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
@@ -3561,8 +4078,14 @@
       <c r="T25" s="15">
         <v>0.97222222222222199</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
@@ -3623,8 +4146,14 @@
       <c r="T26" s="15">
         <v>0.97931034482758605</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
@@ -3685,8 +4214,14 @@
       <c r="T27" s="15">
         <v>0.89622641509433898</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
@@ -3747,8 +4282,14 @@
       <c r="T28" s="15">
         <v>0.98641304347825998</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -3809,8 +4350,14 @@
       <c r="T29" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="13" t="s">
         <v>28</v>
       </c>
@@ -3871,8 +4418,14 @@
       <c r="T30" s="15">
         <v>0.91808873720136497</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="15"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -3933,8 +4486,14 @@
       <c r="T31" s="15">
         <v>0.96333333333333304</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
@@ -3995,8 +4554,14 @@
       <c r="T32" s="15">
         <v>0.98084291187739403</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="15"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="13" t="s">
         <v>31</v>
       </c>
@@ -4057,8 +4622,14 @@
       <c r="T33" s="15">
         <v>0.94545454545454499</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="15"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
@@ -4119,8 +4690,14 @@
       <c r="T34" s="15">
         <v>0.96026490066225101</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
@@ -4181,8 +4758,14 @@
       <c r="T35" s="15">
         <v>0.93793103448275805</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
@@ -4243,8 +4826,14 @@
       <c r="T36" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="15"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
@@ -4305,8 +4894,14 @@
       <c r="T37" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="15"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="13" t="s">
         <v>36</v>
       </c>
@@ -4367,8 +4962,14 @@
       <c r="T38" s="15">
         <v>0.90508474576271103</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="15"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
@@ -4429,8 +5030,14 @@
       <c r="T39" s="15">
         <v>0.81818181818181801</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="15"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="13" t="s">
         <v>38</v>
       </c>
@@ -4491,8 +5098,14 @@
       <c r="T40" s="15">
         <v>0.93197278911564596</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="15"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="13" t="s">
         <v>39</v>
       </c>
@@ -4553,8 +5166,14 @@
       <c r="T41" s="15">
         <v>0.97192224622030199</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="15"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="13" t="s">
         <v>40</v>
       </c>
@@ -4615,8 +5234,14 @@
       <c r="T42" s="15">
         <v>0.98453608247422597</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="15"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="13" t="s">
         <v>41</v>
       </c>
@@ -4677,8 +5302,14 @@
       <c r="T43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="15"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="13" t="s">
         <v>42</v>
       </c>
@@ -4739,8 +5370,14 @@
       <c r="T44" s="15">
         <v>0.98996302165874195</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="15"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="13" t="s">
         <v>43</v>
       </c>
@@ -4801,8 +5438,14 @@
       <c r="T45" s="15">
         <v>0.98828125</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1">
+      <c r="U45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="15"/>
+    </row>
+    <row r="46" spans="1:24" ht="15" thickBot="1">
       <c r="A46" s="16" t="s">
         <v>44</v>
       </c>
@@ -4863,6 +5506,12 @@
       <c r="T46" s="18">
         <v>0.97722748694217099</v>
       </c>
+      <c r="U46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="18"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
@@ -4964,10 +5613,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:AW62"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4979,9 +5628,11 @@
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="14" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="18" max="19" width="17.77734375" customWidth="1"/>
+    <col min="57" max="57" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:63">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5027,8 +5678,14 @@
       <c r="Q1" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:49">
+      <c r="R1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63">
       <c r="A2" s="3" t="s">
         <v>133</v>
       </c>
@@ -5074,8 +5731,14 @@
       <c r="Q2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="R2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
@@ -5124,8 +5787,14 @@
       <c r="Q3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:49">
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
       <c r="A4" s="3" t="s">
         <v>137</v>
       </c>
@@ -5174,8 +5843,14 @@
       <c r="Q4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:49">
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -5224,8 +5899,14 @@
       <c r="Q5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:49">
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
       <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
@@ -5274,8 +5955,14 @@
       <c r="Q6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -5324,8 +6011,14 @@
       <c r="Q7" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:49">
+      <c r="R7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -5374,8 +6067,14 @@
       <c r="Q8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="R8" t="s">
+        <v>175</v>
+      </c>
+      <c r="S8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" s="3" t="s">
         <v>252</v>
       </c>
@@ -5424,12 +6123,35 @@
       <c r="Q9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.91956603067714104</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.82015348682015299</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.86701940035273295</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.97724175146495496</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.871593994549825</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.92139936566695801</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5457,15 +6179,35 @@
       <c r="Q10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="43">
+        <v>0.915334302325581</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0.84050717384050699</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0.87632631762045499</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.973585263649135</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.89399621139887198</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.93209484973470802</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5493,8 +6235,14 @@
       <c r="Q11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5502,8 +6250,41 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="I12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" t="s">
+        <v>127</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5512,7 +6293,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:49" ht="15" thickBot="1">
+    <row r="14" spans="1:63" ht="15" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5521,7 +6302,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:63">
       <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
@@ -5669,8 +6450,50 @@
       <c r="AW15" s="32" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:49">
+      <c r="AX15" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD15" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE15" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK15" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
       <c r="A16" s="20" t="s">
         <v>177</v>
       </c>
@@ -5818,8 +6641,50 @@
       <c r="AW16" s="22">
         <v>0.92825276253377997</v>
       </c>
-    </row>
-    <row r="17" spans="1:49">
+      <c r="AX16" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY16" s="21">
+        <v>0.94637681159420295</v>
+      </c>
+      <c r="AZ16" s="21">
+        <v>0.83610755441741302</v>
+      </c>
+      <c r="BA16" s="21">
+        <v>0.88783140720598197</v>
+      </c>
+      <c r="BB16" s="21">
+        <v>0.99233124538968798</v>
+      </c>
+      <c r="BC16" s="21">
+        <v>0.87670750232891703</v>
+      </c>
+      <c r="BD16" s="22">
+        <v>0.93094297664022396</v>
+      </c>
+      <c r="BE16" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF16" s="44">
+        <v>0.930894308943089</v>
+      </c>
+      <c r="BG16" s="44">
+        <v>0.87964148527528796</v>
+      </c>
+      <c r="BH16" s="44">
+        <v>0.90454246214614797</v>
+      </c>
+      <c r="BI16" s="44">
+        <v>0.99017329196039805</v>
+      </c>
+      <c r="BJ16" s="44">
+        <v>0.935656708664243</v>
+      </c>
+      <c r="BK16" s="45">
+        <v>0.96214336993650296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
       <c r="A17" s="20" t="s">
         <v>176</v>
       </c>
@@ -5967,8 +6832,50 @@
       <c r="AW17" s="22">
         <v>0.82351385992908399</v>
       </c>
-    </row>
-    <row r="18" spans="1:49">
+      <c r="AX17" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY17" s="21">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="AZ17" s="21">
+        <v>0.67226890756302504</v>
+      </c>
+      <c r="BA17" s="21">
+        <v>0.78817733990147698</v>
+      </c>
+      <c r="BB17" s="21">
+        <v>0.99507924741430998</v>
+      </c>
+      <c r="BC17" s="21">
+        <v>0.70240888052774797</v>
+      </c>
+      <c r="BD17" s="22">
+        <v>0.82351385992908399</v>
+      </c>
+      <c r="BE17" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF17" s="44">
+        <v>0.97674418604651103</v>
+      </c>
+      <c r="BG17" s="44">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="BH17" s="44">
+        <v>0.81951219512195095</v>
+      </c>
+      <c r="BI17" s="44">
+        <v>0.99759684176047703</v>
+      </c>
+      <c r="BJ17" s="44">
+        <v>0.72095233942353798</v>
+      </c>
+      <c r="BK17" s="45">
+        <v>0.837008081867327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
       <c r="A18" s="20" t="s">
         <v>178</v>
       </c>
@@ -6116,8 +7023,50 @@
       <c r="AW18" s="22">
         <v>0.98807966274167702</v>
       </c>
-    </row>
-    <row r="19" spans="1:49">
+      <c r="AX18" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="21">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="21">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF18" s="44">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="BG18" s="44">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="BH18" s="44">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="BI18" s="44">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="BJ18" s="44">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="BK18" s="45">
+        <v>0.99701991568541903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
       <c r="A19" s="20" t="s">
         <v>179</v>
       </c>
@@ -6265,8 +7214,50 @@
       <c r="AW19" s="22">
         <v>0.86970002879530905</v>
       </c>
-    </row>
-    <row r="20" spans="1:49">
+      <c r="AX19" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY19" s="21">
+        <v>0.94054054054054004</v>
+      </c>
+      <c r="AZ19" s="21">
+        <v>0.92553191489361697</v>
+      </c>
+      <c r="BA19" s="21">
+        <v>0.93297587131367299</v>
+      </c>
+      <c r="BB19" s="21">
+        <v>0.98330431120362105</v>
+      </c>
+      <c r="BC19" s="21">
+        <v>0.96761328496101096</v>
+      </c>
+      <c r="BD19" s="22">
+        <v>0.97539569744058996</v>
+      </c>
+      <c r="BE19" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF19" s="44">
+        <v>0.95263157894736805</v>
+      </c>
+      <c r="BG19" s="44">
+        <v>0.96276595744680804</v>
+      </c>
+      <c r="BH19" s="44">
+        <v>0.95767195767195701</v>
+      </c>
+      <c r="BI19" s="44">
+        <v>0.982264025567402</v>
+      </c>
+      <c r="BJ19" s="44">
+        <v>0.99271364286067199</v>
+      </c>
+      <c r="BK19" s="45">
+        <v>0.987461189723843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
       <c r="A20" s="20" t="s">
         <v>180</v>
       </c>
@@ -6414,8 +7405,50 @@
       <c r="AW20" s="22">
         <v>0.99549167868669997</v>
       </c>
-    </row>
-    <row r="21" spans="1:49">
+      <c r="AX20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="44">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
       <c r="A21" s="20" t="s">
         <v>181</v>
       </c>
@@ -6563,8 +7596,50 @@
       <c r="AW21" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:49">
+      <c r="AX21" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF21" s="44">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="44">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="44">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="44">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
       <c r="A22" s="20" t="s">
         <v>182</v>
       </c>
@@ -6712,8 +7787,50 @@
       <c r="AW22" s="22">
         <v>0.986399272551021</v>
       </c>
-    </row>
-    <row r="23" spans="1:49">
+      <c r="AX22" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="BA22" s="21">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="BB22" s="21">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="BD22" s="22">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="BE22" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF22" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="44">
+        <v>0.96</v>
+      </c>
+      <c r="BH22" s="44">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="BI22" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="44">
+        <v>0.96</v>
+      </c>
+      <c r="BK22" s="45">
+        <v>0.97959183673469297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
       <c r="A23" s="20" t="s">
         <v>183</v>
       </c>
@@ -6861,8 +7978,50 @@
       <c r="AW23" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:49">
+      <c r="AX23" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
       <c r="A24" s="20" t="s">
         <v>184</v>
       </c>
@@ -7010,8 +8169,50 @@
       <c r="AW24" s="22">
         <v>0.99722865577876896</v>
       </c>
-    </row>
-    <row r="25" spans="1:49">
+      <c r="AX24" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF24" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="44">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="44">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="44">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
       <c r="A25" s="20" t="s">
         <v>185</v>
       </c>
@@ -7159,8 +8360,50 @@
       <c r="AW25" s="22">
         <v>0.57631646041546303</v>
       </c>
-    </row>
-    <row r="26" spans="1:49">
+      <c r="AX25" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY25" s="21">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="AZ25" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="BA25" s="21">
+        <v>0.55999999999999905</v>
+      </c>
+      <c r="BB25" s="21">
+        <v>0.99707165004327403</v>
+      </c>
+      <c r="BC25" s="21">
+        <v>0.41387879813117001</v>
+      </c>
+      <c r="BD25" s="22">
+        <v>0.58494870135872001</v>
+      </c>
+      <c r="BE25" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF25" s="44">
+        <v>0.875</v>
+      </c>
+      <c r="BG25" s="44">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="BH25" s="44">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="BI25" s="44">
+        <v>0.99194703761900305</v>
+      </c>
+      <c r="BJ25" s="44">
+        <v>0.44918356420483102</v>
+      </c>
+      <c r="BK25" s="45">
+        <v>0.618356594879378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
       <c r="A26" s="20" t="s">
         <v>190</v>
       </c>
@@ -7308,8 +8551,50 @@
       <c r="AW26" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:49">
+      <c r="AX26" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF26" s="44">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="44">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="44">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="44">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
       <c r="A27" s="20" t="s">
         <v>186</v>
       </c>
@@ -7457,8 +8742,50 @@
       <c r="AW27" s="22">
         <v>0.97663408523775197</v>
       </c>
-    </row>
-    <row r="28" spans="1:49">
+      <c r="AX27" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY27" s="21">
+        <v>0.98816568047337205</v>
+      </c>
+      <c r="AZ27" s="21">
+        <v>0.93820224719101097</v>
+      </c>
+      <c r="BA27" s="21">
+        <v>0.96253602305475505</v>
+      </c>
+      <c r="BB27" s="21">
+        <v>0.99733017624795595</v>
+      </c>
+      <c r="BC27" s="21">
+        <v>0.946903369583733</v>
+      </c>
+      <c r="BD27" s="22">
+        <v>0.97146282297351305</v>
+      </c>
+      <c r="BE27" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF27" s="44">
+        <v>0.95738636363636298</v>
+      </c>
+      <c r="BG27" s="44">
+        <v>0.94662921348314599</v>
+      </c>
+      <c r="BH27" s="44">
+        <v>0.951977401129943</v>
+      </c>
+      <c r="BI27" s="44">
+        <v>0.97772817964394498</v>
+      </c>
+      <c r="BJ27" s="44">
+        <v>0.96674246976030498</v>
+      </c>
+      <c r="BK27" s="45">
+        <v>0.97220429162335797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
       <c r="A28" s="20" t="s">
         <v>187</v>
       </c>
@@ -7606,8 +8933,50 @@
       <c r="AW28" s="22">
         <v>0.73161340007701103</v>
       </c>
-    </row>
-    <row r="29" spans="1:49">
+      <c r="AX28" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="BC28" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="BD28" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="BE28" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF28" s="44">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="44">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="44">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="BJ28" s="44">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="BK28" s="45">
+        <v>0.73161340007701103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
       <c r="A29" s="20" t="s">
         <v>188</v>
       </c>
@@ -7755,8 +9124,50 @@
       <c r="AW29" s="22">
         <v>0.92779106708992798</v>
       </c>
-    </row>
-    <row r="30" spans="1:49" ht="15" thickBot="1">
+      <c r="AX29" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY29" s="21">
+        <v>0.79639639639639603</v>
+      </c>
+      <c r="AZ29" s="21">
+        <v>0.73789649415692804</v>
+      </c>
+      <c r="BA29" s="21">
+        <v>0.76603119584055401</v>
+      </c>
+      <c r="BB29" s="21">
+        <v>0.97047811281220797</v>
+      </c>
+      <c r="BC29" s="21">
+        <v>0.89919090586106099</v>
+      </c>
+      <c r="BD29" s="22">
+        <v>0.93347548112786105</v>
+      </c>
+      <c r="BE29" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF29" s="44">
+        <v>0.81204379562043705</v>
+      </c>
+      <c r="BG29" s="44">
+        <v>0.74290484140233704</v>
+      </c>
+      <c r="BH29" s="44">
+        <v>0.77593722755012995</v>
+      </c>
+      <c r="BI29" s="44">
+        <v>0.97118671220042496</v>
+      </c>
+      <c r="BJ29" s="44">
+        <v>0.88849802718836901</v>
+      </c>
+      <c r="BK29" s="45">
+        <v>0.92800404234670097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" ht="15" thickBot="1">
       <c r="A30" s="23" t="s">
         <v>189</v>
       </c>
@@ -7904,8 +9315,50 @@
       <c r="AW30" s="25">
         <v>0.73255813953488302</v>
       </c>
-    </row>
-    <row r="31" spans="1:49">
+      <c r="AX30" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY30" s="24">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="AZ30" s="24">
+        <v>0.54587155963302703</v>
+      </c>
+      <c r="BA30" s="24">
+        <v>0.69186046511627897</v>
+      </c>
+      <c r="BB30" s="24">
+        <v>0.99563594925930099</v>
+      </c>
+      <c r="BC30" s="24">
+        <v>0.57545931012234797</v>
+      </c>
+      <c r="BD30" s="25">
+        <v>0.72936121864344095</v>
+      </c>
+      <c r="BE30" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF30" s="46">
+        <v>0.95588235294117596</v>
+      </c>
+      <c r="BG30" s="46">
+        <v>0.596330275229357</v>
+      </c>
+      <c r="BH30" s="46">
+        <v>0.73446327683615797</v>
+      </c>
+      <c r="BI30" s="46">
+        <v>0.99653443029415001</v>
+      </c>
+      <c r="BJ30" s="46">
+        <v>0.62169120422020396</v>
+      </c>
+      <c r="BK30" s="47">
+        <v>0.76569877129945996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -7917,7 +9370,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:63">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -7961,8 +9414,23 @@
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
-    </row>
-    <row r="33" spans="1:49">
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+    </row>
+    <row r="33" spans="1:58">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8009,8 +9477,20 @@
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
-    </row>
-    <row r="34" spans="1:49">
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+    </row>
+    <row r="34" spans="1:58">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8060,8 +9540,17 @@
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
-    </row>
-    <row r="35" spans="1:49">
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+    </row>
+    <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8104,8 +9593,11 @@
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
-    </row>
-    <row r="36" spans="1:49">
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+    </row>
+    <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8128,8 +9620,11 @@
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
       <c r="AW36" s="7"/>
-    </row>
-    <row r="37" spans="1:49">
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+    </row>
+    <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8138,7 +9633,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:58">
       <c r="A38" s="26" t="s">
         <v>226</v>
       </c>
@@ -8149,7 +9644,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -8158,7 +9653,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:58">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -8175,7 +9670,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:58">
       <c r="A41" s="3" t="s">
         <v>200</v>
       </c>
@@ -8192,7 +9687,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:58">
       <c r="A42" s="3" t="s">
         <v>199</v>
       </c>
@@ -8206,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:58">
       <c r="A43" s="3" t="s">
         <v>201</v>
       </c>
@@ -8220,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:58">
       <c r="A44" s="3" t="s">
         <v>202</v>
       </c>
@@ -8234,12 +9729,12 @@
         <v>1.8045112781954802E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:58">
       <c r="A46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:58">
       <c r="A47" s="3" t="s">
         <v>199</v>
       </c>
@@ -8253,7 +9748,7 @@
         <v>6.7916877850988294E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:58">
       <c r="A48" s="3" t="s">
         <v>208</v>
       </c>
@@ -8465,10 +9960,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8479,7 +9974,7 @@
     <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -8508,18 +10003,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="29">
-        <v>0.85123632135596305</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0.93439291545418202</v>
-      </c>
-      <c r="D2" s="29">
-        <v>0.81541379252177604</v>
+      <c r="B2" s="41">
+        <v>0.86381881681936301</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0.91369648869648801</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0.83242612221992596</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -8537,7 +10032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
@@ -8566,7 +10061,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>132</v>
       </c>
@@ -8595,7 +10090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -8609,12 +10104,17 @@
         <v>0.76000696444944205</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
+      <c r="I5" t="s">
+        <v>278</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8631,7 +10131,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:20">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
@@ -8648,7 +10151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:20">
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
@@ -8665,7 +10168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:20">
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -8682,8 +10185,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1"/>
-    <row r="11" spans="1:16">
+    <row r="10" spans="1:20" ht="15" thickBot="1"/>
+    <row r="11" spans="1:20">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -8732,19 +10235,31 @@
       <c r="P11" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="14">
-        <v>0.99459459459459398</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.989247311827957</v>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.97826086956521696</v>
       </c>
       <c r="D12" s="15">
-        <v>1</v>
+        <v>0.98901098901098905</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>56</v>
@@ -8782,19 +10297,31 @@
       <c r="P12" s="15">
         <v>0.98913043478260798</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0.97826086956521696</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.97826086956521696</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0.97826086956521696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="14">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.6</v>
       </c>
       <c r="D13" s="15">
-        <v>0.4</v>
+        <v>0.749999999999999</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>165</v>
@@ -8832,19 +10359,31 @@
       <c r="P13" s="15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0.749999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="14">
-        <v>0.874999999999999</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.93333333333333302</v>
+      <c r="B14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.70588235294117596</v>
       </c>
       <c r="D14" s="15">
-        <v>0.82352941176470495</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>57</v>
@@ -8882,19 +10421,31 @@
       <c r="P14" s="15">
         <v>0.52941176470588203</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="14">
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.98319327731092399</v>
+      <c r="B15" s="4">
+        <v>0.92424242424242398</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.85915492957746398</v>
       </c>
       <c r="D15" s="15">
-        <v>0.823943661971831</v>
+        <v>0.89051094890510896</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>58</v>
@@ -8932,19 +10483,31 @@
       <c r="P15" s="15">
         <v>0.85915492957746398</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0.92424242424242398</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0.85915492957746398</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0.89051094890510896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="14">
-        <v>0.93440000000000001</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.89570552147239202</v>
+      <c r="B16" s="4">
+        <v>0.90793650793650704</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.95652173913043403</v>
       </c>
       <c r="D16" s="15">
-        <v>0.97658862876254104</v>
+        <v>0.93159609120521103</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>59</v>
@@ -8982,19 +10545,31 @@
       <c r="P16" s="15">
         <v>0.96655518394648798</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1">
+      <c r="Q16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0.90851735015772805</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0.96321070234113704</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0.93506493506493504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
         <v>167</v>
       </c>
       <c r="B17" s="17">
-        <v>0.835443037974683</v>
+        <v>0.85</v>
       </c>
       <c r="C17" s="17">
-        <v>0.80487804878048697</v>
+        <v>0.89473684210526305</v>
       </c>
       <c r="D17" s="18">
-        <v>0.86842105263157898</v>
+        <v>0.87179487179487103</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>167</v>
@@ -9032,14 +10607,26 @@
       <c r="P17" s="18">
         <v>0.81578947368420995</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Q17" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="T17" s="18">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:20">
       <c r="A19" s="26" t="s">
         <v>226</v>
       </c>
@@ -9047,12 +10634,12 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:20">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:20">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -9063,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:20">
       <c r="A22" s="3" t="s">
         <v>233</v>
       </c>
@@ -9076,9 +10663,21 @@
       <c r="D22" s="4">
         <v>0.53086486707606995</v>
       </c>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="J22" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
         <v>234</v>
       </c>
@@ -9091,8 +10690,23 @@
       <c r="D23" s="4">
         <v>0.69462695387042095</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="J23" s="48">
+        <v>0</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="49">
+        <v>1</v>
+      </c>
+      <c r="M23" s="49">
+        <v>0.97826086956521696</v>
+      </c>
+      <c r="N23" s="49">
+        <v>0.98901098901098905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
         <v>235</v>
       </c>
@@ -9105,8 +10719,23 @@
       <c r="D24" s="4">
         <v>0.75353095496400402</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="J24" s="48">
+        <v>1</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="49">
+        <v>1</v>
+      </c>
+      <c r="M24" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="N24" s="49">
+        <v>0.749999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
         <v>236</v>
       </c>
@@ -9119,8 +10748,23 @@
       <c r="D25" s="4">
         <v>0.74956068647649399</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="J25" s="48">
+        <v>2</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="49">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="N25" s="49">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
         <v>239</v>
       </c>
@@ -9133,8 +10777,23 @@
       <c r="D26" s="4">
         <v>0.81541379252177604</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="J26" s="48">
+        <v>3</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="49">
+        <v>0.92424242424242398</v>
+      </c>
+      <c r="M26" s="49">
+        <v>0.85915492957746398</v>
+      </c>
+      <c r="N26" s="49">
+        <v>0.89051094890510896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
         <v>237</v>
       </c>
@@ -9147,8 +10806,23 @@
       <c r="D27" s="4">
         <v>0.76723535468864401</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="J27" s="48">
+        <v>4</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="49">
+        <v>0.90793650793650704</v>
+      </c>
+      <c r="M27" s="49">
+        <v>0.95652173913043403</v>
+      </c>
+      <c r="N27" s="49">
+        <v>0.93159609120521103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
         <v>238</v>
       </c>
@@ -9161,14 +10835,29 @@
       <c r="D28" s="4">
         <v>0.75399380294523799</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="J28" s="48">
+        <v>5</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="M28" s="49">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="N28" s="49">
+        <v>0.87179487179487103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:20">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>2</v>
@@ -9180,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
         <v>244</v>
       </c>
@@ -9194,7 +10883,7 @@
         <v>0.44637991063201299</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
         <v>245</v>
       </c>
@@ -9278,10 +10967,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9297,7 +10986,7 @@
         <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9307,6 +10996,9 @@
       <c r="B3" t="s">
         <v>171</v>
       </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -9316,7 +11008,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9327,7 +11019,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9338,7 +11030,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9349,7 +11041,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9364,59 +11056,61 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <v>0.26408010012515598</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-    </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="8">
-        <v>0.27027027027027001</v>
+        <v>0.65</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="8">
-        <v>7.4074074074074001E-2</v>
+        <v>0.27027027027027001</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="8">
-        <v>0</v>
+        <v>7.4074074074074001E-2</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -9425,132 +11119,132 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="8">
-        <v>0.27586206896551702</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.44230769230769201</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="8">
-        <v>0.85714285714285698</v>
+        <v>0.44230769230769201</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="8">
-        <v>0.57142857142857095</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="8">
-        <v>0.5</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="8">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.14117647058823499</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B30" s="8">
-        <v>0</v>
+        <v>0.14117647058823499</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="B31" s="8">
-        <v>8.3333333333333301E-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="B32" s="8">
         <v>8.3333333333333301E-2</v>
@@ -9559,34 +11253,34 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="B33" s="8">
-        <v>0.103174603174603</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="B34" s="8">
-        <v>0</v>
+        <v>0.103174603174603</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>171</v>
@@ -9595,12 +11289,21 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>171</v>
       </c>
       <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1AF8F2D-35B0-402A-8F58-A2C7EB35D953}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0256255-9BDF-4541-8F1D-BC291E005F53}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="279">
   <si>
     <t>Precision</t>
   </si>
@@ -9962,7 +9962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D17"/>
     </sheetView>
   </sheetViews>
@@ -10967,10 +10967,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10978,7 +10978,7 @@
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>145</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>147</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -11066,244 +11066,346 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="8">
         <v>0.26408010012515598</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="8">
+        <v>0.35593220338983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="8">
         <v>0.65</v>
       </c>
+      <c r="C13" s="8">
+        <v>0.82352941176470495</v>
+      </c>
       <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="8">
         <v>0.27027027027027001</v>
       </c>
+      <c r="C14" s="8">
+        <v>0.292682926829268</v>
+      </c>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="8">
         <v>7.4074074074074001E-2</v>
       </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
       </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
       <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
       </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="8">
         <v>0.27586206896551702</v>
       </c>
+      <c r="C18" s="8">
+        <v>0.38271604938271597</v>
+      </c>
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="8">
         <v>0.4375</v>
       </c>
+      <c r="C19" s="8">
+        <v>0.58750000000000002</v>
+      </c>
       <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="8">
         <v>0.44230769230769201</v>
       </c>
+      <c r="C21" s="8">
+        <v>0.62790697674418605</v>
+      </c>
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="8">
         <v>0.85714285714285698</v>
       </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="8">
         <v>0.57142857142857095</v>
       </c>
+      <c r="C23" s="8">
+        <v>0.57142857142857095</v>
+      </c>
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B24" s="8">
         <v>0.5</v>
       </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="8">
         <v>0</v>
       </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
       </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
       <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B27" s="8">
         <v>0.66666666666666596</v>
       </c>
+      <c r="C27" s="8">
+        <v>0.66666666666666596</v>
+      </c>
       <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="8">
         <v>0.4375</v>
       </c>
+      <c r="C28" s="8">
+        <v>0.58750000000000002</v>
+      </c>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
         <v>0.14117647058823499</v>
       </c>
+      <c r="C30" s="8">
+        <v>0.14864864864864799</v>
+      </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="8">
         <v>0</v>
       </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
       <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="8">
         <v>8.3333333333333301E-2</v>
       </c>
+      <c r="C32" s="8">
+        <v>0.11764705882352899</v>
+      </c>
       <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="8">
         <v>8.3333333333333301E-2</v>
       </c>
+      <c r="C33" s="8">
+        <v>0.11764705882352899</v>
+      </c>
       <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="8">
         <v>0.103174603174603</v>
       </c>
+      <c r="C34" s="8">
+        <v>0.14912280701754299</v>
+      </c>
       <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B35" s="8">
         <v>0</v>
       </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
       <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>171</v>
       </c>
+      <c r="C36" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>171</v>
       </c>
+      <c r="C37" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>171</v>
       </c>
+      <c r="C38" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="D38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0256255-9BDF-4541-8F1D-BC291E005F53}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE8829B-DD00-451C-82A3-D4377DAF190E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Pipeline" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="280">
   <si>
     <t>Precision</t>
   </si>
@@ -880,6 +879,9 @@
   </si>
   <si>
     <t>30 com patience= 5 (melhor val_loss na epoch = 12)</t>
+  </si>
+  <si>
+    <t>V2 Classes</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2832,6 +2834,9 @@
       <c r="P38" s="35">
         <v>521081</v>
       </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="K44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3084,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView topLeftCell="P17" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17:AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3529,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="V17" s="11" t="s">
         <v>2</v>
@@ -3605,9 +3610,15 @@
       <c r="U18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
+      <c r="V18" s="14">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0.88930348258706404</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0.97146739130434701</v>
+      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="13" t="s">
@@ -3673,9 +3684,15 @@
       <c r="U19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
+      <c r="V19" s="14">
+        <v>0.88715953307392903</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0.83823529411764697</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0.94214876033057804</v>
+      </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="13" t="s">
@@ -3741,9 +3758,15 @@
       <c r="U20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
+      <c r="V20" s="14">
+        <v>0.90640394088669896</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0.91089108910891003</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0.90196078431372495</v>
+      </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="13" t="s">
@@ -3809,9 +3832,15 @@
       <c r="U21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
+      <c r="V21" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0.89523809523809506</v>
+      </c>
+      <c r="X21" s="15">
+        <v>0.98947368421052595</v>
+      </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="13" t="s">
@@ -3877,9 +3906,15 @@
       <c r="U22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
+      <c r="V22" s="14">
+        <v>0.95757575757575697</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0.91860465116279</v>
+      </c>
+      <c r="X22" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="13" t="s">
@@ -3945,9 +3980,15 @@
       <c r="U23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15"/>
+      <c r="V23" s="14">
+        <v>1</v>
+      </c>
+      <c r="W23" s="14">
+        <v>1</v>
+      </c>
+      <c r="X23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="13" t="s">
@@ -4013,9 +4054,15 @@
       <c r="U24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
+      <c r="V24" s="14">
+        <v>0.93690851735015701</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0.88922155688622695</v>
+      </c>
+      <c r="X24" s="15">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="13" t="s">
@@ -4081,9 +4128,15 @@
       <c r="U25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
+      <c r="V25" s="14">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0.97222222222222199</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="13" t="s">
@@ -4149,9 +4202,15 @@
       <c r="U26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
+      <c r="V26" s="14">
+        <v>0.96644295302013405</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0.99310344827586206</v>
+      </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="13" t="s">
@@ -4217,9 +4276,15 @@
       <c r="U27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="15"/>
+      <c r="V27" s="14">
+        <v>0.59824046920821095</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0.43404255319148899</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0.96226415094339601</v>
+      </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="13" t="s">
@@ -4285,9 +4350,15 @@
       <c r="U28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="15"/>
+      <c r="V28" s="14">
+        <v>0.92385786802030401</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0.98913043478260798</v>
+      </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="13" t="s">
@@ -4353,9 +4424,15 @@
       <c r="U29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="15"/>
+      <c r="V29" s="14">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="W29" s="14">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="X29" s="15">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="13" t="s">
@@ -4421,9 +4498,15 @@
       <c r="U30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="15"/>
+      <c r="V30" s="14">
+        <v>0.91176470588235203</v>
+      </c>
+      <c r="W30" s="14">
+        <v>0.874608150470219</v>
+      </c>
+      <c r="X30" s="15">
+        <v>0.95221843003412898</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="13" t="s">
@@ -4489,9 +4572,15 @@
       <c r="U31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
+      <c r="V31" s="14">
+        <v>0.94527363184079505</v>
+      </c>
+      <c r="W31" s="14">
+        <v>0.94059405940593999</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="13" t="s">
@@ -4557,9 +4646,15 @@
       <c r="U32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="15"/>
+      <c r="V32" s="14">
+        <v>0.92901802133137101</v>
+      </c>
+      <c r="W32" s="14">
+        <v>0.89321074964639302</v>
+      </c>
+      <c r="X32" s="15">
+        <v>0.96781609195402296</v>
+      </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="13" t="s">
@@ -4625,9 +4720,15 @@
       <c r="U33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="15"/>
+      <c r="V33" s="14">
+        <v>0.90146750524108998</v>
+      </c>
+      <c r="W33" s="14">
+        <v>0.83657587548638102</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0.97727272727272696</v>
+      </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="13" t="s">
@@ -4693,9 +4794,15 @@
       <c r="U34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="15"/>
+      <c r="V34" s="14">
+        <v>0.94533762057877802</v>
+      </c>
+      <c r="W34" s="14">
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="X34" s="15">
+        <v>0.97350993377483397</v>
+      </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="13" t="s">
@@ -4761,9 +4868,15 @@
       <c r="U35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
+      <c r="V35" s="14">
+        <v>0.82456140350877105</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0.71573604060913698</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0.972413793103448</v>
+      </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="13" t="s">
@@ -4829,9 +4942,15 @@
       <c r="U36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
+      <c r="V36" s="14">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="W36" s="14">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="X36" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="13" t="s">
@@ -4897,9 +5016,15 @@
       <c r="U37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="15"/>
+      <c r="V37" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="X37" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="13" t="s">
@@ -4965,9 +5090,15 @@
       <c r="U38" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="15"/>
+      <c r="V38" s="14">
+        <v>0.96321070234113704</v>
+      </c>
+      <c r="W38" s="14">
+        <v>0.95049504950495001</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0.97627118644067801</v>
+      </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="13" t="s">
@@ -5033,9 +5164,15 @@
       <c r="U39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="15"/>
+      <c r="V39" s="14">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="W39" s="14">
+        <v>1</v>
+      </c>
+      <c r="X39" s="15">
+        <v>0.27272727272727199</v>
+      </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="13" t="s">
@@ -5101,9 +5238,15 @@
       <c r="U40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="15"/>
+      <c r="V40" s="14">
+        <v>0.93687707641196005</v>
+      </c>
+      <c r="W40" s="14">
+        <v>0.91558441558441495</v>
+      </c>
+      <c r="X40" s="15">
+        <v>0.95918367346938704</v>
+      </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="13" t="s">
@@ -5169,9 +5312,15 @@
       <c r="U41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="15"/>
+      <c r="V41" s="14">
+        <v>0.61395348837209296</v>
+      </c>
+      <c r="W41" s="14">
+        <v>0.44337811900191898</v>
+      </c>
+      <c r="X41" s="15">
+        <v>0.99784017278617698</v>
+      </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="13" t="s">
@@ -5237,9 +5386,15 @@
       <c r="U42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="15"/>
+      <c r="V42" s="14">
+        <v>0.88973966309341501</v>
+      </c>
+      <c r="W42" s="14">
+        <v>0.80248618784530301</v>
+      </c>
+      <c r="X42" s="15">
+        <v>0.99828178694157998</v>
+      </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="13" t="s">
@@ -5305,9 +5460,15 @@
       <c r="U43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="15"/>
+      <c r="V43" s="14">
+        <v>0</v>
+      </c>
+      <c r="W43" s="14">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="13" t="s">
@@ -5373,9 +5534,15 @@
       <c r="U44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="15"/>
+      <c r="V44" s="14">
+        <v>0.91130012150668205</v>
+      </c>
+      <c r="W44" s="14">
+        <v>0.84383438343834305</v>
+      </c>
+      <c r="X44" s="15">
+        <v>0.99049128367670303</v>
+      </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="13" t="s">
@@ -5441,9 +5608,15 @@
       <c r="U45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="15"/>
+      <c r="V45" s="14">
+        <v>0.932668329177057</v>
+      </c>
+      <c r="W45" s="14">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0.97395833333333304</v>
+      </c>
     </row>
     <row r="46" spans="1:24" ht="15" thickBot="1">
       <c r="A46" s="16" t="s">
@@ -5509,9 +5682,15 @@
       <c r="U46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="18"/>
+      <c r="V46" s="17">
+        <v>0.99158007498660905</v>
+      </c>
+      <c r="W46" s="17">
+        <v>0.99899845451170299</v>
+      </c>
+      <c r="X46" s="18">
+        <v>0.98427105840719997</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
@@ -5616,7 +5795,7 @@
   <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9962,8 +10141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10969,8 +11148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="764" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE8829B-DD00-451C-82A3-D4377DAF190E}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B9F84F-FDD2-4836-B286-8F24206E1AE8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1126,7 +1126,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1587,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -2509,7 +2508,7 @@
       <c r="E29" s="4">
         <v>0.801559177888022</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <v>0.86936699982465304</v>
       </c>
       <c r="G29" s="4">
@@ -2518,10 +2517,10 @@
       <c r="H29" s="4">
         <v>0.76091913699350999</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>0.81689153670930403</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="36">
         <v>0.80062959076600204</v>
       </c>
     </row>
@@ -2532,10 +2531,10 @@
       <c r="B30" s="4">
         <v>0.82512222640090205</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>0.91956603067714104</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="40">
         <v>0.91972993248311996</v>
       </c>
       <c r="E30" s="4">
@@ -2550,10 +2549,10 @@
       <c r="H30" s="4">
         <v>0.80214497041420096</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>0.86014760147601399</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="36">
         <v>0.84123484013230398</v>
       </c>
     </row>
@@ -2573,7 +2572,7 @@
       <c r="E31" s="4">
         <v>0.75475475475475395</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <v>0.82716049382715995</v>
       </c>
       <c r="G31" s="4">
@@ -2582,10 +2581,10 @@
       <c r="H31" s="4">
         <v>0.72372372372372296</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>0.77777777777777701</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="36">
         <v>0.76376376376376298</v>
       </c>
     </row>
@@ -2605,7 +2604,7 @@
       <c r="E32" s="4">
         <v>0.90059790357589597</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>0.92640844871308803</v>
       </c>
       <c r="G32" s="4">
@@ -2614,10 +2613,10 @@
       <c r="H32" s="4">
         <v>0.90127946396784298</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <v>0.91178161225944299</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="36">
         <v>0.908143780357348</v>
       </c>
     </row>
@@ -2628,10 +2627,10 @@
       <c r="B33" s="4">
         <v>0.95448018389604306</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="40">
         <v>0.97724175146495496</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0.977138388962701</v>
       </c>
       <c r="E33" s="4">
@@ -2646,10 +2645,10 @@
       <c r="H33" s="4">
         <v>0.95010987871314201</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>0.960062299107868</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="36">
         <v>0.95420178906345399</v>
       </c>
     </row>
@@ -2669,7 +2668,7 @@
       <c r="E34" s="4">
         <v>0.84801043840212798</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>0.88143266316495505</v>
       </c>
       <c r="G34" s="4">
@@ -2678,10 +2677,10 @@
       <c r="H34" s="4">
         <v>0.85722292694038604</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>0.86812440126203605</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="36">
         <v>0.86632735003058303</v>
       </c>
     </row>
@@ -2698,94 +2697,94 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="38">
         <v>0.38824230863075099</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>0.58347306939669397</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <v>0.56553496354809096</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="38">
         <v>0.32577970842299903</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <v>0.54914548575972499</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <v>0.29792941144963497</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="38">
         <v>0.40302703418451302</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="38">
         <v>0.44955880608239801</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="39">
+      <c r="L36" s="38">
         <v>0.36566408433547198</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="38">
         <v>0.61010019488606904</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="39">
         <v>0.64654022489825802</v>
       </c>
-      <c r="O36" s="39">
+      <c r="O36" s="38">
         <v>0.60227678894415004</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="38">
         <v>0.63664106228522799</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="C37" s="39">
-        <v>1</v>
-      </c>
-      <c r="D37" s="39">
-        <v>1</v>
-      </c>
-      <c r="E37" s="39">
+      <c r="C37" s="38">
+        <v>1</v>
+      </c>
+      <c r="D37" s="38">
+        <v>1</v>
+      </c>
+      <c r="E37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="F37" s="39">
-        <v>1</v>
-      </c>
-      <c r="G37" s="39">
+      <c r="F37" s="38">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="39">
+      <c r="L37" s="38">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="M37" s="39">
-        <v>1</v>
-      </c>
-      <c r="N37" s="39">
-        <v>1</v>
-      </c>
-      <c r="O37" s="39">
-        <v>1</v>
-      </c>
-      <c r="P37" s="39">
+      <c r="M37" s="38">
+        <v>1</v>
+      </c>
+      <c r="N37" s="38">
+        <v>1</v>
+      </c>
+      <c r="O37" s="38">
+        <v>1</v>
+      </c>
+      <c r="P37" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2793,45 +2792,45 @@
       <c r="A38" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="34">
         <v>643232</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="34">
         <v>754454</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="34">
         <v>803869</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="34">
         <v>643225</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="34">
         <v>987842</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="34">
         <v>643237</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="34">
         <v>110122</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="34">
         <v>643225</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="35">
+      <c r="L38" s="34">
         <v>409875</v>
       </c>
-      <c r="M38" s="35">
+      <c r="M38" s="34">
         <v>161842</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N38" s="34">
         <v>440692</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="34">
         <v>348890</v>
       </c>
-      <c r="P38" s="35">
+      <c r="P38" s="34">
         <v>521081</v>
       </c>
     </row>
@@ -2848,7 +2847,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2894,7 +2893,7 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>75</v>
       </c>
       <c r="E3">
@@ -2914,7 +2913,7 @@
       <c r="C4">
         <v>75</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>25</v>
       </c>
       <c r="E4">
@@ -2947,7 +2946,7 @@
       <c r="C7">
         <v>0.667931688804554</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0.85076463350325104</v>
       </c>
       <c r="I7" t="s">
@@ -2964,7 +2963,7 @@
       <c r="C8">
         <v>0.77430708315002195</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0.89895988112927105</v>
       </c>
       <c r="I8">
@@ -2981,7 +2980,7 @@
       <c r="C9">
         <v>0.58725392058725301</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0.80747414080747404</v>
       </c>
       <c r="I9" t="s">
@@ -2992,7 +2991,7 @@
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>0.95448018389604306</v>
       </c>
       <c r="C10">
@@ -3015,7 +3014,7 @@
       <c r="C11">
         <v>0.94375862035325198</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0.96758302889704995</v>
       </c>
     </row>
@@ -3023,7 +3022,7 @@
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>0.89744088012007694</v>
       </c>
       <c r="C12">
@@ -3045,10 +3044,10 @@
       <c r="B15" s="6">
         <v>12448</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>7283</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>16898</v>
       </c>
     </row>
@@ -3059,10 +3058,10 @@
       <c r="B16" s="6">
         <v>3282</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>2002</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>4394</v>
       </c>
     </row>
@@ -3073,10 +3072,10 @@
       <c r="B17" s="6">
         <v>4948</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>2950</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>6725</v>
       </c>
     </row>
@@ -3089,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="P17" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17:AD46"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3180,13 +3179,13 @@
       <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>0.82819948973480995</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>0.77373652402467696</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>0.90114728392209298</v>
       </c>
       <c r="H3" t="s">
@@ -3250,13 +3249,13 @@
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.826074348328662</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0.78036554611616604</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>0.90930738360060004</v>
       </c>
       <c r="H5" t="s">
@@ -3320,13 +3319,13 @@
       <c r="A7" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>0.82837748719101201</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>0.80045510044782098</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="42">
         <v>0.89338022828637098</v>
       </c>
       <c r="H7" t="s">
@@ -3356,22 +3355,22 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>211</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5794,8 +5793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:BK62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6033,22 +6032,22 @@
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.90725369902562203</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0.83883883883883803</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>0.87170596393897304</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>0.96967306867307101</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>0.89655124234003403</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>0.931679637064175</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -6257,22 +6256,22 @@
       <c r="A9" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>0.85624538063562405</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0.773106439773106</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>0.81255479572154998</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>0.96192695354755997</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>0.868526638738637</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>0.91284388437653696</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -6338,53 +6337,53 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>211</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:63">
       <c r="A11" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>0.915334302325581</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="42">
         <v>0.84050717384050699</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>0.87632631762045499</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>0.973585263649135</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>0.89399621139887198</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>0.93209484973470802</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -6587,88 +6586,88 @@
       <c r="AI15" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AJ15" s="30" t="s">
+      <c r="AJ15" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AK15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="31" t="s">
+      <c r="AK15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AN15" s="31" t="s">
+      <c r="AN15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="AO15" s="31" t="s">
+      <c r="AO15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AP15" s="32" t="s">
+      <c r="AP15" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AQ15" s="30" t="s">
+      <c r="AQ15" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="AR15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="31" t="s">
+      <c r="AR15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AU15" s="31" t="s">
+      <c r="AU15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="AV15" s="31" t="s">
+      <c r="AV15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AW15" s="32" t="s">
+      <c r="AW15" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AX15" s="30" t="s">
+      <c r="AX15" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="AY15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="31" t="s">
+      <c r="AY15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BB15" s="31" t="s">
+      <c r="BB15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="BC15" s="31" t="s">
+      <c r="BC15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="BD15" s="32" t="s">
+      <c r="BD15" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BE15" s="30" t="s">
+      <c r="BE15" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="BF15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="31" t="s">
+      <c r="BF15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BI15" s="31" t="s">
+      <c r="BI15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="BJ15" s="31" t="s">
+      <c r="BJ15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="BK15" s="32" t="s">
+      <c r="BK15" s="31" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6778,7 +6777,7 @@
       <c r="AI16" s="22">
         <v>0.96203995194603398</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="AJ16" s="32" t="s">
         <v>177</v>
       </c>
       <c r="AK16" s="21">
@@ -6799,7 +6798,7 @@
       <c r="AP16" s="22">
         <v>0.88028673835125404</v>
       </c>
-      <c r="AQ16" s="33" t="s">
+      <c r="AQ16" s="32" t="s">
         <v>177</v>
       </c>
       <c r="AR16" s="21">
@@ -6820,7 +6819,7 @@
       <c r="AW16" s="22">
         <v>0.92825276253377997</v>
       </c>
-      <c r="AX16" s="33" t="s">
+      <c r="AX16" s="32" t="s">
         <v>177</v>
       </c>
       <c r="AY16" s="21">
@@ -6841,25 +6840,25 @@
       <c r="BD16" s="22">
         <v>0.93094297664022396</v>
       </c>
-      <c r="BE16" s="33" t="s">
+      <c r="BE16" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="BF16" s="44">
+      <c r="BF16" s="43">
         <v>0.930894308943089</v>
       </c>
-      <c r="BG16" s="44">
+      <c r="BG16" s="43">
         <v>0.87964148527528796</v>
       </c>
-      <c r="BH16" s="44">
+      <c r="BH16" s="43">
         <v>0.90454246214614797</v>
       </c>
-      <c r="BI16" s="44">
+      <c r="BI16" s="43">
         <v>0.99017329196039805</v>
       </c>
-      <c r="BJ16" s="44">
+      <c r="BJ16" s="43">
         <v>0.935656708664243</v>
       </c>
-      <c r="BK16" s="45">
+      <c r="BK16" s="44">
         <v>0.96214336993650296</v>
       </c>
     </row>
@@ -6969,7 +6968,7 @@
       <c r="AI17" s="22">
         <v>0.84064715323108796</v>
       </c>
-      <c r="AJ17" s="33" t="s">
+      <c r="AJ17" s="32" t="s">
         <v>176</v>
       </c>
       <c r="AK17" s="21">
@@ -6990,7 +6989,7 @@
       <c r="AP17" s="22">
         <v>0.78465983873163803</v>
       </c>
-      <c r="AQ17" s="33" t="s">
+      <c r="AQ17" s="32" t="s">
         <v>176</v>
       </c>
       <c r="AR17" s="21">
@@ -7011,7 +7010,7 @@
       <c r="AW17" s="22">
         <v>0.82351385992908399</v>
       </c>
-      <c r="AX17" s="33" t="s">
+      <c r="AX17" s="32" t="s">
         <v>176</v>
       </c>
       <c r="AY17" s="21">
@@ -7032,25 +7031,25 @@
       <c r="BD17" s="22">
         <v>0.82351385992908399</v>
       </c>
-      <c r="BE17" s="33" t="s">
+      <c r="BE17" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="BF17" s="44">
+      <c r="BF17" s="43">
         <v>0.97674418604651103</v>
       </c>
-      <c r="BG17" s="44">
+      <c r="BG17" s="43">
         <v>0.70588235294117596</v>
       </c>
-      <c r="BH17" s="44">
+      <c r="BH17" s="43">
         <v>0.81951219512195095</v>
       </c>
-      <c r="BI17" s="44">
+      <c r="BI17" s="43">
         <v>0.99759684176047703</v>
       </c>
-      <c r="BJ17" s="44">
+      <c r="BJ17" s="43">
         <v>0.72095233942353798</v>
       </c>
-      <c r="BK17" s="45">
+      <c r="BK17" s="44">
         <v>0.837008081867327</v>
       </c>
     </row>
@@ -7160,7 +7159,7 @@
       <c r="AI18" s="22">
         <v>0.99701991568541903</v>
       </c>
-      <c r="AJ18" s="33" t="s">
+      <c r="AJ18" s="32" t="s">
         <v>178</v>
       </c>
       <c r="AK18" s="21">
@@ -7181,7 +7180,7 @@
       <c r="AP18" s="22">
         <v>0.91741832169219795</v>
       </c>
-      <c r="AQ18" s="33" t="s">
+      <c r="AQ18" s="32" t="s">
         <v>178</v>
       </c>
       <c r="AR18" s="21">
@@ -7202,7 +7201,7 @@
       <c r="AW18" s="22">
         <v>0.98807966274167702</v>
       </c>
-      <c r="AX18" s="33" t="s">
+      <c r="AX18" s="32" t="s">
         <v>178</v>
       </c>
       <c r="AY18" s="21">
@@ -7223,25 +7222,25 @@
       <c r="BD18" s="22">
         <v>1</v>
       </c>
-      <c r="BE18" s="33" t="s">
+      <c r="BE18" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="BF18" s="44">
+      <c r="BF18" s="43">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BG18" s="44">
+      <c r="BG18" s="43">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BH18" s="44">
+      <c r="BH18" s="43">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BI18" s="44">
+      <c r="BI18" s="43">
         <v>0.99701991568541903</v>
       </c>
-      <c r="BJ18" s="44">
+      <c r="BJ18" s="43">
         <v>0.99701991568541903</v>
       </c>
-      <c r="BK18" s="45">
+      <c r="BK18" s="44">
         <v>0.99701991568541903</v>
       </c>
     </row>
@@ -7351,7 +7350,7 @@
       <c r="AI19" s="22">
         <v>0.86037083038895301</v>
       </c>
-      <c r="AJ19" s="33" t="s">
+      <c r="AJ19" s="32" t="s">
         <v>179</v>
       </c>
       <c r="AK19" s="21">
@@ -7372,7 +7371,7 @@
       <c r="AP19" s="22">
         <v>0.85997541741517403</v>
       </c>
-      <c r="AQ19" s="33" t="s">
+      <c r="AQ19" s="32" t="s">
         <v>179</v>
       </c>
       <c r="AR19" s="21">
@@ -7393,7 +7392,7 @@
       <c r="AW19" s="22">
         <v>0.86970002879530905</v>
       </c>
-      <c r="AX19" s="33" t="s">
+      <c r="AX19" s="32" t="s">
         <v>179</v>
       </c>
       <c r="AY19" s="21">
@@ -7414,25 +7413,25 @@
       <c r="BD19" s="22">
         <v>0.97539569744058996</v>
       </c>
-      <c r="BE19" s="33" t="s">
+      <c r="BE19" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="BF19" s="44">
+      <c r="BF19" s="43">
         <v>0.95263157894736805</v>
       </c>
-      <c r="BG19" s="44">
+      <c r="BG19" s="43">
         <v>0.96276595744680804</v>
       </c>
-      <c r="BH19" s="44">
+      <c r="BH19" s="43">
         <v>0.95767195767195701</v>
       </c>
-      <c r="BI19" s="44">
+      <c r="BI19" s="43">
         <v>0.982264025567402</v>
       </c>
-      <c r="BJ19" s="44">
+      <c r="BJ19" s="43">
         <v>0.99271364286067199</v>
       </c>
-      <c r="BK19" s="45">
+      <c r="BK19" s="44">
         <v>0.987461189723843</v>
       </c>
     </row>
@@ -7542,7 +7541,7 @@
       <c r="AI20" s="22">
         <v>0.76105897039514103</v>
       </c>
-      <c r="AJ20" s="33" t="s">
+      <c r="AJ20" s="32" t="s">
         <v>180</v>
       </c>
       <c r="AK20" s="21">
@@ -7563,7 +7562,7 @@
       <c r="AP20" s="22">
         <v>0.99549167868669997</v>
       </c>
-      <c r="AQ20" s="33" t="s">
+      <c r="AQ20" s="32" t="s">
         <v>180</v>
       </c>
       <c r="AR20" s="21">
@@ -7584,7 +7583,7 @@
       <c r="AW20" s="22">
         <v>0.99549167868669997</v>
       </c>
-      <c r="AX20" s="33" t="s">
+      <c r="AX20" s="32" t="s">
         <v>180</v>
       </c>
       <c r="AY20" s="21">
@@ -7605,25 +7604,25 @@
       <c r="BD20" s="22">
         <v>1</v>
       </c>
-      <c r="BE20" s="33" t="s">
+      <c r="BE20" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="BF20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="44">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="45">
+      <c r="BF20" s="43">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="43">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="43">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="44">
         <v>1</v>
       </c>
     </row>
@@ -7733,7 +7732,7 @@
       <c r="AI21" s="22">
         <v>0</v>
       </c>
-      <c r="AJ21" s="33" t="s">
+      <c r="AJ21" s="32" t="s">
         <v>181</v>
       </c>
       <c r="AK21" s="21">
@@ -7754,7 +7753,7 @@
       <c r="AP21" s="22">
         <v>0</v>
       </c>
-      <c r="AQ21" s="33" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>181</v>
       </c>
       <c r="AR21" s="21">
@@ -7775,7 +7774,7 @@
       <c r="AW21" s="22">
         <v>0</v>
       </c>
-      <c r="AX21" s="33" t="s">
+      <c r="AX21" s="32" t="s">
         <v>181</v>
       </c>
       <c r="AY21" s="21">
@@ -7796,25 +7795,25 @@
       <c r="BD21" s="22">
         <v>0</v>
       </c>
-      <c r="BE21" s="33" t="s">
+      <c r="BE21" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="BF21" s="44">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="44">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="44">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="45">
+      <c r="BF21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="44">
         <v>0</v>
       </c>
     </row>
@@ -7924,7 +7923,7 @@
       <c r="AI22" s="22">
         <v>0.99255525429299096</v>
       </c>
-      <c r="AJ22" s="33" t="s">
+      <c r="AJ22" s="32" t="s">
         <v>182</v>
       </c>
       <c r="AK22" s="21">
@@ -7945,7 +7944,7 @@
       <c r="AP22" s="22">
         <v>0.97260273972602695</v>
       </c>
-      <c r="AQ22" s="33" t="s">
+      <c r="AQ22" s="32" t="s">
         <v>182</v>
       </c>
       <c r="AR22" s="21">
@@ -7966,7 +7965,7 @@
       <c r="AW22" s="22">
         <v>0.986399272551021</v>
       </c>
-      <c r="AX22" s="33" t="s">
+      <c r="AX22" s="32" t="s">
         <v>182</v>
       </c>
       <c r="AY22" s="21">
@@ -7987,25 +7986,25 @@
       <c r="BD22" s="22">
         <v>0.97959183673469297</v>
       </c>
-      <c r="BE22" s="33" t="s">
+      <c r="BE22" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="BF22" s="44">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="44">
+      <c r="BF22" s="43">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="43">
         <v>0.96</v>
       </c>
-      <c r="BH22" s="44">
+      <c r="BH22" s="43">
         <v>0.97959183673469297</v>
       </c>
-      <c r="BI22" s="44">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="44">
+      <c r="BI22" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="43">
         <v>0.96</v>
       </c>
-      <c r="BK22" s="45">
+      <c r="BK22" s="44">
         <v>0.97959183673469297</v>
       </c>
     </row>
@@ -8115,7 +8114,7 @@
       <c r="AI23" s="22">
         <v>0</v>
       </c>
-      <c r="AJ23" s="33" t="s">
+      <c r="AJ23" s="32" t="s">
         <v>183</v>
       </c>
       <c r="AK23" s="21">
@@ -8136,7 +8135,7 @@
       <c r="AP23" s="22">
         <v>0</v>
       </c>
-      <c r="AQ23" s="33" t="s">
+      <c r="AQ23" s="32" t="s">
         <v>183</v>
       </c>
       <c r="AR23" s="21">
@@ -8157,7 +8156,7 @@
       <c r="AW23" s="22">
         <v>0</v>
       </c>
-      <c r="AX23" s="33" t="s">
+      <c r="AX23" s="32" t="s">
         <v>183</v>
       </c>
       <c r="AY23" s="21">
@@ -8178,25 +8177,25 @@
       <c r="BD23" s="22">
         <v>0</v>
       </c>
-      <c r="BE23" s="33" t="s">
+      <c r="BE23" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="BF23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="45">
+      <c r="BF23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="44">
         <v>0</v>
       </c>
     </row>
@@ -8306,7 +8305,7 @@
       <c r="AI24" s="22">
         <v>1</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="AJ24" s="32" t="s">
         <v>184</v>
       </c>
       <c r="AK24" s="21">
@@ -8327,7 +8326,7 @@
       <c r="AP24" s="22">
         <v>0.99305555555555503</v>
       </c>
-      <c r="AQ24" s="33" t="s">
+      <c r="AQ24" s="32" t="s">
         <v>184</v>
       </c>
       <c r="AR24" s="21">
@@ -8348,7 +8347,7 @@
       <c r="AW24" s="22">
         <v>0.99722865577876896</v>
       </c>
-      <c r="AX24" s="33" t="s">
+      <c r="AX24" s="32" t="s">
         <v>184</v>
       </c>
       <c r="AY24" s="21">
@@ -8369,25 +8368,25 @@
       <c r="BD24" s="22">
         <v>1</v>
       </c>
-      <c r="BE24" s="33" t="s">
+      <c r="BE24" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="BF24" s="44">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="44">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="44">
-        <v>1</v>
-      </c>
-      <c r="BI24" s="44">
-        <v>1</v>
-      </c>
-      <c r="BJ24" s="44">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="45">
+      <c r="BF24" s="43">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="43">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="43">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="43">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="44">
         <v>1</v>
       </c>
     </row>
@@ -8497,7 +8496,7 @@
       <c r="AI25" s="22">
         <v>0.61016838568313903</v>
       </c>
-      <c r="AJ25" s="33" t="s">
+      <c r="AJ25" s="32" t="s">
         <v>185</v>
       </c>
       <c r="AK25" s="21">
@@ -8518,7 +8517,7 @@
       <c r="AP25" s="22">
         <v>0.54794520547945202</v>
       </c>
-      <c r="AQ25" s="33" t="s">
+      <c r="AQ25" s="32" t="s">
         <v>185</v>
       </c>
       <c r="AR25" s="21">
@@ -8539,7 +8538,7 @@
       <c r="AW25" s="22">
         <v>0.57631646041546303</v>
       </c>
-      <c r="AX25" s="33" t="s">
+      <c r="AX25" s="32" t="s">
         <v>185</v>
       </c>
       <c r="AY25" s="21">
@@ -8560,25 +8559,25 @@
       <c r="BD25" s="22">
         <v>0.58494870135872001</v>
       </c>
-      <c r="BE25" s="33" t="s">
+      <c r="BE25" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="BF25" s="44">
+      <c r="BF25" s="43">
         <v>0.875</v>
       </c>
-      <c r="BG25" s="44">
+      <c r="BG25" s="43">
         <v>0.39622641509433898</v>
       </c>
-      <c r="BH25" s="44">
+      <c r="BH25" s="43">
         <v>0.54545454545454497</v>
       </c>
-      <c r="BI25" s="44">
+      <c r="BI25" s="43">
         <v>0.99194703761900305</v>
       </c>
-      <c r="BJ25" s="44">
+      <c r="BJ25" s="43">
         <v>0.44918356420483102</v>
       </c>
-      <c r="BK25" s="45">
+      <c r="BK25" s="44">
         <v>0.618356594879378</v>
       </c>
     </row>
@@ -8688,7 +8687,7 @@
       <c r="AI26" s="22">
         <v>0</v>
       </c>
-      <c r="AJ26" s="33" t="s">
+      <c r="AJ26" s="32" t="s">
         <v>190</v>
       </c>
       <c r="AK26" s="21">
@@ -8709,7 +8708,7 @@
       <c r="AP26" s="22">
         <v>0</v>
       </c>
-      <c r="AQ26" s="33" t="s">
+      <c r="AQ26" s="32" t="s">
         <v>190</v>
       </c>
       <c r="AR26" s="21">
@@ -8730,7 +8729,7 @@
       <c r="AW26" s="22">
         <v>0</v>
       </c>
-      <c r="AX26" s="33" t="s">
+      <c r="AX26" s="32" t="s">
         <v>190</v>
       </c>
       <c r="AY26" s="21">
@@ -8751,25 +8750,25 @@
       <c r="BD26" s="22">
         <v>0</v>
       </c>
-      <c r="BE26" s="33" t="s">
+      <c r="BE26" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="BF26" s="44">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="44">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="44">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="45">
+      <c r="BF26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="44">
         <v>0</v>
       </c>
     </row>
@@ -8879,7 +8878,7 @@
       <c r="AI27" s="22">
         <v>0.97482836428823705</v>
       </c>
-      <c r="AJ27" s="33" t="s">
+      <c r="AJ27" s="32" t="s">
         <v>186</v>
       </c>
       <c r="AK27" s="21">
@@ -8900,7 +8899,7 @@
       <c r="AP27" s="22">
         <v>0.95343129704363105</v>
       </c>
-      <c r="AQ27" s="33" t="s">
+      <c r="AQ27" s="32" t="s">
         <v>186</v>
       </c>
       <c r="AR27" s="21">
@@ -8921,7 +8920,7 @@
       <c r="AW27" s="22">
         <v>0.97663408523775197</v>
       </c>
-      <c r="AX27" s="33" t="s">
+      <c r="AX27" s="32" t="s">
         <v>186</v>
       </c>
       <c r="AY27" s="21">
@@ -8942,25 +8941,25 @@
       <c r="BD27" s="22">
         <v>0.97146282297351305</v>
       </c>
-      <c r="BE27" s="33" t="s">
+      <c r="BE27" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="BF27" s="44">
+      <c r="BF27" s="43">
         <v>0.95738636363636298</v>
       </c>
-      <c r="BG27" s="44">
+      <c r="BG27" s="43">
         <v>0.94662921348314599</v>
       </c>
-      <c r="BH27" s="44">
+      <c r="BH27" s="43">
         <v>0.951977401129943</v>
       </c>
-      <c r="BI27" s="44">
+      <c r="BI27" s="43">
         <v>0.97772817964394498</v>
       </c>
-      <c r="BJ27" s="44">
+      <c r="BJ27" s="43">
         <v>0.96674246976030498</v>
       </c>
-      <c r="BK27" s="45">
+      <c r="BK27" s="44">
         <v>0.97220429162335797</v>
       </c>
     </row>
@@ -9070,7 +9069,7 @@
       <c r="AI28" s="22">
         <v>0.73161340007701103</v>
       </c>
-      <c r="AJ28" s="33" t="s">
+      <c r="AJ28" s="32" t="s">
         <v>187</v>
       </c>
       <c r="AK28" s="21">
@@ -9091,7 +9090,7 @@
       <c r="AP28" s="22">
         <v>0.73161340007701103</v>
       </c>
-      <c r="AQ28" s="33" t="s">
+      <c r="AQ28" s="32" t="s">
         <v>187</v>
       </c>
       <c r="AR28" s="21">
@@ -9112,7 +9111,7 @@
       <c r="AW28" s="22">
         <v>0.73161340007701103</v>
       </c>
-      <c r="AX28" s="33" t="s">
+      <c r="AX28" s="32" t="s">
         <v>187</v>
       </c>
       <c r="AY28" s="21">
@@ -9133,25 +9132,25 @@
       <c r="BD28" s="22">
         <v>0.73161340007701103</v>
       </c>
-      <c r="BE28" s="33" t="s">
+      <c r="BE28" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="BF28" s="44">
-        <v>0</v>
-      </c>
-      <c r="BG28" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="44">
+      <c r="BF28" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="43">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="43">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="43">
         <v>0.73161340007701103</v>
       </c>
-      <c r="BJ28" s="44">
+      <c r="BJ28" s="43">
         <v>0.73161340007701103</v>
       </c>
-      <c r="BK28" s="45">
+      <c r="BK28" s="44">
         <v>0.73161340007701103</v>
       </c>
     </row>
@@ -9261,7 +9260,7 @@
       <c r="AI29" s="22">
         <v>0.92344188652274695</v>
       </c>
-      <c r="AJ29" s="33" t="s">
+      <c r="AJ29" s="32" t="s">
         <v>188</v>
       </c>
       <c r="AK29" s="21">
@@ -9282,7 +9281,7 @@
       <c r="AP29" s="22">
         <v>0.40440913000104101</v>
       </c>
-      <c r="AQ29" s="33" t="s">
+      <c r="AQ29" s="32" t="s">
         <v>188</v>
       </c>
       <c r="AR29" s="21">
@@ -9303,7 +9302,7 @@
       <c r="AW29" s="22">
         <v>0.92779106708992798</v>
       </c>
-      <c r="AX29" s="33" t="s">
+      <c r="AX29" s="32" t="s">
         <v>188</v>
       </c>
       <c r="AY29" s="21">
@@ -9324,25 +9323,25 @@
       <c r="BD29" s="22">
         <v>0.93347548112786105</v>
       </c>
-      <c r="BE29" s="33" t="s">
+      <c r="BE29" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="BF29" s="44">
+      <c r="BF29" s="43">
         <v>0.81204379562043705</v>
       </c>
-      <c r="BG29" s="44">
+      <c r="BG29" s="43">
         <v>0.74290484140233704</v>
       </c>
-      <c r="BH29" s="44">
+      <c r="BH29" s="43">
         <v>0.77593722755012995</v>
       </c>
-      <c r="BI29" s="44">
+      <c r="BI29" s="43">
         <v>0.97118671220042496</v>
       </c>
-      <c r="BJ29" s="44">
+      <c r="BJ29" s="43">
         <v>0.88849802718836901</v>
       </c>
-      <c r="BK29" s="45">
+      <c r="BK29" s="44">
         <v>0.92800404234670097</v>
       </c>
     </row>
@@ -9452,7 +9451,7 @@
       <c r="AI30" s="25">
         <v>0.73255813953488302</v>
       </c>
-      <c r="AJ30" s="34" t="s">
+      <c r="AJ30" s="33" t="s">
         <v>189</v>
       </c>
       <c r="AK30" s="24">
@@ -9473,7 +9472,7 @@
       <c r="AP30" s="25">
         <v>0.51194539249146698</v>
       </c>
-      <c r="AQ30" s="34" t="s">
+      <c r="AQ30" s="33" t="s">
         <v>189</v>
       </c>
       <c r="AR30" s="24">
@@ -9494,7 +9493,7 @@
       <c r="AW30" s="25">
         <v>0.73255813953488302</v>
       </c>
-      <c r="AX30" s="34" t="s">
+      <c r="AX30" s="33" t="s">
         <v>189</v>
       </c>
       <c r="AY30" s="24">
@@ -9515,25 +9514,25 @@
       <c r="BD30" s="25">
         <v>0.72936121864344095</v>
       </c>
-      <c r="BE30" s="34" t="s">
+      <c r="BE30" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="BF30" s="46">
+      <c r="BF30" s="45">
         <v>0.95588235294117596</v>
       </c>
-      <c r="BG30" s="46">
+      <c r="BG30" s="45">
         <v>0.596330275229357</v>
       </c>
-      <c r="BH30" s="46">
+      <c r="BH30" s="45">
         <v>0.73446327683615797</v>
       </c>
-      <c r="BI30" s="46">
+      <c r="BI30" s="45">
         <v>0.99653443029415001</v>
       </c>
-      <c r="BJ30" s="46">
+      <c r="BJ30" s="45">
         <v>0.62169120422020396</v>
       </c>
-      <c r="BK30" s="47">
+      <c r="BK30" s="46">
         <v>0.76569877129945996</v>
       </c>
     </row>
@@ -10141,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10186,13 +10185,13 @@
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="40">
         <v>0.86381881681936301</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>0.91369648869648801</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="40">
         <v>0.83242612221992596</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -10432,13 +10431,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>0.98901098901098905</v>
       </c>
       <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.97826086956521696</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.98901098901098905</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>56</v>
@@ -10494,13 +10493,13 @@
         <v>165</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>0.749999999999999</v>
       </c>
       <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
         <v>0.6</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.749999999999999</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>165</v>
@@ -10556,13 +10555,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="15">
         <v>0.70588235294117596</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.75</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>57</v>
@@ -10618,13 +10617,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="4">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.92424242424242398</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="15">
         <v>0.85915492957746398</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.89051094890510896</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>58</v>
@@ -10680,13 +10679,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="4">
+        <v>0.93159609120521103</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.90793650793650704</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="15">
         <v>0.95652173913043403</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.93159609120521103</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>59</v>
@@ -10742,13 +10741,13 @@
         <v>167</v>
       </c>
       <c r="B17" s="17">
+        <v>0.87179487179487103</v>
+      </c>
+      <c r="C17" s="17">
         <v>0.85</v>
       </c>
-      <c r="C17" s="17">
+      <c r="D17" s="18">
         <v>0.89473684210526305</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.87179487179487103</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>167</v>
@@ -10842,19 +10841,18 @@
       <c r="D22" s="4">
         <v>0.53086486707606995</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="L22" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="M22" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="N22" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="M22" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
@@ -10869,20 +10867,20 @@
       <c r="D23" s="4">
         <v>0.69462695387042095</v>
       </c>
-      <c r="J23" s="48">
-        <v>0</v>
-      </c>
-      <c r="K23" s="49" t="s">
+      <c r="J23" s="47">
+        <v>0</v>
+      </c>
+      <c r="K23" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="49">
-        <v>1</v>
-      </c>
-      <c r="M23" s="49">
+      <c r="L23" s="48">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="M23" s="48">
+        <v>1</v>
+      </c>
+      <c r="N23" s="48">
         <v>0.97826086956521696</v>
-      </c>
-      <c r="N23" s="49">
-        <v>0.98901098901098905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -10898,20 +10896,20 @@
       <c r="D24" s="4">
         <v>0.75353095496400402</v>
       </c>
-      <c r="J24" s="48">
-        <v>1</v>
-      </c>
-      <c r="K24" s="49" t="s">
+      <c r="J24" s="47">
+        <v>1</v>
+      </c>
+      <c r="K24" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="49">
-        <v>1</v>
-      </c>
-      <c r="M24" s="49">
+      <c r="L24" s="48">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="M24" s="48">
+        <v>1</v>
+      </c>
+      <c r="N24" s="48">
         <v>0.6</v>
-      </c>
-      <c r="N24" s="49">
-        <v>0.749999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -10927,20 +10925,20 @@
       <c r="D25" s="4">
         <v>0.74956068647649399</v>
       </c>
-      <c r="J25" s="48">
+      <c r="J25" s="47">
         <v>2</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="M25" s="48">
         <v>0.8</v>
       </c>
-      <c r="M25" s="49">
+      <c r="N25" s="48">
         <v>0.70588235294117596</v>
-      </c>
-      <c r="N25" s="49">
-        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -10956,20 +10954,20 @@
       <c r="D26" s="4">
         <v>0.81541379252177604</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="47">
         <v>3</v>
       </c>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="48">
+        <v>0.89051094890510896</v>
+      </c>
+      <c r="M26" s="48">
         <v>0.92424242424242398</v>
       </c>
-      <c r="M26" s="49">
+      <c r="N26" s="48">
         <v>0.85915492957746398</v>
-      </c>
-      <c r="N26" s="49">
-        <v>0.89051094890510896</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -10985,20 +10983,20 @@
       <c r="D27" s="4">
         <v>0.76723535468864401</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="47">
         <v>4</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K27" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="48">
+        <v>0.93159609120521103</v>
+      </c>
+      <c r="M27" s="48">
         <v>0.90793650793650704</v>
       </c>
-      <c r="M27" s="49">
+      <c r="N27" s="48">
         <v>0.95652173913043403</v>
-      </c>
-      <c r="N27" s="49">
-        <v>0.93159609120521103</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -11014,20 +11012,20 @@
       <c r="D28" s="4">
         <v>0.75399380294523799</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="47">
         <v>5</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="48">
+        <v>0.87179487179487103</v>
+      </c>
+      <c r="M28" s="48">
         <v>0.85</v>
       </c>
-      <c r="M28" s="49">
+      <c r="N28" s="48">
         <v>0.89473684210526305</v>
-      </c>
-      <c r="N28" s="49">
-        <v>0.87179487179487103</v>
       </c>
     </row>
     <row r="29" spans="1:20">

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B9F84F-FDD2-4836-B286-8F24206E1AE8}"/>
+  <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDDC40B-8179-4A3D-A4A8-8E6AC9E47AB6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="284">
   <si>
     <t>Precision</t>
   </si>
@@ -882,18 +882,31 @@
   </si>
   <si>
     <t>V2 Classes</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Alpha_01</t>
+  </si>
+  <si>
+    <t>Alpha_001</t>
+  </si>
+  <si>
+    <t>Final Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1083,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1172,6 +1185,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2847,7 +2864,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3050,6 +3067,9 @@
       <c r="D15" s="34">
         <v>16898</v>
       </c>
+      <c r="E15" s="34">
+        <v>34826</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -3064,8 +3084,11 @@
       <c r="D16" s="34">
         <v>4394</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="34">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -3077,6 +3100,9 @@
       </c>
       <c r="D17" s="34">
         <v>6725</v>
+      </c>
+      <c r="E17" s="34">
+        <v>13686</v>
       </c>
     </row>
   </sheetData>
@@ -3086,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3188,6 +3214,7 @@
       <c r="D3" s="28">
         <v>0.90114728392209298</v>
       </c>
+      <c r="E3" s="49"/>
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -5691,12 +5718,16 @@
         <v>0.98427105840719997</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="I54" s="50"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
         <v>216</v>
       </c>
@@ -5710,7 +5741,7 @@
         <v>0.84462187021097201</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
         <v>217</v>
       </c>
@@ -5724,7 +5755,7 @@
         <v>0.65110740714742699</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
         <v>219</v>
       </c>
@@ -5738,7 +5769,7 @@
         <v>0.80284579685109803</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>220</v>
       </c>
@@ -5752,7 +5783,7 @@
         <v>0.82332772979218205</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
         <v>223</v>
       </c>
@@ -5766,7 +5797,7 @@
         <v>0.85306358846034402</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
         <v>225</v>
       </c>
@@ -5778,6 +5809,528 @@
       </c>
       <c r="D60" s="4">
         <v>0.77979892143477603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="14">
+        <v>0.929595827900912</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0.89348370927318299</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0.96875</v>
+      </c>
+      <c r="F73" t="str">
+        <f>_xlfn.CONCAT("\textbf{", A73, "} &amp; ", ROUND(B73,3), " &amp; ",   ROUND(C73,3), " &amp; ", ROUND(D73,3), " \\")</f>
+        <v>\textbf{B=BACIA} &amp; 0.93 &amp; 0.893 &amp; 0.969 \\</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="14">
+        <v>0.83760683760683696</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0.86725663716814105</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0.80991735537190002</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" ref="F74:F101" si="0">_xlfn.CONCAT("\textbf{", A74, "} &amp; ", ROUND(B74,3), " &amp; ",   ROUND(C74,3), " &amp; ", ROUND(D74,3), " \\")</f>
+        <v>\textbf{B=CAMPO} &amp; 0.838 &amp; 0.867 &amp; 0.81 \\</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="14">
+        <v>0.91262135922330001</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0.90384615384615297</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=ELEMENTO_PETRO} &amp; 0.913 &amp; 0.904 &amp; 0.922 \\</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0.87906976744186005</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.99473684210526303</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=ESTRUTURA_FÍSICA} &amp; 0.933 &amp; 0.879 &amp; 0.995 \\</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="14">
+        <v>0.86338797814207602</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0.75961538461538403</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=EVENTO_PETRO} &amp; 0.863 &amp; 0.76 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=FLUIDO} &amp; 1 &amp; 1 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="14">
+        <v>0.91935483870967705</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0.890625</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=FLUIDODATERRA_i} &amp; 0.919 &amp; 0.891 &amp; 0.95 \\</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="14">
+        <v>0.911392405063291</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0.837209302325581</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=FLUIDODATERRA_o} &amp; 0.911 &amp; 0.837 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0.92903225806451595</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0.99310344827586206</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=NÃOCONSOLID} &amp; 0.96 &amp; 0.929 &amp; 0.993 \\</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="14">
+        <v>0.63230240549828098</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0.49729729729729699</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0.86792452830188604</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=POÇO} &amp; 0.632 &amp; 0.497 &amp; 0.868 \\</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="14">
+        <v>0.84088269454123099</v>
+      </c>
+      <c r="C83" s="14">
+        <v>0.73427991886409705</v>
+      </c>
+      <c r="D83" s="15">
+        <v>0.98369565217391297</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=ROCHA} &amp; 0.841 &amp; 0.734 &amp; 0.984 \\</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="14">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C84" s="14">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D84" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=TEXTURA} &amp; 0.118 &amp; 0.077 &amp; 0.25 \\</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="14">
+        <v>0.92976588628762502</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0.91147540983606501</v>
+      </c>
+      <c r="D85" s="15">
+        <v>0.94880546075085304</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=UNIDADE_CRONO} &amp; 0.93 &amp; 0.911 &amp; 0.949 \\</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="14">
+        <v>0.95737704918032696</v>
+      </c>
+      <c r="C86" s="14">
+        <v>0.94193548387096704</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0.97333333333333305</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{B=UNIDADE_LITO} &amp; 0.957 &amp; 0.942 &amp; 0.973 \\</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="14">
+        <v>0.92700467457749003</v>
+      </c>
+      <c r="C87" s="14">
+        <v>0.87330623306233002</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0.98773946360153198</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=BACIA} &amp; 0.927 &amp; 0.873 &amp; 0.988 \\</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="14">
+        <v>0.89719626168224298</v>
+      </c>
+      <c r="C88" s="14">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="D88" s="15">
+        <v>0.87272727272727202</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=CAMPO} &amp; 0.897 &amp; 0.923 &amp; 0.873 \\</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="14">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="C89" s="14">
+        <v>0.87573964497041401</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0.98013245033112495</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=ELEMENTO_PETRO} &amp; 0.925 &amp; 0.876 &amp; 0.98 \\</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="14">
+        <v>0.777464788732394</v>
+      </c>
+      <c r="C90" s="14">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0.95172413793103405</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=ESTRUTURA_FÍSICA} &amp; 0.777 &amp; 0.657 &amp; 0.952 \\</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="14">
+        <v>1</v>
+      </c>
+      <c r="C91" s="14">
+        <v>1</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=EVENTO_PETRO} &amp; 1 &amp; 1 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="14">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=FLUIDO} &amp; 0.933 &amp; 0.875 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="14">
+        <v>0.94551845342706498</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0.91186440677966096</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=FLUIDODATERRA_i} &amp; 0.946 &amp; 0.982 &amp; 0.912 \\</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="14">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=FLUIDODATERRA_o} &amp; 0.606 &amp; 0.455 &amp; 0.909 \\</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="14">
+        <v>0.91205211726384305</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=NÃOCONSOLID} &amp; 0.912 &amp; 0.875 &amp; 0.952 \\</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="14">
+        <v>0.61283643892339501</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0.45030425963488802</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0.95896328293736499</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=POÇO} &amp; 0.613 &amp; 0.45 &amp; 0.959 \\</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="14">
+        <v>0.82446043165467597</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0.70915841584158401</v>
+      </c>
+      <c r="D97" s="15">
+        <v>0.98453608247422597</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=ROCHA} &amp; 0.824 &amp; 0.709 &amp; 0.985 \\</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="14">
+        <v>0</v>
+      </c>
+      <c r="C98" s="14">
+        <v>0</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=TEXTURA} &amp; 0 &amp; 0 &amp; 0 \\</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="14">
+        <v>0.92538783550849502</v>
+      </c>
+      <c r="C99" s="14">
+        <v>0.86669741697416902</v>
+      </c>
+      <c r="D99" s="15">
+        <v>0.99260433174854701</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=UNIDADE_CRONO} &amp; 0.925 &amp; 0.867 &amp; 0.993 \\</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="14">
+        <v>0.96168582375478895</v>
+      </c>
+      <c r="C100" s="14">
+        <v>0.94360902255639101</v>
+      </c>
+      <c r="D100" s="15">
+        <v>0.98046875</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{I=UNIDADE_LITO} &amp; 0.962 &amp; 0.944 &amp; 0.98 \\</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1">
+      <c r="A101" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="17">
+        <v>0.99118608627094695</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0.99857546167991895</v>
+      </c>
+      <c r="D101" s="18">
+        <v>0.98390526906783204</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{O} &amp; 0.991 &amp; 0.999 &amp; 0.984 \\</v>
       </c>
     </row>
   </sheetData>
@@ -5791,15 +6344,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="7" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
@@ -10127,6 +10680,694 @@
         <v>0.751313485113835</v>
       </c>
     </row>
+    <row r="75" spans="1:9">
+      <c r="B75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.87683284457477995</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.862863217576187</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.89283339969549302</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.925258855436765</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.86260367832672102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.77581329561527501</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.82512222640090205</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.732065398732065</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.89744088012007694</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.95448018389604306</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0.84683443743062303</v>
+      </c>
+      <c r="I77" t="str">
+        <f>_xlfn.CONCAT("\textbf{", A77, "} &amp; ", ROUND(B77,3), " &amp; ",   ROUND(C77,3), " &amp; ", ROUND(D77,3), " &amp; ", ROUND(E77,3), " &amp; ",   ROUND(F77,3), " &amp; ", ROUND(G77,3)," \\")</f>
+        <v>\textbf{Baseline} &amp; 0.776 &amp; 0.825 &amp; 0.732 &amp; 0.897 &amp; 0.954 &amp; 0.847 \\</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.80523560209424005</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.84412733260153605</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.76976976976976896</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.90675533024486299</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.95055031875284801</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0.86681815854238697</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" ref="I78:I85" si="0">_xlfn.CONCAT("\textbf{", A78, "} &amp; ", ROUND(B78,3), " &amp; ",   ROUND(C78,3), " &amp; ", ROUND(D78,3), " &amp; ", ROUND(E78,3), " &amp; ",   ROUND(F78,3), " &amp; ", ROUND(G78,3)," \\")</f>
+        <v>\textbf{TinyBert} &amp; 0.805 &amp; 0.844 &amp; 0.77 &amp; 0.907 &amp; 0.951 &amp; 0.867 \\</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="28">
+        <v>0.87170596393897304</v>
+      </c>
+      <c r="C79" s="28">
+        <v>0.90725369902562203</v>
+      </c>
+      <c r="D79" s="28">
+        <v>0.83883883883883803</v>
+      </c>
+      <c r="E79" s="28">
+        <v>0.931679637064175</v>
+      </c>
+      <c r="F79" s="28">
+        <v>0.96967306867307101</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0.89655124234003403</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Bertimbau Large} &amp; 0.872 &amp; 0.907 &amp; 0.839 &amp; 0.932 &amp; 0.97 &amp; 0.897 \\</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.74946543121881604</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.80420650095602297</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.70170170170170099</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.88386783148039205</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.94842567309138803</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0.82753858362828803</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Dropout_03} &amp; 0.749 &amp; 0.804 &amp; 0.702 &amp; 0.884 &amp; 0.948 &amp; 0.828 \\</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.75865615358244698</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.78004934790271396</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.73840507173840497</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.91535183333800896</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.94116365803559099</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.89091801729962306</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Alpha_01} &amp; 0.759 &amp; 0.78 &amp; 0.738 &amp; 0.915 &amp; 0.941 &amp; 0.891 \\</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.76177339901477803</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.930221366698748</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.64497831164497799</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.80350021239706604</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.98117506687081602</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0.680307570556408</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Alpha_001} &amp; 0.762 &amp; 0.93 &amp; 0.645 &amp; 0.804 &amp; 0.981 &amp; 0.68 \\</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="28">
+        <v>0.81255479572154998</v>
+      </c>
+      <c r="C83" s="28">
+        <v>0.85624538063562405</v>
+      </c>
+      <c r="D83" s="28">
+        <v>0.773106439773106</v>
+      </c>
+      <c r="E83" s="28">
+        <v>0.91284388437653696</v>
+      </c>
+      <c r="F83" s="28">
+        <v>0.96192695354755997</v>
+      </c>
+      <c r="G83" s="28">
+        <v>0.868526638738637</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Alpha 001_treino 005_pred} &amp; 0.813 &amp; 0.856 &amp; 0.773 &amp; 0.913 &amp; 0.962 &amp; 0.869 \\</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.86701940035273295</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.91956603067714104</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.82015348682015299</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.92139936566695801</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.97724175146495496</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0.871593994549825</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Base_PetroOntoVecV2} &amp; 0.867 &amp; 0.92 &amp; 0.82 &amp; 0.921 &amp; 0.977 &amp; 0.872 \\</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" s="42">
+        <v>0.87632631762045499</v>
+      </c>
+      <c r="C85" s="42">
+        <v>0.915334302325581</v>
+      </c>
+      <c r="D85" s="42">
+        <v>0.84050717384050699</v>
+      </c>
+      <c r="E85" s="42">
+        <v>0.93209484973470802</v>
+      </c>
+      <c r="F85" s="42">
+        <v>0.973585263649135</v>
+      </c>
+      <c r="G85" s="42">
+        <v>0.89399621139887198</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Final Model} &amp; 0.876 &amp; 0.915 &amp; 0.841 &amp; 0.932 &amp; 0.974 &amp; 0.894 \\</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1"/>
+    <row r="89" spans="1:9">
+      <c r="A89" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="21">
+        <v>0.90454246214614797</v>
+      </c>
+      <c r="C90" s="21">
+        <v>0.930894308943089</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0.87964148527528796</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0.96214336993650296</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.99017329196039805</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0.935656708664243</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" ref="I90:I103" si="1">_xlfn.CONCAT("\textbf{", A90, "} &amp; ", ROUND(B90,3), " &amp; ",   ROUND(C90,3), " &amp; ", ROUND(D90,3), " &amp; ", ROUND(E90,3), " &amp; ",   ROUND(F90,3), " &amp; ", ROUND(G90,3)," \\")</f>
+        <v>\textbf{BACIA} &amp; 0.905 &amp; 0.931 &amp; 0.88 &amp; 0.962 &amp; 0.99 &amp; 0.936 \\</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="21">
+        <v>0.81951219512195095</v>
+      </c>
+      <c r="C91" s="21">
+        <v>0.97674418604651103</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0.837008081867327</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0.99759684176047703</v>
+      </c>
+      <c r="G91" s="21">
+        <v>0.72095233942353798</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{CAMPO} &amp; 0.82 &amp; 0.977 &amp; 0.706 &amp; 0.837 &amp; 0.998 &amp; 0.721 \\</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="C92" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="E92" s="22">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="G92" s="21">
+        <v>0.99701991568541903</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{ELEMENTO_PETRO} &amp; 0.99 &amp; 0.99 &amp; 0.99 &amp; 0.997 &amp; 0.997 &amp; 0.997 \\</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="21">
+        <v>0.95767195767195701</v>
+      </c>
+      <c r="C93" s="21">
+        <v>0.95263157894736805</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0.96276595744680804</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0.987461189723843</v>
+      </c>
+      <c r="F93" s="21">
+        <v>0.982264025567402</v>
+      </c>
+      <c r="G93" s="21">
+        <v>0.99271364286067199</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{ESTRUTURA_FÍSICA} &amp; 0.958 &amp; 0.953 &amp; 0.963 &amp; 0.987 &amp; 0.982 &amp; 0.993 \\</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="21">
+        <v>1</v>
+      </c>
+      <c r="C94" s="21">
+        <v>1</v>
+      </c>
+      <c r="D94" s="21">
+        <v>1</v>
+      </c>
+      <c r="E94" s="22">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21">
+        <v>1</v>
+      </c>
+      <c r="G94" s="21">
+        <v>1</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{EVENTO_PETRO} &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="21">
+        <v>0</v>
+      </c>
+      <c r="C95" s="21">
+        <v>0</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="21">
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{FLUIDO} &amp; 0 &amp; 0 &amp; 0 &amp; 0 &amp; 0 &amp; 0 \\</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="21">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="C96" s="21">
+        <v>1</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="F96" s="21">
+        <v>1</v>
+      </c>
+      <c r="G96" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{FLUIDODATERRA_i} &amp; 0.98 &amp; 1 &amp; 0.96 &amp; 0.98 &amp; 1 &amp; 0.96 \\</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="21">
+        <v>0</v>
+      </c>
+      <c r="C97" s="21">
+        <v>0</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="21">
+        <v>0</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{FLUIDODATERRA_o} &amp; 0 &amp; 0 &amp; 0 &amp; 0 &amp; 0 &amp; 0 \\</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="21">
+        <v>1</v>
+      </c>
+      <c r="C98" s="21">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21">
+        <v>1</v>
+      </c>
+      <c r="E98" s="22">
+        <v>1</v>
+      </c>
+      <c r="F98" s="21">
+        <v>1</v>
+      </c>
+      <c r="G98" s="21">
+        <v>1</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{NÃOCONSOLID} &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp; 1 \\</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="21">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="C99" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0.39622641509433898</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0.618356594879378</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0.99194703761900305</v>
+      </c>
+      <c r="G99" s="21">
+        <v>0.44918356420483102</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{POÇO} &amp; 0.545 &amp; 0.875 &amp; 0.396 &amp; 0.618 &amp; 0.992 &amp; 0.449 \\</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="21">
+        <v>0.951977401129943</v>
+      </c>
+      <c r="C100" s="21">
+        <v>0.95738636363636298</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0.94662921348314599</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0.97220429162335797</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0.97772817964394498</v>
+      </c>
+      <c r="G100" s="21">
+        <v>0.96674246976030498</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{ROCHA} &amp; 0.952 &amp; 0.957 &amp; 0.947 &amp; 0.972 &amp; 0.978 &amp; 0.967 \\</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="21">
+        <v>0</v>
+      </c>
+      <c r="C101" s="21">
+        <v>0</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="G101" s="21">
+        <v>0.73161340007701103</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{TEXTURA} &amp; 0 &amp; 0 &amp; 0 &amp; 0.732 &amp; 0.732 &amp; 0.732 \\</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="21">
+        <v>0.77593722755012995</v>
+      </c>
+      <c r="C102" s="21">
+        <v>0.81204379562043705</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0.74290484140233704</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0.92800404234670097</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0.97118671220042496</v>
+      </c>
+      <c r="G102" s="21">
+        <v>0.88849802718836901</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{UNIDADE_CRONO} &amp; 0.776 &amp; 0.812 &amp; 0.743 &amp; 0.928 &amp; 0.971 &amp; 0.888 \\</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1">
+      <c r="A103" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="24">
+        <v>0.73446327683615797</v>
+      </c>
+      <c r="C103" s="24">
+        <v>0.95588235294117596</v>
+      </c>
+      <c r="D103" s="24">
+        <v>0.596330275229357</v>
+      </c>
+      <c r="E103" s="25">
+        <v>0.76569877129945996</v>
+      </c>
+      <c r="F103" s="24">
+        <v>0.99653443029415001</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0.62169120422020396</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{UNIDADE_LITO} &amp; 0.734 &amp; 0.956 &amp; 0.596 &amp; 0.766 &amp; 0.997 &amp; 0.622 \\</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10141,7 +11382,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDDC40B-8179-4A3D-A4A8-8E6AC9E47AB6}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3114,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:F101"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6346,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:BK103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90:I103"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11382,7 +11382,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12388,7 +12388,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\GitHub\Petro_KGraph\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{3E9E5710-8E29-4E69-A5AB-3FCD32D87E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDDC40B-8179-4A3D-A4A8-8E6AC9E47AB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EAF07-9C6A-4772-8982-DCCD299C049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -1208,10 +1208,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3114,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
@@ -6346,7 +6342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:BK103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -11381,8 +11377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12387,8 +12383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12401,7 +12397,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>265</v>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\GitHub\Petro_KGraph\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EAF07-9C6A-4772-8982-DCCD299C049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017249AB-F927-40C6-B8D3-ABFAD99452B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="285">
   <si>
     <t>Precision</t>
   </si>
@@ -881,9 +879,6 @@
     <t>30 com patience= 5 (melhor val_loss na epoch = 12)</t>
   </si>
   <si>
-    <t>V2 Classes</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -894,6 +889,12 @@
   </si>
   <si>
     <t>Final Model</t>
+  </si>
+  <si>
+    <t>Final NER Model</t>
+  </si>
+  <si>
+    <t>Final NER Model Classes</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1168,18 +1169,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3110,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3159,7 +3148,7 @@
         <v>134</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3210,7 +3199,7 @@
       <c r="D3" s="28">
         <v>0.90114728392209298</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="45"/>
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3329,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B7" s="42">
         <v>0.82837748719101201</v>
@@ -3556,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="V17" s="11" t="s">
         <v>2</v>
@@ -5718,10 +5707,10 @@
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="50"/>
+      <c r="I53" s="46"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="I54" s="50"/>
+      <c r="I54" s="46"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
@@ -5807,97 +5796,117 @@
         <v>0.77979892143477603</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:12">
       <c r="A73" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="14">
-        <v>0.929595827900912</v>
+        <v>0.92857142857142805</v>
       </c>
       <c r="C73" s="14">
-        <v>0.89348370927318299</v>
+        <v>0.88930348258706404</v>
       </c>
       <c r="D73" s="15">
-        <v>0.96875</v>
+        <v>0.97146739130434701</v>
       </c>
       <c r="F73" t="str">
         <f>_xlfn.CONCAT("\textbf{", A73, "} &amp; ", ROUND(B73,3), " &amp; ",   ROUND(C73,3), " &amp; ", ROUND(D73,3), " \\")</f>
-        <v>\textbf{B=BACIA} &amp; 0.93 &amp; 0.893 &amp; 0.969 \\</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>\textbf{B=BACIA} &amp; 0,929 &amp; 0,889 &amp; 0,971 \\</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B74" s="14">
-        <v>0.83760683760683696</v>
+        <v>0.88715953307392903</v>
       </c>
       <c r="C74" s="14">
-        <v>0.86725663716814105</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="D74" s="15">
-        <v>0.80991735537190002</v>
+        <v>0.94214876033057804</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" ref="F74:F101" si="0">_xlfn.CONCAT("\textbf{", A74, "} &amp; ", ROUND(B74,3), " &amp; ",   ROUND(C74,3), " &amp; ", ROUND(D74,3), " \\")</f>
-        <v>\textbf{B=CAMPO} &amp; 0.838 &amp; 0.867 &amp; 0.81 \\</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>\textbf{B=CAMPO} &amp; 0,887 &amp; 0,838 &amp; 0,942 \\</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B75" s="14">
-        <v>0.91262135922330001</v>
+        <v>0.90640394088669896</v>
       </c>
       <c r="C75" s="14">
-        <v>0.90384615384615297</v>
+        <v>0.91089108910891003</v>
       </c>
       <c r="D75" s="15">
-        <v>0.92156862745098</v>
+        <v>0.90196078431372495</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=ELEMENTO_PETRO} &amp; 0.913 &amp; 0.904 &amp; 0.922 \\</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>\textbf{B=ELEMENTO_PETRO} &amp; 0,906 &amp; 0,911 &amp; 0,902 \\</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="14">
-        <v>0.93333333333333302</v>
+        <v>0.94</v>
       </c>
       <c r="C76" s="14">
-        <v>0.87906976744186005</v>
+        <v>0.89523809523809506</v>
       </c>
       <c r="D76" s="15">
-        <v>0.99473684210526303</v>
+        <v>0.98947368421052595</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=ESTRUTURA_FÍSICA} &amp; 0.933 &amp; 0.879 &amp; 0.995 \\</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>\textbf{B=ESTRUTURA_FÍSICA} &amp; 0,94 &amp; 0,895 &amp; 0,989 \\</v>
+      </c>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="14">
-        <v>0.86338797814207602</v>
+        <v>0.95757575757575697</v>
       </c>
       <c r="C77" s="14">
-        <v>0.75961538461538403</v>
+        <v>0.91860465116279</v>
       </c>
       <c r="D77" s="15">
         <v>1</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=EVENTO_PETRO} &amp; 0.863 &amp; 0.76 &amp; 1 \\</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>\textbf{B=EVENTO_PETRO} &amp; 0,958 &amp; 0,919 &amp; 1 \\</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="15"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="13" t="s">
         <v>21</v>
       </c>
@@ -5914,350 +5923,430 @@
         <f t="shared" si="0"/>
         <v>\textbf{B=FLUIDO} &amp; 1 &amp; 1 &amp; 1 \\</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="I78" s="13"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B79" s="14">
-        <v>0.91935483870967705</v>
+        <v>0.93690851735015701</v>
       </c>
       <c r="C79" s="14">
-        <v>0.890625</v>
+        <v>0.88922155688622695</v>
       </c>
       <c r="D79" s="15">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=FLUIDODATERRA_i} &amp; 0.919 &amp; 0.891 &amp; 0.95 \\</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>\textbf{B=FLUIDODATERRA_i} &amp; 0,937 &amp; 0,889 &amp; 0,99 \\</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="15"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B80" s="14">
-        <v>0.911392405063291</v>
+        <v>0.92105263157894701</v>
       </c>
       <c r="C80" s="14">
-        <v>0.837209302325581</v>
+        <v>0.875</v>
       </c>
       <c r="D80" s="15">
-        <v>1</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=FLUIDODATERRA_o} &amp; 0.911 &amp; 0.837 &amp; 1 \\</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>\textbf{B=FLUIDODATERRA_o} &amp; 0,921 &amp; 0,875 &amp; 0,972 \\</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="15"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B81" s="14">
-        <v>0.96</v>
+        <v>0.96644295302013405</v>
       </c>
       <c r="C81" s="14">
-        <v>0.92903225806451595</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="D81" s="15">
         <v>0.99310344827586206</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=NÃOCONSOLID} &amp; 0.96 &amp; 0.929 &amp; 0.993 \\</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>\textbf{B=NÃOCONSOLID} &amp; 0,966 &amp; 0,941 &amp; 0,993 \\</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="15"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="14">
-        <v>0.63230240549828098</v>
+        <v>0.59824046920821095</v>
       </c>
       <c r="C82" s="14">
-        <v>0.49729729729729699</v>
+        <v>0.43404255319148899</v>
       </c>
       <c r="D82" s="15">
-        <v>0.86792452830188604</v>
+        <v>0.96226415094339601</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=POÇO} &amp; 0.632 &amp; 0.497 &amp; 0.868 \\</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>\textbf{B=POÇO} &amp; 0,598 &amp; 0,434 &amp; 0,962 \\</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B83" s="14">
-        <v>0.84088269454123099</v>
+        <v>0.92385786802030401</v>
       </c>
       <c r="C83" s="14">
-        <v>0.73427991886409705</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="D83" s="15">
-        <v>0.98369565217391297</v>
+        <v>0.98913043478260798</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=ROCHA} &amp; 0.841 &amp; 0.734 &amp; 0.984 \\</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>\textbf{B=ROCHA} &amp; 0,924 &amp; 0,867 &amp; 0,989 \\</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="15"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B84" s="14">
-        <v>0.11764705882352899</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="C84" s="14">
-        <v>7.69230769230769E-2</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="D84" s="15">
         <v>0.25</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=TEXTURA} &amp; 0.118 &amp; 0.077 &amp; 0.25 \\</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>\textbf{B=TEXTURA} &amp; 0,133 &amp; 0,091 &amp; 0,25 \\</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="15"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B85" s="14">
-        <v>0.92976588628762502</v>
+        <v>0.91176470588235203</v>
       </c>
       <c r="C85" s="14">
-        <v>0.91147540983606501</v>
+        <v>0.874608150470219</v>
       </c>
       <c r="D85" s="15">
-        <v>0.94880546075085304</v>
+        <v>0.95221843003412898</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=UNIDADE_CRONO} &amp; 0.93 &amp; 0.911 &amp; 0.949 \\</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>\textbf{B=UNIDADE_CRONO} &amp; 0,912 &amp; 0,875 &amp; 0,952 \\</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="15"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B86" s="14">
-        <v>0.95737704918032696</v>
+        <v>0.94527363184079505</v>
       </c>
       <c r="C86" s="14">
-        <v>0.94193548387096704</v>
+        <v>0.94059405940593999</v>
       </c>
       <c r="D86" s="15">
-        <v>0.97333333333333305</v>
+        <v>0.95</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{B=UNIDADE_LITO} &amp; 0.957 &amp; 0.942 &amp; 0.973 \\</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>\textbf{B=UNIDADE_LITO} &amp; 0,945 &amp; 0,941 &amp; 0,95 \\</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="15"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="14">
-        <v>0.92700467457749003</v>
+        <v>0.92901802133137101</v>
       </c>
       <c r="C87" s="14">
-        <v>0.87330623306233002</v>
+        <v>0.89321074964639302</v>
       </c>
       <c r="D87" s="15">
-        <v>0.98773946360153198</v>
+        <v>0.96781609195402296</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=BACIA} &amp; 0.927 &amp; 0.873 &amp; 0.988 \\</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>\textbf{I=BACIA} &amp; 0,929 &amp; 0,893 &amp; 0,968 \\</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="15"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B88" s="14">
-        <v>0.89719626168224298</v>
+        <v>0.90146750524108998</v>
       </c>
       <c r="C88" s="14">
-        <v>0.92307692307692302</v>
+        <v>0.83657587548638102</v>
       </c>
       <c r="D88" s="15">
-        <v>0.87272727272727202</v>
+        <v>0.97727272727272696</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=CAMPO} &amp; 0.897 &amp; 0.923 &amp; 0.873 \\</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>\textbf{I=CAMPO} &amp; 0,901 &amp; 0,837 &amp; 0,977 \\</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="15"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B89" s="14">
-        <v>0.92499999999999905</v>
+        <v>0.94533762057877802</v>
       </c>
       <c r="C89" s="14">
-        <v>0.87573964497041401</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="D89" s="15">
-        <v>0.98013245033112495</v>
+        <v>0.97350993377483397</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=ELEMENTO_PETRO} &amp; 0.925 &amp; 0.876 &amp; 0.98 \\</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>\textbf{I=ELEMENTO_PETRO} &amp; 0,945 &amp; 0,919 &amp; 0,974 \\</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="14">
-        <v>0.777464788732394</v>
+        <v>0.82456140350877105</v>
       </c>
       <c r="C90" s="14">
-        <v>0.65714285714285703</v>
+        <v>0.71573604060913698</v>
       </c>
       <c r="D90" s="15">
-        <v>0.95172413793103405</v>
+        <v>0.972413793103448</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=ESTRUTURA_FÍSICA} &amp; 0.777 &amp; 0.657 &amp; 0.952 \\</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>\textbf{I=ESTRUTURA_FÍSICA} &amp; 0,825 &amp; 0,716 &amp; 0,972 \\</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="15"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B91" s="14">
-        <v>1</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="C91" s="14">
-        <v>1</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="D91" s="15">
         <v>1</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=EVENTO_PETRO} &amp; 1 &amp; 1 &amp; 1 \\</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>\textbf{I=EVENTO_PETRO} &amp; 0,923 &amp; 0,857 &amp; 1 \\</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B92" s="14">
-        <v>0.93333333333333302</v>
+        <v>0.875</v>
       </c>
       <c r="C92" s="14">
-        <v>0.875</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="D92" s="15">
         <v>1</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=FLUIDO} &amp; 0.933 &amp; 0.875 &amp; 1 \\</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>\textbf{I=FLUIDO} &amp; 0,875 &amp; 0,778 &amp; 1 \\</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="15"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="14">
-        <v>0.94551845342706498</v>
+        <v>0.96321070234113704</v>
       </c>
       <c r="C93" s="14">
-        <v>0.98175182481751799</v>
+        <v>0.95049504950495001</v>
       </c>
       <c r="D93" s="15">
-        <v>0.91186440677966096</v>
+        <v>0.97627118644067801</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=FLUIDODATERRA_i} &amp; 0.946 &amp; 0.982 &amp; 0.912 \\</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>\textbf{I=FLUIDODATERRA_i} &amp; 0,963 &amp; 0,95 &amp; 0,976 \\</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="15"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="14">
-        <v>0.60606060606060597</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="C94" s="14">
-        <v>0.45454545454545398</v>
+        <v>1</v>
       </c>
       <c r="D94" s="15">
-        <v>0.90909090909090895</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=FLUIDODATERRA_o} &amp; 0.606 &amp; 0.455 &amp; 0.909 \\</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>\textbf{I=FLUIDODATERRA_o} &amp; 0,429 &amp; 1 &amp; 0,273 \\</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="15"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B95" s="14">
-        <v>0.91205211726384305</v>
+        <v>0.93687707641196005</v>
       </c>
       <c r="C95" s="14">
-        <v>0.875</v>
+        <v>0.91558441558441495</v>
       </c>
       <c r="D95" s="15">
-        <v>0.952380952380952</v>
+        <v>0.95918367346938704</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=NÃOCONSOLID} &amp; 0.912 &amp; 0.875 &amp; 0.952 \\</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>\textbf{I=NÃOCONSOLID} &amp; 0,937 &amp; 0,916 &amp; 0,959 \\</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="15"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="14">
-        <v>0.61283643892339501</v>
+        <v>0.61395348837209296</v>
       </c>
       <c r="C96" s="14">
-        <v>0.45030425963488802</v>
+        <v>0.44337811900191898</v>
       </c>
       <c r="D96" s="15">
-        <v>0.95896328293736499</v>
+        <v>0.99784017278617698</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=POÇO} &amp; 0.613 &amp; 0.45 &amp; 0.959 \\</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>\textbf{I=POÇO} &amp; 0,614 &amp; 0,443 &amp; 0,998 \\</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="15"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="14">
-        <v>0.82446043165467597</v>
+        <v>0.88973966309341501</v>
       </c>
       <c r="C97" s="14">
-        <v>0.70915841584158401</v>
+        <v>0.80248618784530301</v>
       </c>
       <c r="D97" s="15">
-        <v>0.98453608247422597</v>
+        <v>0.99828178694157998</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=ROCHA} &amp; 0.824 &amp; 0.709 &amp; 0.985 \\</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>\textbf{I=ROCHA} &amp; 0,89 &amp; 0,802 &amp; 0,998 \\</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="15"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="13" t="s">
         <v>41</v>
       </c>
@@ -6274,60 +6363,76 @@
         <f t="shared" si="0"/>
         <v>\textbf{I=TEXTURA} &amp; 0 &amp; 0 &amp; 0 \\</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="I98" s="13"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="15"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="14">
-        <v>0.92538783550849502</v>
+        <v>0.91130012150668205</v>
       </c>
       <c r="C99" s="14">
-        <v>0.86669741697416902</v>
+        <v>0.84383438343834305</v>
       </c>
       <c r="D99" s="15">
-        <v>0.99260433174854701</v>
+        <v>0.99049128367670303</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=UNIDADE_CRONO} &amp; 0.925 &amp; 0.867 &amp; 0.993 \\</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>\textbf{I=UNIDADE_CRONO} &amp; 0,911 &amp; 0,844 &amp; 0,99 \\</v>
+      </c>
+      <c r="I99" s="13"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B100" s="14">
-        <v>0.96168582375478895</v>
+        <v>0.932668329177057</v>
       </c>
       <c r="C100" s="14">
-        <v>0.94360902255639101</v>
+        <v>0.89473684210526305</v>
       </c>
       <c r="D100" s="15">
-        <v>0.98046875</v>
+        <v>0.97395833333333304</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{I=UNIDADE_LITO} &amp; 0.962 &amp; 0.944 &amp; 0.98 \\</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1">
+        <v>\textbf{I=UNIDADE_LITO} &amp; 0,933 &amp; 0,895 &amp; 0,974 \\</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="15"/>
+    </row>
+    <row r="101" spans="1:12" ht="15" thickBot="1">
       <c r="A101" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="17">
-        <v>0.99118608627094695</v>
+        <v>0.99158007498660905</v>
       </c>
       <c r="C101" s="17">
-        <v>0.99857546167991895</v>
+        <v>0.99899845451170299</v>
       </c>
       <c r="D101" s="18">
-        <v>0.98390526906783204</v>
+        <v>0.98427105840719997</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="0"/>
-        <v>\textbf{O} &amp; 0.991 &amp; 0.999 &amp; 0.984 \\</v>
-      </c>
+        <v>\textbf{O} &amp; 0,992 &amp; 0,999 &amp; 0,984 \\</v>
+      </c>
+      <c r="I101" s="16"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6342,8 +6447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:BK103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7392,22 +7497,22 @@
       <c r="BE16" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="BF16" s="43">
+      <c r="BF16" s="21">
         <v>0.930894308943089</v>
       </c>
-      <c r="BG16" s="43">
+      <c r="BG16" s="21">
         <v>0.87964148527528796</v>
       </c>
-      <c r="BH16" s="43">
+      <c r="BH16" s="21">
         <v>0.90454246214614797</v>
       </c>
-      <c r="BI16" s="43">
+      <c r="BI16" s="21">
         <v>0.99017329196039805</v>
       </c>
-      <c r="BJ16" s="43">
+      <c r="BJ16" s="21">
         <v>0.935656708664243</v>
       </c>
-      <c r="BK16" s="44">
+      <c r="BK16" s="22">
         <v>0.96214336993650296</v>
       </c>
     </row>
@@ -7583,22 +7688,22 @@
       <c r="BE17" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="BF17" s="43">
+      <c r="BF17" s="21">
         <v>0.97674418604651103</v>
       </c>
-      <c r="BG17" s="43">
+      <c r="BG17" s="21">
         <v>0.70588235294117596</v>
       </c>
-      <c r="BH17" s="43">
+      <c r="BH17" s="21">
         <v>0.81951219512195095</v>
       </c>
-      <c r="BI17" s="43">
+      <c r="BI17" s="21">
         <v>0.99759684176047703</v>
       </c>
-      <c r="BJ17" s="43">
+      <c r="BJ17" s="21">
         <v>0.72095233942353798</v>
       </c>
-      <c r="BK17" s="44">
+      <c r="BK17" s="22">
         <v>0.837008081867327</v>
       </c>
     </row>
@@ -7774,22 +7879,22 @@
       <c r="BE18" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="BF18" s="43">
+      <c r="BF18" s="21">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BG18" s="43">
+      <c r="BG18" s="21">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BH18" s="43">
+      <c r="BH18" s="21">
         <v>0.99019607843137203</v>
       </c>
-      <c r="BI18" s="43">
+      <c r="BI18" s="21">
         <v>0.99701991568541903</v>
       </c>
-      <c r="BJ18" s="43">
+      <c r="BJ18" s="21">
         <v>0.99701991568541903</v>
       </c>
-      <c r="BK18" s="44">
+      <c r="BK18" s="22">
         <v>0.99701991568541903</v>
       </c>
     </row>
@@ -7965,22 +8070,22 @@
       <c r="BE19" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="BF19" s="43">
+      <c r="BF19" s="21">
         <v>0.95263157894736805</v>
       </c>
-      <c r="BG19" s="43">
+      <c r="BG19" s="21">
         <v>0.96276595744680804</v>
       </c>
-      <c r="BH19" s="43">
+      <c r="BH19" s="21">
         <v>0.95767195767195701</v>
       </c>
-      <c r="BI19" s="43">
+      <c r="BI19" s="21">
         <v>0.982264025567402</v>
       </c>
-      <c r="BJ19" s="43">
+      <c r="BJ19" s="21">
         <v>0.99271364286067199</v>
       </c>
-      <c r="BK19" s="44">
+      <c r="BK19" s="22">
         <v>0.987461189723843</v>
       </c>
     </row>
@@ -8156,22 +8261,22 @@
       <c r="BE20" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="BF20" s="43">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="43">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="43">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="43">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="43">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="44">
+      <c r="BF20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="22">
         <v>1</v>
       </c>
     </row>
@@ -8347,22 +8452,22 @@
       <c r="BE21" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="BF21" s="43">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="43">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="43">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="43">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="43">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="44">
+      <c r="BF21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8538,22 +8643,22 @@
       <c r="BE22" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="BF22" s="43">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="43">
+      <c r="BF22" s="21">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="21">
         <v>0.96</v>
       </c>
-      <c r="BH22" s="43">
+      <c r="BH22" s="21">
         <v>0.97959183673469297</v>
       </c>
-      <c r="BI22" s="43">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="43">
+      <c r="BI22" s="21">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="21">
         <v>0.96</v>
       </c>
-      <c r="BK22" s="44">
+      <c r="BK22" s="22">
         <v>0.97959183673469297</v>
       </c>
     </row>
@@ -8729,22 +8834,22 @@
       <c r="BE23" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="BF23" s="43">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="43">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="43">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="43">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="43">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="44">
+      <c r="BF23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8920,22 +9025,22 @@
       <c r="BE24" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="BF24" s="43">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="43">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="43">
-        <v>1</v>
-      </c>
-      <c r="BI24" s="43">
-        <v>1</v>
-      </c>
-      <c r="BJ24" s="43">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="44">
+      <c r="BF24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="22">
         <v>1</v>
       </c>
     </row>
@@ -9111,22 +9216,22 @@
       <c r="BE25" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="BF25" s="43">
+      <c r="BF25" s="21">
         <v>0.875</v>
       </c>
-      <c r="BG25" s="43">
+      <c r="BG25" s="21">
         <v>0.39622641509433898</v>
       </c>
-      <c r="BH25" s="43">
+      <c r="BH25" s="21">
         <v>0.54545454545454497</v>
       </c>
-      <c r="BI25" s="43">
+      <c r="BI25" s="21">
         <v>0.99194703761900305</v>
       </c>
-      <c r="BJ25" s="43">
+      <c r="BJ25" s="21">
         <v>0.44918356420483102</v>
       </c>
-      <c r="BK25" s="44">
+      <c r="BK25" s="22">
         <v>0.618356594879378</v>
       </c>
     </row>
@@ -9302,22 +9407,22 @@
       <c r="BE26" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="BF26" s="43">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="43">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="43">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="43">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="43">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="44">
+      <c r="BF26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9493,22 +9598,22 @@
       <c r="BE27" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="BF27" s="43">
+      <c r="BF27" s="21">
         <v>0.95738636363636298</v>
       </c>
-      <c r="BG27" s="43">
+      <c r="BG27" s="21">
         <v>0.94662921348314599</v>
       </c>
-      <c r="BH27" s="43">
+      <c r="BH27" s="21">
         <v>0.951977401129943</v>
       </c>
-      <c r="BI27" s="43">
+      <c r="BI27" s="21">
         <v>0.97772817964394498</v>
       </c>
-      <c r="BJ27" s="43">
+      <c r="BJ27" s="21">
         <v>0.96674246976030498</v>
       </c>
-      <c r="BK27" s="44">
+      <c r="BK27" s="22">
         <v>0.97220429162335797</v>
       </c>
     </row>
@@ -9684,22 +9789,22 @@
       <c r="BE28" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="BF28" s="43">
-        <v>0</v>
-      </c>
-      <c r="BG28" s="43">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="43">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="43">
+      <c r="BF28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="21">
         <v>0.73161340007701103</v>
       </c>
-      <c r="BJ28" s="43">
+      <c r="BJ28" s="21">
         <v>0.73161340007701103</v>
       </c>
-      <c r="BK28" s="44">
+      <c r="BK28" s="22">
         <v>0.73161340007701103</v>
       </c>
     </row>
@@ -9875,22 +9980,22 @@
       <c r="BE29" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="BF29" s="43">
+      <c r="BF29" s="21">
         <v>0.81204379562043705</v>
       </c>
-      <c r="BG29" s="43">
+      <c r="BG29" s="21">
         <v>0.74290484140233704</v>
       </c>
-      <c r="BH29" s="43">
+      <c r="BH29" s="21">
         <v>0.77593722755012995</v>
       </c>
-      <c r="BI29" s="43">
+      <c r="BI29" s="21">
         <v>0.97118671220042496</v>
       </c>
-      <c r="BJ29" s="43">
+      <c r="BJ29" s="21">
         <v>0.88849802718836901</v>
       </c>
-      <c r="BK29" s="44">
+      <c r="BK29" s="22">
         <v>0.92800404234670097</v>
       </c>
     </row>
@@ -10066,22 +10171,22 @@
       <c r="BE30" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="BF30" s="45">
+      <c r="BF30" s="24">
         <v>0.95588235294117596</v>
       </c>
-      <c r="BG30" s="45">
+      <c r="BG30" s="24">
         <v>0.596330275229357</v>
       </c>
-      <c r="BH30" s="45">
+      <c r="BH30" s="24">
         <v>0.73446327683615797</v>
       </c>
-      <c r="BI30" s="45">
+      <c r="BI30" s="24">
         <v>0.99653443029415001</v>
       </c>
-      <c r="BJ30" s="45">
+      <c r="BJ30" s="24">
         <v>0.62169120422020396</v>
       </c>
-      <c r="BK30" s="46">
+      <c r="BK30" s="25">
         <v>0.76569877129945996</v>
       </c>
     </row>
@@ -10721,7 +10826,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="4">
         <v>0.77581329561527501</v>
@@ -10829,7 +10934,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B81" s="4">
         <v>0.75865615358244698</v>
@@ -10856,7 +10961,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B82" s="4">
         <v>0.76177339901477803</v>
@@ -10937,7 +11042,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B85" s="42">
         <v>0.87632631762045499</v>
@@ -11377,7 +11482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3F6E-2D9F-485D-A362-C05F2C8265B8}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -12078,16 +12183,16 @@
       <c r="D22" s="4">
         <v>0.53086486707606995</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="43" t="s">
         <v>276</v>
       </c>
     </row>
@@ -12104,19 +12209,19 @@
       <c r="D23" s="4">
         <v>0.69462695387042095</v>
       </c>
-      <c r="J23" s="47">
-        <v>0</v>
-      </c>
-      <c r="K23" s="48" t="s">
+      <c r="J23" s="43">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="44">
         <v>0.98901098901098905</v>
       </c>
-      <c r="M23" s="48">
-        <v>1</v>
-      </c>
-      <c r="N23" s="48">
+      <c r="M23" s="44">
+        <v>1</v>
+      </c>
+      <c r="N23" s="44">
         <v>0.97826086956521696</v>
       </c>
     </row>
@@ -12133,19 +12238,19 @@
       <c r="D24" s="4">
         <v>0.75353095496400402</v>
       </c>
-      <c r="J24" s="47">
-        <v>1</v>
-      </c>
-      <c r="K24" s="48" t="s">
+      <c r="J24" s="43">
+        <v>1</v>
+      </c>
+      <c r="K24" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="44">
         <v>0.749999999999999</v>
       </c>
-      <c r="M24" s="48">
-        <v>1</v>
-      </c>
-      <c r="N24" s="48">
+      <c r="M24" s="44">
+        <v>1</v>
+      </c>
+      <c r="N24" s="44">
         <v>0.6</v>
       </c>
     </row>
@@ -12162,19 +12267,19 @@
       <c r="D25" s="4">
         <v>0.74956068647649399</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="43">
         <v>2</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="44">
         <v>0.75</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="44">
         <v>0.8</v>
       </c>
-      <c r="N25" s="48">
+      <c r="N25" s="44">
         <v>0.70588235294117596</v>
       </c>
     </row>
@@ -12191,19 +12296,19 @@
       <c r="D26" s="4">
         <v>0.81541379252177604</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="43">
         <v>3</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="44">
         <v>0.89051094890510896</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="44">
         <v>0.92424242424242398</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="44">
         <v>0.85915492957746398</v>
       </c>
     </row>
@@ -12220,19 +12325,19 @@
       <c r="D27" s="4">
         <v>0.76723535468864401</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="43">
         <v>4</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="44">
         <v>0.93159609120521103</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="44">
         <v>0.90793650793650704</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="44">
         <v>0.95652173913043403</v>
       </c>
     </row>
@@ -12249,19 +12354,19 @@
       <c r="D28" s="4">
         <v>0.75399380294523799</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="43">
         <v>5</v>
       </c>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="44">
         <v>0.87179487179487103</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="44">
         <v>0.85</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="44">
         <v>0.89473684210526305</v>
       </c>
     </row>
@@ -12397,7 +12502,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>265</v>

--- a/Evaluation/Avaliação dos modelos.xlsx
+++ b/Evaluation/Avaliação dos modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\GitHub\Petro_KGraph\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017249AB-F927-40C6-B8D3-ABFAD99452B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B8D7B-7386-4DF2-BE12-637293BCD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetroVec" sheetId="4" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C6100A-D7AE-4C72-AEAD-5A5CC55A8794}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3099,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:F101"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6447,8 +6447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E749-1D63-493F-B766-CF0D3C973D9A}">
   <dimension ref="A1:BK103"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12488,8 +12488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B291F6F-B9A9-4874-ABB2-964907BBC7C5}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
